--- a/Behaviour/BCIO-behaviour-hierarchy.xlsx
+++ b/Behaviour/BCIO-behaviour-hierarchy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P180"/>
+  <dimension ref="A1:P231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,44 +446,44 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>Sub-ontology</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
         <is>
           <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>BCIO:050450</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>abstinence end point</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -495,36 +495,37 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
+          <t>A temporal region when a person stops abstaining from a behaviour.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
-Behaviours are usually in response to an internal or external stimuli.
-Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
-'behaviours' can involve a series of activities (e.g., more granular behaviours).
-'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
+          <t>A time point that is the end of an abstinence period.</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:050440</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:050453</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>behaviour end point</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -533,28 +534,38 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A time point that is the end of an individual human behaviour.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>A temporal region when a behaviour ends.</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>BCIO:050452</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>abstinence start point</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>travel behaviour</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -562,63 +573,77 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
+          <t>A time point that is the start of an abstinence period.</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
+          <t>A temporal region when a person starts being abstinent from a behaviour.</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>BCIO:050454</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>behaviour starting point</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>transporting behaviour</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A time point that is the start of an individual human behaviour.</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>A temporal region when a behaviour starts.</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:036026</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>BCIO:006085</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>locomotive behaviour</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -626,39 +651,49 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A spatial &lt;quality&gt; that inheres in a bearer by virtue of its position relative to other entities.</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Where a person, animal or object is.</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>BCIO:050839</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>task complexity</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>walking</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
+          <t>A process attribute that is the complexity of thought or behaviour required to achieve a goal.</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -667,16 +702,16 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:036029</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>BCIO:050435</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>posture behaviour</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -684,82 +719,92 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A process attribute of an individual human behaviour.</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>An attribute of a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:050460</t>
+          <t>BCIO:050431</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>postural expressive behaviour</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>A posture behaviour that is expressive.</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
+          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
+          <t>The mental effort required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:036067</t>
+          <t>BCIO:050434</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>lying down</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:036068</t>
+          <t>BCIO:050467</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -767,7 +812,7 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>reclining</t>
+          <t>low emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -776,19 +821,24 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Emotional management exertion expended on a behaviour that is low.</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:036070</t>
+          <t>BCIO:050471</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -796,7 +846,7 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>standing</t>
+          <t>moderate emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -805,19 +855,24 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Emotional management exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:036069</t>
+          <t>BCIO:050463</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -825,7 +880,7 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sitting</t>
+          <t>high emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -834,28 +889,33 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Emotional management exertion expended on a behaviour that is high.</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:050439</t>
+          <t>BCIO:050472</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>material entity-related behaviour</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>moderate mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -863,26 +923,31 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to a material entity.</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Mental exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:050426</t>
+          <t>BCIO:050433</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>physical contact behaviour</t>
+          <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -892,19 +957,24 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that makes physical contact with something.</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Mental exertion expended on a behaviour where the exertion involves cognitive processes.</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>The effort relating to thinking required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:036028</t>
+          <t>BCIO:050462</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -912,7 +982,7 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>physical impact behaviour</t>
+          <t>high cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -921,48 +991,58 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>A physical contact behaviour that is forceful.</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Cognitive exertion expended on a behaviour that is high.</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:036061</t>
+          <t>BCIO:050470</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>moderate cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>A material entity-related behaviour that involves ingesting material into the body.</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Cognitive exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:036113</t>
+          <t>BCIO:050466</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -970,7 +1050,7 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>low cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -979,117 +1059,112 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Cognitive exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>substance use</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Substance use behaviour is not equated with substance abuse.</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050468</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>low mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Mental exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>tobacco use</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:036103</t>
+          <t>BCIO:050464</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>high mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour</t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Mental exertion expended on a behaviour that is high.</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>smoking</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:036105</t>
+          <t>BCIO:050902</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>behavioural ease</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>cigarette smoking behaviour</t>
-        </is>
-      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>A tobacco smoking behaviour that involves setting light to one end of a cigarette, putting the other end to the lips and sucking in order to ingest cigarette smoke.</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
+          <t>A behavioural attribute that is the level of convenience, ease or comfort of a behaviour.</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1098,119 +1173,134 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:050376</t>
+          <t>BCIO:050444</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>behavioural reflectiveness</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>alcohol consumption</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves drinking an alcohol-containing product.</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural attribute that is the degree to which the behaviour is under the control of reflective motivation.</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:050415</t>
+          <t>BCIO:050833</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>self-injecting consumption</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>reflectively controlled</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
+          <t>Behavioural reflectiveness in which the behaviour is predominantly controlled by reflective motivation.</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:050393</t>
+          <t>BCIO:036076</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>impulsiveness</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>intravenous self-injecting</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted without thinking.</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:050394</t>
+          <t>BCIO:050814</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>emotionally driven</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>inhaling consumption</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
+          <t>A behavioural attribute in which the behaviour is caused by an emotion process.</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1219,216 +1309,236 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:050395</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>sniffing consumption</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>The physical effort required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:050465</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>high physical exertion expended on behaviour</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>vaping device use</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Physical exertion expended on a behaviour that is high</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:050378</t>
+          <t>BCIO:050473</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>moderate physical exertion expended on behaviour</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>electronic vaping device use</t>
-        </is>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Physical exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:050377</t>
+          <t>BCIO:050469</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>low physical exertion expended on behaviour</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>e-cigarette use</t>
-        </is>
-      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Inhaling consumption that that involves using an e-cigarette.</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
+          <t>Physical exertion expended on a behaviour that is low.</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:050447</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>intentionality</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>transdermal consumption</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:050412</t>
+          <t>BCIO:050430</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>behavioural form</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>medication-taking</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural attribute that is the physical way in which a behaviour is enacted.</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>pharmacological consumption</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
+          <t xml:space="preserve">The way in which the behaviour is performed, including the shape of one’s muscles and skeletal alignment during the behaviour. </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:050417</t>
+          <t>BCIO:050822</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>identity congruence</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>oral consumption</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
+          <t>A behavioural attribute that is the extent to which one’s behaviour is believed to be consistent with one’s core, positive self-identity.</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1437,27 +1547,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:050422</t>
+          <t>BCIO:050835</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>response cost</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>drinking</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Oral consumption behaviour that involves swallowing a liquid material.</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
+          <t>A behavioural attribute that is the time, effort, financial cost, or aversiveness of enacting a behaviour.</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1466,27 +1576,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:050423</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
+          <t>BFO:0000034</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>function</t>
+        </is>
+      </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>eating</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Oral consumption behaviour that involves chewing and swallowing some solid components</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
+          <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1495,16 +1605,16 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:036007</t>
+          <t>BCIO:036001</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>environmental system management behaviour</t>
-        </is>
-      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>human life function</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -1512,72 +1622,68 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>Behaviour that involves changing the physical or social environment.</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
+          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
+The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:036005</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
+          <t>BCIO:050416</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>behavioural disposition</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>object management behaviour</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
+          <t>A bodily disposition that is realised as some behaviour.</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
+          <t>A tendency to behave in a particular way.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:036027</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
+          <t>BCIO:050428</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>behavioural frequency</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>object-using behaviour</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
@@ -1585,102 +1691,116 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that uses a non-living object.</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
+          <t>A data item that is about the number of times a behaviour occurs in a time period.</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
+          <t>The number of times a person performs a behaviour within a specific period.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:036062</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
+          <t>BCIO:050429</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>number of behavioural occurrences</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>manufacturing behaviour</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A data item that is about the number of times a behaviour has occurred.</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:050420</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
+          <t>BCIO:036000</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>digital interaction behaviour</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
+Behaviours are usually in response to an internal or external stimuli.
+Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
+'behaviours' can involve a series of activities (e.g., more granular behaviours).
+'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:050427</t>
+          <t>BCIO:050437</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>health-related behaviour</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>audio presentation listening behaviour</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>An object-using  behaviour that involves attending to audiomaterial.</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
+          <t>An individual human behaviour that relates to health of oneself or others.</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1689,27 +1809,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:050413</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>watching behaviour</t>
-        </is>
-      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>providing healthcare</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
+          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1718,7 +1838,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:036063</t>
+          <t>BCIO:050362</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1726,7 +1846,7 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>reading behaviour</t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -1735,10 +1855,10 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
+          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1747,27 +1867,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:036075</t>
+          <t>BCIO:050367</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>harmful behaviour</t>
-        </is>
-      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>providing speech and language therapy</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>An individual human behaviour that causes net harm.</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
+          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1776,96 +1896,85 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:036014</t>
+          <t>BCIO:050363</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>self-injury behaviour</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>providing physical therapy</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
+          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:050398</t>
+          <t>BCIO:050366</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>harmful behaviour to others</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>providing occupational therapy</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning.</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
+          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:036037</t>
+          <t>BCIO:050364</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>harassment behaviour</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>providing psychological treatment</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
+          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1874,61 +1983,56 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:036032</t>
+          <t>BCIO:050365</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>bullying behaviour</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>providing creative arts therapy</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>A harassment behaviour that involves targeting someone through deliberate misuse of power in a relationship to inflict physical, social or psychological harm.</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>While bullying behaviours can be directed at anyone, they are often aimed at certain people because of their race, religion, gender or sexual orientation or any other aspect such as appearance or disability (https://www.ncab.org.au/bullying-advice/bullying-for-parents/definition-of-bullying/).</t>
+          <t>Providing psychological treatment that involves creative and expressive processes.</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:050437</t>
+          <t>BCIO:050360</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>providing healthcare advice</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to health.</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
+          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1937,27 +2041,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:050410</t>
+          <t>BCIO:050354</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>self-monitoring an aspect of health</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>prescribing behaviour</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
+          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1966,27 +2070,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:050357</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>physical performance behaviour</t>
-        </is>
-      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>social prescribing</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
+          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1995,27 +2099,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:050413</t>
+          <t>BCIO:050356</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>providing healthcare</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>prescribing behavioural regime</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
+          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2024,41 +2128,42 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:050414</t>
+          <t>BCIO:050355</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>diagnostic healthcare behaviour</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>prescribing medication</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
+          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
+Prescribing medication can include advising and authorising to stop using a medicine.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:050360</t>
+          <t>BCIO:050414</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -2066,7 +2171,7 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>providing healthcare advice</t>
+          <t>diagnostic healthcare behaviour</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -2075,19 +2180,24 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:050352</t>
+          <t>BCIO:050358</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -2095,7 +2205,7 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>providing healthcare testing</t>
+          <t>reviewing prescribed medication</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -2104,10 +2214,10 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
+          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2116,27 +2226,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:050353</t>
+          <t>BCIO:050352</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>providing health screening</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>providing healthcare testing</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
+          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2145,27 +2255,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:050361</t>
+          <t>BCIO:050353</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>making a referral to another health care service</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>providing health screening</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
+          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2174,7 +2284,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:050362</t>
+          <t>BCIO:050359</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -2182,7 +2292,7 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>providing healthcare treatment</t>
+          <t>administering vaccine</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -2191,39 +2301,44 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease.</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves adding a vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:050363</t>
+          <t>BCIO:050361</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>providing physical therapy</t>
-        </is>
-      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>making a referral to another health care service</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
+          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2232,56 +2347,61 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:050364</t>
+          <t>BCIO:050821</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>health-promoting behaviour</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>providing psychological treatment</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A health-related behaviour that improves the person’s health.</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>This class is for behaviour that promote positive health as well as protect against threats to health.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:050365</t>
+          <t>BCIO:050410</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>self-monitoring an aspect of health</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>providing creative arts therapy</t>
-        </is>
-      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Providing psychological treatment that involves creative and expressive processes.</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
+          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2290,27 +2410,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:050367</t>
+          <t>BCIO:036042</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>physical performance behaviour</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>providing speech and language therapy</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
+          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2319,36 +2439,41 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:050366</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>utilising healthcare</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>providing occupational therapy</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:050359</t>
+          <t>BCIO:050404</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -2356,7 +2481,7 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>administering vaccine</t>
+          <t>participating in healthcare treatment</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -2365,44 +2490,39 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease.</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Vaccination is defined as “a medical intervention that involves adding a vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+          <t>Utilising healthcare that involves engaging with a treatment regimen to improve or maintain aspects of one's health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:050358</t>
+          <t>BCIO:050406</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>reviewing prescribed medication</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>participating in psychological treatment</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
+          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2411,27 +2531,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:050354</t>
+          <t>BCIO:050407</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>prescribing behaviour</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>participating in creative arts therapy</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
+          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2440,7 +2560,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:050355</t>
+          <t>BCIO:050801</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -2449,7 +2569,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>prescribing medication</t>
+          <t>adherence to healthcare treatment</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2457,25 +2577,19 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
-Prescribing medication can include advising and authorising to stop using a medicine.</t>
+          <t>Participating in healthcare treatment in accordance with treatment instructions.</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:050356</t>
+          <t>BCIO:050408</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -2484,7 +2598,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>prescribing behavioural regime</t>
+          <t>participating in occupational therapy</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2492,10 +2606,10 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
+          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2504,7 +2618,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:050357</t>
+          <t>BCIO:050405</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -2513,7 +2627,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>social prescribing</t>
+          <t>participating in physical therapy</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2521,10 +2635,10 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
+          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2533,41 +2647,36 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:050399</t>
+          <t>BCIO:050409</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>participating in speech and language therapy</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
+          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:050401</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -2575,7 +2684,7 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>undergoing vaccination</t>
+          <t>participating in healthcare testing</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -2584,87 +2693,87 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:050401</t>
+          <t>BCIO:050402</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>participating in healthcare testing</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>participating in health screening</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
+          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:050402</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>participating in health screening</t>
-        </is>
-      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>undergoing vaccination</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:050404</t>
+          <t>BCIO:050400</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -2672,7 +2781,7 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t>arranging a healthcare service appointment</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -2681,10 +2790,10 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a health professional to improve or maintain aspects of one's health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
+          <t>Utilising healthcare that involves scheduling a time to interact with a person or organisation providing healthcare.</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2693,27 +2802,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:050405</t>
+          <t>BCIO:050832</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>reflective behaviour</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>participating in physical therapy</t>
-        </is>
-      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
+          <t>An individual human behaviour that is caused by a reflective mental process.</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2722,27 +2831,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:050409</t>
+          <t>BCIO:050443</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>participating in speech and language therapy</t>
-        </is>
-      </c>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
+          <t>An &lt;individual human behaviour&gt; that relates to something the person experiences.</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2751,27 +2860,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:050406</t>
+          <t>BCIO:050841</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>approach behaviour</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>participating in psychological treatment</t>
-        </is>
-      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
+          <t>An experience-related behaviour that involves taking action to engage with some stimulus that is judged to be rewarding by the person.</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2780,27 +2889,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:050407</t>
+          <t>BCIO:036112</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>spiritual behaviour</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>participating in creative arts therapy</t>
-        </is>
-      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
+          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2809,27 +2918,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:050408</t>
+          <t>BCIO:036073</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>avoidance behaviour</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>participating in occupational therapy</t>
-        </is>
-      </c>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
+          <t>An experience-related behaviour that involves taking defensive action in order to avoid some stimulus judged to be aversive by the person.</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2838,27 +2947,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:050400</t>
+          <t>BCIO:036008</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>arranging a healthcare service appointment</t>
-        </is>
-      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>learning behaviour</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves scheduling a time to interact with a person or organisation providing healthcare.</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
+          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2867,85 +2976,95 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:050291</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>knowledge development behaviour</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the social environment.</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A learning behaviour that involves improving a person's knowledge.</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>information acquisition behaviour; knowledge seeking behaviour</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:036066</t>
+          <t>BCIO:050825</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>pro-social behaviour</t>
-        </is>
-      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>monitoring behaviour</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A knowledge development behaviour that involves gathering information over a period of time.</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>This is often used in relation to regulatory behaviour, either oneself or others. 'Monitoring behaviour' has part 'regulatory behaviour'</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:036072</t>
+          <t>BCIO:050807</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>antisocial behaviour</t>
-        </is>
-      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>carer monitoring of child behaviour</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to be is contrary to the laws or accepted current norms of social conduct within a specific social context and causes annoyance and or disapproval in others.</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
+          <t>A monitoring behaviour in which a carer gathers information about the activities of some child in their care.</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2954,42 +3073,36 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:036035</t>
+          <t>BCIO:050824</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>economic behaviour</t>
-        </is>
-      </c>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>knowledge acquisition about reducing harmful behaviours</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
-The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
+          <t>A knowledge development behaviour where the knowledge is about how to reduce or avoid a harmful behaviour.</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:036110</t>
+          <t>BCIO:036039</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -2997,7 +3110,7 @@
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>employment behaviour</t>
+          <t>skill development behaviour</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -3006,31 +3119,26 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
+          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:036011</t>
+          <t>BCIO:050813</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>social organisation behaviour</t>
+          <t>emotional behaviour</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -3040,96 +3148,89 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
-'social structure' can relate to a social network or group.</t>
+          <t>An experience-related behaviour that is caused by an emotion process.</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:036084</t>
+          <t>BCIO:050834</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>affiliation behaviour</t>
-        </is>
-      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>regulatory behaviour</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>A social organisation behaviour that involves increasing a sense of being part of a social group or dyad.</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An experience-related behaviour that involves monitoring and acting upon some parts of the person or their environment.</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Environment here includes the social and physical environment and includes behaviours involved in monitoring of others or self, action planning, and goal setting.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:036086</t>
+          <t>BCIO:050811</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>nurture behaviour</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>cue management behaviour</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
+          <t>A regulatory behaviour in which cues that prompt a behaviour pattern are added, altered or removed.</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:036047</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>inter-personal behaviour</t>
+          <t>enjoyment behaviour</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -3139,10 +3240,10 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
+          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3151,61 +3252,61 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:036036</t>
+          <t>BCIO:050421</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>physical combat behaviour</t>
-        </is>
-      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>distress minimisation behaviour</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
+          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>distress minimization behaviour</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:050397</t>
+          <t>BCIO:036041</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>social support behaviour</t>
-        </is>
-      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>mind-body behaviour</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
+          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3214,45 +3315,50 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:036033</t>
+          <t>BCIO:036030</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>sexual behaviour</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>care-giving behaviour</t>
-        </is>
-      </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>A social support behaviour that involves meeting another person’s physical, psychological or social needs that this person is unable to fully meet themselves at a given moment.</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An experience-related behaviour that involves sexual arousal.</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:036089</t>
+          <t>BCIO:050818</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>political behaviour</t>
-        </is>
-      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>goal-directed behaviour</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
@@ -3260,10 +3366,10 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
+          <t>An individual human behaviour that has a behavioural goal.</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3272,16 +3378,16 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:050443</t>
+          <t>BCIO:050840</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>experience-related behaviour</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>threat-reducing behaviour</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
@@ -3289,26 +3395,31 @@
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to some subjective experience of the behaving person.</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A goal-directed behaviour that has a goal to reduce threat.</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Reducing a threat involves trying to reduce the harm of something that may occur in the future.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:036112</t>
+          <t>BCIO:050802</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>spiritual behaviour</t>
+          <t>approval seeking behaviour</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -3318,10 +3429,10 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
+          <t>A goal-directed behaviour whose goal is to obtain the approval of another person.</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3330,14 +3441,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:036030</t>
+          <t>BCIO:050920</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>sexual behaviour</t>
+          <t>opportunity-seeking behaviour</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -3347,33 +3458,23 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves sexual arousal.</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+          <t>A goal-directed behaviour whose goal is to search for and find opportunities that help meet needs or support attaining goals.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:036047</t>
+          <t>BCIO:006158</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>enjoyment behaviour</t>
-        </is>
-      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>habitual behaviour</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
@@ -3381,28 +3482,23 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An &lt;individual human behaviour&gt; that results from a learnt stimulus-behaviour co-occurrence.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:036073</t>
+          <t>BCIO:050440</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>avoidance behaviour</t>
-        </is>
-      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
@@ -3410,10 +3506,10 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves taking defensive action in order to avoid stimuli judged as aversive by the person.</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
+          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3422,14 +3518,14 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:036041</t>
+          <t>BCIO:036026</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>mind-body behaviour</t>
+          <t>locomotive behaviour</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -3439,10 +3535,10 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
+          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3451,27 +3547,27 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:036008</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>learning behaviour</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3480,41 +3576,42 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:050291</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>knowledge development behaviour</t>
-        </is>
-      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>travel behaviour</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving a person's knowledge.</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>information acquisition behaviour; knowledge seeking behaviour</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:036039</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -3522,7 +3619,7 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>skill development behaviour</t>
+          <t>transporting behaviour</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -3531,10 +3628,10 @@
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3543,14 +3640,14 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:050421</t>
+          <t>BCIO:036029</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>distress minimisation behaviour</t>
+          <t>posture behaviour</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -3560,44 +3657,39 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>distress minimization behaviour</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
+          <t>BCIO:036068</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
+      <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>reclining</t>
+        </is>
+      </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
+          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3606,134 +3698,119 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:050459</t>
+          <t>BCIO:036067</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>gesticulatory expressive behaviour</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>lying down</t>
+        </is>
+      </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving a movement of the limbs, head or torso.</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>If the gesticulatory behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using gesture’ (BCIO:036002).</t>
+          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:050458</t>
+          <t>BCIO:036069</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>facial expression behaviour</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>sitting</t>
+        </is>
+      </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the muscles of the face.</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>If facial expression behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using facial expression’ (BCIO:050425).</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/MFOEM_000125</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:050456</t>
+          <t>BCIO:050460</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>crying</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>postural expressive behaviour</t>
+        </is>
+      </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves tears, and facial expressions of distress.</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/GO_0060273</t>
+          <t>A posture behaviour that is expressive.</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:050442</t>
+          <t>BCIO:036070</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>vocalisation behaviour</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>standing</t>
+        </is>
+      </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving vibration of the vocal chords.</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
+          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3742,48 +3819,43 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:050461</t>
+          <t>BCIO:050439</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>material entity-related behaviour</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>talking</t>
-        </is>
-      </c>
+      <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>A vocalisation behaviour that expresses something using words.</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
+          <t>An individual human behaviour that relates to a material entity.</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
+          <t>BCIO:036061</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>laughing</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -3793,10 +3865,10 @@
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
+          <t>A material entity-related behaviour that involves ingesting material into the body.</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3805,61 +3877,61 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:036021</t>
+          <t>BCIO:050415</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>creative expressive behaviour</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>self-injecting consumption</t>
+        </is>
+      </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>An aspect of the environment includes both objects within it but also processes (e.g., music performance or dancing).</t>
+          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:050393</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
+      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>intravenous self-injecting</t>
+        </is>
+      </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
+          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3868,7 +3940,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:050238</t>
+          <t>BCIO:050412</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
@@ -3876,7 +3948,7 @@
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>medication-taking</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
@@ -3885,77 +3957,102 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>pharmacological consumption</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:050424</t>
+          <t>BCIO:036113</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using body language</t>
-        </is>
-      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>substance use behaviour</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>Substance use behaviour is not equated with substance abuse.</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>substance use</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:050375</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using eye contact</t>
-        </is>
-      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>tobacco use behaviour</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:036002</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
@@ -3965,31 +4062,31 @@
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using gesture</t>
+          <t>tobacco smoking behaviour</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>smoking</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:050425</t>
+          <t>BCIO:036105</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
@@ -3997,19 +4094,19 @@
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using facial expression</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>cigarette smoking behaviour</t>
+        </is>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings.</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
+          <t>A tobacco smoking behaviour that involves setting light to one end of a cigarette, putting the other end to the lips and sucking in order to ingest cigarette smoke.</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4018,7 +4115,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:050373</t>
+          <t>BCIO:050376</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
@@ -4027,7 +4124,7 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour using vocalisations</t>
+          <t>alcohol consumption</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
@@ -4035,10 +4132,10 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
+          <t>A substance use behaviour that involves drinking an alcohol-containing product.</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4047,7 +4144,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:050417</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
@@ -4055,7 +4152,7 @@
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>linguistic communication behaviour</t>
+          <t>oral consumption</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
@@ -4064,10 +4161,10 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
+          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4076,61 +4173,56 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:036024</t>
+          <t>BCIO:050423</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>personal bodily care behaviour</t>
-        </is>
-      </c>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>eating</t>
+        </is>
+      </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>An individual human behaviour that attends to one’s own hygiene, comfort or appearance.</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
+          <t>Oral consumption behaviour that involves chewing and swallowing some solid components</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:050371</t>
+          <t>BCIO:050422</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>dressing behaviour</t>
-        </is>
-      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>drinking</t>
+        </is>
+      </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
+          <t>Oral consumption behaviour that involves swallowing a liquid material.</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4139,27 +4231,27 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:050368</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>bodily hygiene behaviour</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>transdermal consumption</t>
+        </is>
+      </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that attends to hygiene by cleaning or washing oneself or parts of the body.</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4168,7 +4260,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:050369</t>
+          <t>BCIO:050394</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
@@ -4176,7 +4268,7 @@
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>handwashing</t>
+          <t>inhaling consumption</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
@@ -4185,10 +4277,10 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
+          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4197,27 +4289,27 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:050370</t>
+          <t>BCIO:050379</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>dental hygiene behaviour</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>vaping device use</t>
+        </is>
+      </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4226,27 +4318,27 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:050372</t>
+          <t>BCIO:050378</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>appearance-based bodily behaviour</t>
-        </is>
-      </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>electronic vaping device use</t>
+        </is>
+      </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that attends to making changes to one's body to achieve a desired appearance.</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
+          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4255,61 +4347,61 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:050411</t>
+          <t>BCIO:050377</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>sun protective behaviour</t>
-        </is>
-      </c>
+      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>e-cigarette use</t>
+        </is>
+      </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
+          <t>Inhaling consumption that involves using an e-cigarette.</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:050438</t>
+          <t>BCIO:050395</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>life function-related behaviour</t>
-        </is>
-      </c>
+      <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>sniffing consumption</t>
+        </is>
+      </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>An individual human behaviour related to vital bodily functions.</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
+          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4318,14 +4410,14 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:036054</t>
+          <t>BCIO:050426</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>excretion behaviour</t>
+          <t>physical contact behaviour</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -4335,10 +4427,10 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
+          <t>A material-entity related behaviour that makes physical contact with something.</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4347,27 +4439,27 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:036057</t>
+          <t>BCIO:036028</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>breathing behaviour</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>physical impact behaviour</t>
+        </is>
+      </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>A life function-related behaviour involves providing an appropriate level of oxygenation to body tissues.</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
+          <t>A physical contact behaviour that is forceful.</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4376,14 +4468,14 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:036056</t>
+          <t>BCIO:036007</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>reproductive behaviour</t>
+          <t>environmental system management behaviour</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -4393,101 +4485,101 @@
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
+          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+          <t>Behaviour that involves changing the physical or social environment.</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:050429</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>number of behavioural occurrences</t>
-        </is>
-      </c>
+          <t>BCIO:050816</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>environmental sustainability behaviour</t>
+        </is>
+      </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a behaviour has occurred.</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
+          <t>An environmental system management behaviour that contributes to sustaining the ecosystem.</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:050428</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>behavioural frequency</t>
-        </is>
-      </c>
+          <t>BCIO:036005</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>object management behaviour</t>
+        </is>
+      </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a behaviour occurs in a time period.</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>The number of times a person performs a behaviour within a specific period.</t>
+          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:050300</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>personal attribute</t>
-        </is>
-      </c>
+          <t>BCIO:036027</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
@@ -4495,171 +4587,140 @@
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
-          <t>A specifically dependent continuant that inheres in a person.</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
+          <t>A material-entity related behaviour that uses a non-living object.</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:050451</t>
+          <t>BCIO:050427</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>abstinence from a behaviour</t>
-        </is>
-      </c>
+      <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>audio presentation listening behaviour</t>
+        </is>
+      </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>A personal attribute in which a person does not engage in a behaviour during a time period.</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>Not performing a behaviour for some period of time.</t>
+          <t>An object-using  behaviour that involves attending to audiomaterial.</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:036107</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
+          <t>BCIO:036063</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>reading behaviour</t>
+        </is>
+      </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr">
         <is>
-          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>Processes that repeat over time.</t>
+          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:050418</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>watching behaviour</t>
+        </is>
+      </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:036100</t>
+          <t>BCIO:050420</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>digital interaction behaviour</t>
+        </is>
+      </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr">
         <is>
-          <t>A uniform process aggregate whose member parts are behaviours of the same type and in the same person.</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>behaviour pattern</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>Individual human behaviours of the same type repeated over time.</t>
-        </is>
-      </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
-This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:050210</t>
+          <t>BCIO:036062</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
@@ -4667,7 +4728,7 @@
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>consumption behaviour pattern</t>
+          <t>manufacturing behaviour</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
@@ -4676,10 +4737,10 @@
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
         <is>
-          <t>An individual human behaviour pattern that involves consumption behaviour.</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
+          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4688,27 +4749,27 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:050211</t>
+          <t>BCIO:050809</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr"/>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>coping behaviour</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>substance use behaviour pattern</t>
-        </is>
-      </c>
+      <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr">
         <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
+          <t>An individual human behaviour that has the goal to reduce harm or discomfort.</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4717,61 +4778,56 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr"/>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour pattern</t>
-        </is>
-      </c>
+      <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An individual human behaviour that relates to the social environment.</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>tobacco use</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:036066</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>pro-social behaviour</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour pattern</t>
-        </is>
-      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
+          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4780,51 +4836,62 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:036106</t>
+          <t>BCIO:036011</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>social organisation behaviour</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>cigarette smoking behaviour pattern</t>
-        </is>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>A tobacco smoking behaviour pattern that involves cigarette smoking behaviour.</t>
+          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
+'social structure' can relate to a social network or group.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:050448</t>
+          <t>BCIO:036084</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>population behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>association behaviour</t>
+        </is>
+      </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>A uniform process aggregate whose members are individual behaviour patterns of a population.</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
+          <t>A social organisation behaviour that involves increasing a sense of being part of a social group or dyad.</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4833,27 +4900,27 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:050803</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>population behaviour</t>
-        </is>
-      </c>
+      <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>association behaviour with a pro-social group</t>
+        </is>
+      </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
+          <t>An association behaviour that involves increasing a sense of being part of a pro-social group.</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4862,16 +4929,16 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:050452</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>abstinence start point</t>
-        </is>
-      </c>
+          <t>BCIO:036086</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>nurture behaviour</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
@@ -4879,77 +4946,63 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>A time point that is the start of an abstinence period.</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>A temporal region when a person starts being abstinent from a behaviour.</t>
-        </is>
-      </c>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>The term 'animal' in the definition includes humans and other animals.
+There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BCIO:050450</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>abstinence end point</t>
-        </is>
-      </c>
+          <t>BCIO:050826</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>parenting behaviour</t>
+        </is>
+      </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>A temporal region when a person stops abstaining from a behaviour.</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>A time point that is the end of an abstinence period.</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+          <t>Nurture behaviour that is provided to a young person by someone in a parent role.</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BCIO:050453</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>behaviour end point</t>
-        </is>
-      </c>
+          <t>BCIO:036072</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>antisocial behaviour</t>
+        </is>
+      </c>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
@@ -4957,77 +5010,57 @@
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr">
         <is>
-          <t>A time point that is the end of an individual human behaviour.</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>A temporal region when a behaviour ends.</t>
-        </is>
-      </c>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+          <t>A socially-related behaviour that a population judges to be is contrary to the laws or accepted current norms of social conduct within a specific social context and causes annoyance and or disapproval in others.</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BCIO:050454</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>behaviour starting point</t>
-        </is>
-      </c>
+          <t>BCIO:050810</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>criminal behaviour</t>
+        </is>
+      </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>A time point that is the start of an individual human behaviour.</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>A temporal region when a behaviour starts.</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+          <t>An antisocial behaviour that is illegal in a jurisdiction.</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BFO:0000034</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>function</t>
-        </is>
-      </c>
+          <t>BCIO:006095</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>normative behaviour</t>
+        </is>
+      </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
@@ -5035,28 +5068,23 @@
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A &lt;socially-related behaviour&gt; that is commonly enacted by people that are part of a social environmental system.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BCIO:036001</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>human life function</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>inter-personal behaviour</t>
+        </is>
+      </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
@@ -5064,45 +5092,39 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
-The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BCIO:036092</t>
+          <t>BCIO:050397</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>animal function</t>
-        </is>
-      </c>
+      <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>social support behaviour</t>
+        </is>
+      </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>A function that inheres in an animal and is realised in processes that enable the animal to survive and thrive.</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
+          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5111,130 +5133,94 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BCIO:050209</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>individual human behaviour change</t>
-        </is>
-      </c>
+          <t>BCIO:036033</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>care-giving behaviour</t>
+        </is>
+      </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr">
         <is>
-          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A social support behaviour that involves meeting another person’s physical, psychological or social needs that this person is unable to fully meet themselves at a given moment.</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>behaviour change</t>
-        </is>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
-        </is>
-      </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BCIO:050207</t>
+          <t>BCIO:006099</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern cessation</t>
-        </is>
-      </c>
+      <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>social influence behaviour</t>
+        </is>
+      </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>behavioural cessation; cessation of a behaviour pattern</t>
-        </is>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:050836</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
+      <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>rewarding behaviour</t>
+        </is>
+      </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
+          <t>A social influence behaviour in which the person provides a positive stimulus contingent on another person’s behaviour.</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:050672</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -5242,7 +5228,7 @@
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>tobacco smoking cessation</t>
+          <t>group facilitation behaviour</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
@@ -5251,57 +5237,57 @@
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An &lt;inter-personal behaviour&gt; of a member of a social group that promotes engagement of members of the group in group behaviours.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BCIO:050311</t>
+          <t>BCIO:036036</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>cigarette smoking cessation</t>
-        </is>
-      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>physical combat behaviour</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Tobacco smoking cessation in which the form of tobacco smoking is cigarette smoking.</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BCIO:042000</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:036089</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>political behaviour</t>
+        </is>
+      </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
@@ -5309,10 +5295,10 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>A process that is an individual human behaviour or a population behaviour.</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr">
+          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5321,16 +5307,16 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BCIO:050435</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
+          <t>BCIO:036035</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>economic behaviour</t>
+        </is>
+      </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
@@ -5338,142 +5324,123 @@
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr">
         <is>
-          <t>A process attribute of an individual human behaviour.</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>An attribute of a behaviour.</t>
+          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
+The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BCIO:050430</t>
+          <t>BCIO:036110</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>behavioural form</t>
-        </is>
-      </c>
+      <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>employment behaviour</t>
+        </is>
+      </c>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the physical way in which a behaviour is enacted.</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The way in which the behaviour is performed, including the shape of one’s muscles and skeletal alignment during the behaviour. </t>
+          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BCIO:036076</t>
+          <t>BCIO:050829</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>impulsiveness</t>
-        </is>
-      </c>
+      <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>purchasing behaviour</t>
+        </is>
+      </c>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted without thinking.</t>
-        </is>
-      </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
+          <t>An economic behaviour in which the person gives money in exchange for a service or ownership of a product.</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>BCIO:050447</t>
+          <t>BCIO:050837</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>intentionality</t>
-        </is>
-      </c>
+      <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>selling behaviour</t>
+        </is>
+      </c>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
-        </is>
-      </c>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
+          <t>An economic behaviour in which the person provides a service or ownership of a product in exchange for money.</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>BCIO:050431</t>
+          <t>BCIO:036075</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t>harmful behaviour</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
@@ -5484,31 +5451,26 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
-        </is>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>The mental effort required to perform a behaviour.</t>
+          <t>An individual human behaviour that causes net harm.</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>BCIO:050434</t>
+          <t>BCIO:050398</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
+          <t>harmful behaviour to others</t>
         </is>
       </c>
       <c r="E162" t="inlineStr"/>
@@ -5518,24 +5480,25 @@
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
+          <t>A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning.</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>The term 'animal' in the definition includes humans and other animals.
+‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>BCIO:050467</t>
+          <t>BCIO:036037</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
@@ -5543,7 +5506,7 @@
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>low emotional management exertion expended on a behaviour</t>
+          <t>harassment behaviour</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -5552,101 +5515,96 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is low.</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BCIO:050471</t>
+          <t>BCIO:036032</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>moderate emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>bullying behaviour</t>
+        </is>
+      </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is medium.</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>A harassment behaviour that involves targeting someone through deliberate misuse of power in a relationship to inflict physical, social or psychological harm.</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>While bullying behaviours can be directed at anyone, they are often aimed at certain people because of their race, religion, gender or sexual orientation or any other aspect such as appearance or disability (https://www.ncab.org.au/bullying-advice/bullying-for-parents/definition-of-bullying/).</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>BCIO:050463</t>
+          <t>BCIO:036014</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>high emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>self-injury behaviour</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is high.</t>
-        </is>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>BCIO:050464</t>
+          <t>BCIO:050846</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>high mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>behavioural substitution</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
@@ -5654,33 +5612,28 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is high.</t>
-        </is>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N166" t="inlineStr">
-        <is>
-          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>An &lt;individual human behaviour&gt; in which a person substitutes a more desired behaviour for a less desired behaviour.</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>BCIO:050472</t>
+          <t>BCIO:050438</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>moderate mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>life function-related behaviour</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
@@ -5688,31 +5641,26 @@
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is medium.</t>
-        </is>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>An individual human behaviour related to vital bodily functions.</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BCIO:050433</t>
+          <t>BCIO:036054</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>cognitive exertion expended on a behaviour</t>
+          <t>excretion behaviour</t>
         </is>
       </c>
       <c r="E168" t="inlineStr"/>
@@ -5722,133 +5670,123 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour where the exertion involves cognitive processes.</t>
-        </is>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>The effort relating to thinking required to perform a behaviour.</t>
+          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>BCIO:050466</t>
+          <t>BCIO:036056</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>low cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>reproductive behaviour</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is low.</t>
-        </is>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>BCIO:050462</t>
+          <t>BCIO:036057</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>high cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>breathing behaviour</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is high.</t>
-        </is>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>A life function-related behaviour involves providing an appropriate level of oxygenation to body tissues.</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>BCIO:050470</t>
+          <t>BCIO:036024</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
-      <c r="C171" t="inlineStr"/>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>personal bodily care behaviour</t>
+        </is>
+      </c>
       <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>moderate cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is medium.</t>
-        </is>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N171" t="inlineStr">
-        <is>
-          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>An individual human behaviour that attends to one’s own hygiene, comfort or appearance.</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BCIO:050468</t>
+          <t>BCIO:050371</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
-          <t>low mental exertion expended on a behaviour</t>
+          <t>dressing behaviour</t>
         </is>
       </c>
       <c r="E172" t="inlineStr"/>
@@ -5858,33 +5796,28 @@
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is low.</t>
-        </is>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>BCIO:050444</t>
+          <t>BCIO:050411</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>reflectiveness</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>sun protective behaviour</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
@@ -5892,38 +5825,33 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a response to reflective motivation or thinking.</t>
-        </is>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M173" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
-        </is>
-      </c>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
+          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>BCIO:050432</t>
+          <t>BCIO:050368</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>bodily hygiene behaviour</t>
+        </is>
+      </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
@@ -5931,99 +5859,84 @@
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
-        </is>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M174" t="inlineStr">
-        <is>
-          <t>The physical effort required to perform a behaviour.</t>
+          <t>A personal bodily care behaviour that attends to hygiene by cleaning or washing oneself or parts of the body.</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>BCIO:050465</t>
+          <t>BCIO:050369</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>high physical exertion expended on behaviour</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>handwashing</t>
+        </is>
+      </c>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is high</t>
-        </is>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>BCIO:050473</t>
+          <t>BCIO:050370</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>moderate physical exertion expended on behaviour</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>dental hygiene behaviour</t>
+        </is>
+      </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is medium.</t>
-        </is>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N176" t="inlineStr">
-        <is>
-          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>BCIO:050469</t>
+          <t>BCIO:050372</t>
         </is>
       </c>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr">
         <is>
-          <t>low physical exertion expended on behaviour</t>
+          <t>appearance-based bodily behaviour</t>
         </is>
       </c>
       <c r="E177" t="inlineStr"/>
@@ -6033,32 +5946,27 @@
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is low.</t>
-        </is>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
+          <t>A personal bodily care behaviour that attends to making changes to one's body to achieve a desired appearance.</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>BCIO:050416</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>behavioural disposition</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr"/>
+          <t>BCIO:050819</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>harm preventing behaviour</t>
+        </is>
+      </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
@@ -6067,32 +5975,27 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>A bodily disposition that is realised as some behaviour.</t>
-        </is>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M178" t="inlineStr">
-        <is>
-          <t>A tendency to behave in a particular way.</t>
+          <t>An individual human behaviour that has an outcome to prevent harm.</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>BCIO:050449</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>abstinence duration</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr"/>
+          <t>BCIO:050457</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
@@ -6101,33 +6004,28 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>A temporal interval during which a person is abstinent from a behaviour.</t>
-        </is>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M179" t="inlineStr">
-        <is>
-          <t>The time a person is abstinent from a behaviour.</t>
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>BCIO:050455</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>behavioural duration</t>
-        </is>
-      </c>
+          <t>BCIO:050459</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>gesticulatory expressive behaviour</t>
+        </is>
+      </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
@@ -6135,15 +6033,1616 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
+          <t>An expressive behaviour involving a movement of the limbs, head or torso.</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>If the gesticulatory behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using gesture’ (BCIO:036002).</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>BCIO:050458</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>facial expression behaviour</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>An expressive behaviour that involves the muscles of the face.</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/MFOEM_000125</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>If facial expression behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using facial expression’ (BCIO:050425).</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>BCIO:050442</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>vocalisation behaviour</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>An expressive behaviour involving vibration of the vocal chords.</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>BCIO:050461</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>talking</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>A vocalisation behaviour that expresses something using words.</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>BCIO:036021</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>creative expressive behaviour</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>An expressive behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>An aspect of the environment includes both objects within it but also processes (e.g., music performance or dancing).</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>BCIO:050815</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>emotionally expressive behaviour</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>An expressive behaviour that conveys some emotion.</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>BCIO:050374</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>laughing</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>BCIO:050456</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>crying</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>An expressive behaviour that involves tears, and facial expressions of distress.</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GO_0060273</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>BCIO:036034</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>BCIO:050237</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>BCIO:050238</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>BCIO:050373</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using vocalisations</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>BCIO:050424</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using body language</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>BCIO:036002</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using gesture</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>BCIO:050375</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using eye contact</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>BCIO:050425</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using facial expression</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings.</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>BCIO:050812</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>domestic behaviour</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>An individual human behaviour within a residential facility.</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>BCIO:050806</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>behavioural consequence</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>An entity that is an outcome of behaviour.</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>BCIO:050919</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>negative behavioural consequence</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>A behavioural consequence that is negatively evaluated by an individual or a population.</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>BCIO:050828</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>positive behavioural consequence</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>A behavioural consequence that is positively evaluated by an individual or a population.</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>BCIO:050900</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>social behavioural consequence</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>A behavioural consequence of a member of the person’s social environmental system.</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>BCIO:050901</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>wider community behavioural consequence</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>A social behavioural consequence that is beyond the person’s family.</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>BCIO:050899</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>family behavioural consequence</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>A social behavioural consequence of some family member.</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>BCIO:050820</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>harm prevention</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>A behavioural consequence in which harm is prevented.</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>BCIO:050823</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>impact of behaviour on environment</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>A behavioural consequence that involves an outcome relating to the environment system.</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>BCIO:050300</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>personal attribute</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>A specifically dependent continuant that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>BCIO:050451</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>abstinence from a behaviour</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>A personal attribute in which a person does not engage in a behaviour during a time period.</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>Not performing a behaviour for some period of time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>BCIO:036107</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>process aggregate</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>Processes that repeat over time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>BCIO:034000</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>population behaviour</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>BCIO:050808</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>collective behaviour</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>A population behaviour that is aimed at achieving a goal shared by members of that population.</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>BCIO:050804</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>behaviour chain</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>A process aggregate whose members are behaviours causally linked to each other in a sequence.</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>A behaviour chain can involve different behaviours, whereas a behaviour pattern can involve the same behaviour. Patterns are not necessarily causally linked.</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>BCIO:050267</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>A process aggregate whose member parts are of the same type.</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>BCIO:036100</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>A uniform process aggregate whose member parts are behaviours of the same type and in the same person.</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>Individual human behaviours of the same type repeated over time.</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
+This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>behaviour pattern</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>BCIO:050805</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>behaviour pattern maintenance</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>An individual human behaviour pattern that is continued.</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>Behaviour is continued even if there are historical or current barriers to doing so.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>BCIO:050210</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>consumption behaviour pattern</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>An individual human behaviour pattern that involves consumption behaviour.</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>BCIO:050211</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>substance use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>BCIO:036102</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr"/>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>BCIO:036104</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>tobacco smoking behaviour pattern</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>BCIO:036106</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>cigarette smoking behaviour pattern</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>A tobacco smoking behaviour pattern that involves cigarette smoking behaviour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>BCIO:050448</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr"/>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>population behaviour pattern</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>A uniform process aggregate whose members are individual behaviour patterns of a population.</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>BCIO:050831</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>reducing harm</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>A process in which damage or injury is reduced.</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>harmful behaviour</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>BCIO:042000</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>A process that is an individual human behaviour or a population behaviour.</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>BCIO:002000</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>behaviour change intervention outcome behaviour</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Human behaviour that is an intervention outcome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>BCIO:050830</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>reducing discomfort</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>A process in which physical or mental uneasiness or distress is reduced.</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>distress minimisation behaviour</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>BCIO:050209</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>individual human behaviour change</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>behaviour change</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>BCIO:050575</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr"/>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>behaviour change through group norm</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>An &lt;individual human behaviour change&gt; resulting from exposure to a group behavioural norm.</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>BCIO:050207</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr"/>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>behavioural cessation; cessation of a behaviour pattern</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>BCIO:050208</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr"/>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>BCIO:050269</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr"/>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>tobacco smoking cessation</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>BCIO:050311</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>cigarette smoking cessation</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>Tobacco smoking cessation in which the form of tobacco smoking is cigarette smoking.</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>BCIO:050449</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>abstinence duration</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>A temporal interval during which a person is abstinent from a behaviour.</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>The time a person is abstinent from a behaviour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>BCIO:050455</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>behavioural duration</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
           <t>A temporal interval within which an individual human behaviour occurs.</t>
         </is>
       </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M180" t="inlineStr">
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N231" t="inlineStr">
         <is>
           <t>The time between the start and end of a behaviour.</t>
         </is>

--- a/Behaviour/BCIO-behaviour-hierarchy.xlsx
+++ b/Behaviour/BCIO-behaviour-hierarchy.xlsx
@@ -446,44 +446,44 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
           <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:050450</t>
+          <t>BCIO:050300</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>abstinence end point</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -495,37 +495,32 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>A temporal region when a person stops abstaining from a behaviour.</t>
+          <t>A specifically dependent continuant that inheres in a person.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>population</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>A time point that is the end of an abstinence period.</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:050453</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>behaviour end point</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>BCIO:050451</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>abstinence from a behaviour</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -534,34 +529,29 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>A time point that is the end of an individual human behaviour.</t>
+          <t>A personal attribute in which a person does not engage in a behaviour during a time period.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Not performing a behaviour for some period of time.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>A temporal region when a behaviour ends.</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:050452</t>
+          <t>BCIO:050449</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>abstinence start point</t>
+          <t>abstinence duration</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -573,34 +563,29 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>A time point that is the start of an abstinence period.</t>
+          <t>A temporal interval during which a person is abstinent from a behaviour.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>The time a person is abstinent from a behaviour.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>A temporal region when a person starts being abstinent from a behaviour.</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:050454</t>
+          <t>BCIO:050455</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>behaviour starting point</t>
+          <t>behavioural duration</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -612,34 +597,29 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>A time point that is the start of an individual human behaviour.</t>
+          <t>A temporal interval within which an individual human behaviour occurs.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>The time between the start and end of a behaviour.</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>A temporal region when a behaviour starts.</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:006085</t>
+          <t>BCIO:042000</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>human behaviour</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -651,37 +631,27 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>A spatial &lt;quality&gt; that inheres in a bearer by virtue of its position relative to other entities.</t>
+          <t>A process that is an individual human behaviour or a population behaviour.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Where a person, animal or object is.</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:050839</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>task complexity</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>BCIO:002000</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>behaviour change intervention outcome behaviour</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -690,24 +660,19 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>A process attribute that is the complexity of thought or behaviour required to achieve a goal.</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Human behaviour that is an intervention outcome.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:050435</t>
+          <t>BCIO:050209</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>individual human behaviour change</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -719,7 +684,12 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>A process attribute of an individual human behaviour.</t>
+          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -729,20 +699,25 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>An attribute of a behaviour.</t>
+          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>behaviour change</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:050431</t>
+          <t>BCIO:050575</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>mental exertion expended on a behaviour</t>
+          <t>behaviour change through group norm</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -753,33 +728,28 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
+          <t>An &lt;individual human behaviour change&gt; resulting from exposure to a group behavioural norm.</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>The mental effort required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:050434</t>
+          <t>BCIO:050207</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -787,7 +757,12 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
+          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -795,33 +770,38 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>behavioural cessation; cessation of a behaviour pattern</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:050467</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>low emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is low.</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -829,16 +809,17 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:050471</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -846,7 +827,7 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>moderate emotional management exertion expended on a behaviour</t>
+          <t>tobacco smoking cessation</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -855,67 +836,57 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is medium.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:050463</t>
+          <t>BCIO:050311</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>high emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>cigarette smoking cessation</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is high.</t>
+          <t>Tobacco smoking cessation in which the form of tobacco smoking is cigarette smoking.</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:050472</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>BCIO:050830</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>reducing discomfort</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>moderate mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -923,7 +894,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is medium.</t>
+          <t>A process in which physical or mental uneasiness or distress is reduced.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -931,25 +902,25 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>distress minimisation behaviour</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:050433</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>BCIO:050831</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>reducing harm</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -957,7 +928,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour where the exertion involves cognitive processes.</t>
+          <t>A process in which damage or injury is reduced.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -965,127 +936,122 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>The effort relating to thinking required to perform a behaviour.</t>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>harmful behaviour</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:050462</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>BCIO:050428</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>behavioural frequency</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>high cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is high.</t>
+          <t>A data item that is about the number of times a behaviour occurs in a time period.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>The number of times a person performs a behaviour within a specific period.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:050470</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>BCIO:050429</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>number of behavioural occurrences</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>moderate cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is medium.</t>
+          <t>A data item that is about the number of times a behaviour has occurred.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:050466</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+          <t>BCIO:050806</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>behavioural consequence</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>low cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is low.</t>
+          <t>An entity that is an outcome of behaviour.</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:050468</t>
+          <t>BCIO:050820</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>low mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>harm prevention</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1093,33 +1059,28 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is low.</t>
+          <t>A behavioural consequence in which harm is prevented.</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:050464</t>
+          <t>BCIO:050919</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>high mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>negative behavioural consequence</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1127,30 +1088,20 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is high.</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>A behavioural consequence that is negatively evaluated by an individual or a population.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:050902</t>
+          <t>BCIO:050828</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>behavioural ease</t>
+          <t>positive behavioural consequence</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1161,7 +1112,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of convenience, ease or comfort of a behaviour.</t>
+          <t>A behavioural consequence that is positively evaluated by an individual or a population.</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1173,13 +1124,13 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:050444</t>
+          <t>BCIO:050900</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>behavioural reflectiveness</t>
+          <t>social behavioural consequence</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1190,36 +1141,26 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the degree to which the behaviour is under the control of reflective motivation.</t>
+          <t>A behavioural consequence of a member of the person’s social environmental system.</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:050833</t>
+          <t>BCIO:050899</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>reflectively controlled</t>
+          <t>family behavioural consequence</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1229,7 +1170,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Behavioural reflectiveness in which the behaviour is predominantly controlled by reflective motivation.</t>
+          <t>A social behavioural consequence of some family member.</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1241,16 +1182,16 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:036076</t>
+          <t>BCIO:050901</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>impulsiveness</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>wider community behavioural consequence</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1258,35 +1199,25 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
+          <t>A social behavioural consequence that is beyond the person’s family.</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted without thinking.</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:050814</t>
+          <t>BCIO:050823</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>emotionally driven</t>
+          <t>impact of behaviour on environment</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1297,7 +1228,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>A behavioural attribute in which the behaviour is caused by an emotion process.</t>
+          <t>A behavioural consequence that involves an outcome relating to the environment system.</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1309,15 +1240,15 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:050432</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:050452</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>abstinence start point</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
@@ -1326,7 +1257,12 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
+          <t>A time point that is the start of an abstinence period.</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>A temporal region when a person starts being abstinent from a behaviour.</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1336,23 +1272,23 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>The physical effort required to perform a behaviour.</t>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:050465</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
+          <t>BCIO:050454</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>behaviour starting point</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>high physical exertion expended on behaviour</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
@@ -1360,7 +1296,12 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is high</t>
+          <t>A time point that is the start of an individual human behaviour.</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>A temporal region when a behaviour starts.</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -1368,25 +1309,25 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:050473</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
+          <t>BCIO:050453</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>behaviour end point</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>moderate physical exertion expended on behaviour</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -1394,7 +1335,12 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is medium.</t>
+          <t>A time point that is the end of an individual human behaviour.</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>A temporal region when a behaviour ends.</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -1402,25 +1348,25 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:050469</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
+          <t>BCIO:050450</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>abstinence end point</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>low physical exertion expended on behaviour</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1428,7 +1374,12 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is low.</t>
+          <t>A temporal region when a person stops abstaining from a behaviour.</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>A time point that is the end of an abstinence period.</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -1436,24 +1387,24 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:050447</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>intentionality</t>
-        </is>
-      </c>
+          <t>BCIO:036000</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
@@ -1462,7 +1413,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -1472,25 +1423,24 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
+          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
+Behaviours are usually in response to an internal or external stimuli.
+Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
+'behaviours' can involve a series of activities (e.g., more granular behaviours).
+'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:050430</t>
+          <t>BCIO:050809</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>behavioural form</t>
+          <t>coping behaviour</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1501,30 +1451,25 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the physical way in which a behaviour is enacted.</t>
+          <t>An individual human behaviour that has the goal to reduce harm or discomfort.</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The way in which the behaviour is performed, including the shape of one’s muscles and skeletal alignment during the behaviour. </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:050822</t>
+          <t>BCIO:050846</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>identity congruence</t>
+          <t>behavioural substitution</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1535,7 +1480,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the extent to which one’s behaviour is believed to be consistent with one’s core, positive self-identity.</t>
+          <t>An &lt;individual human behaviour&gt; in which a person substitutes a more desired behaviour for a less desired behaviour.</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -1547,13 +1492,13 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:050835</t>
+          <t>BCIO:050443</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>response cost</t>
+          <t>experience-related behaviour</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1564,7 +1509,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the time, effort, financial cost, or aversiveness of enacting a behaviour.</t>
+          <t>An &lt;individual human behaviour&gt; that relates to something the person experiences.</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -1576,16 +1521,16 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BFO:0000034</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>function</t>
-        </is>
-      </c>
+          <t>BCIO:050841</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>approach behaviour</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -1593,7 +1538,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
+          <t>An experience-related behaviour that involves taking action to engage with some stimulus that is judged to be rewarding by the person.</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -1605,16 +1550,16 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:036001</t>
+          <t>BCIO:036112</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>human life function</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>spiritual behaviour</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -1622,34 +1567,28 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
+          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
-The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:050416</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>behavioural disposition</t>
-        </is>
-      </c>
+          <t>BCIO:036047</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>enjoyment behaviour</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -1657,33 +1596,28 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>A bodily disposition that is realised as some behaviour.</t>
+          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>A tendency to behave in a particular way.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:050428</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>behavioural frequency</t>
-        </is>
-      </c>
+          <t>BCIO:050421</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>distress minimisation behaviour</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
@@ -1691,7 +1625,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a behaviour occurs in a time period.</t>
+          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -1699,25 +1633,25 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>The number of times a person performs a behaviour within a specific period.</t>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>distress minimization behaviour</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:050429</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>number of behavioural occurrences</t>
-        </is>
-      </c>
+          <t>BCIO:036073</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>avoidance behaviour</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -1725,33 +1659,28 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a behaviour has occurred.</t>
+          <t>An experience-related behaviour that involves taking defensive action in order to avoid some stimulus judged to be aversive by the person.</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:036030</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>sexual behaviour</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -1759,7 +1688,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+          <t>An experience-related behaviour that involves sexual arousal.</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -1767,29 +1696,25 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
-Behaviours are usually in response to an internal or external stimuli.
-Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
-'behaviours' can involve a series of activities (e.g., more granular behaviours).
-'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:050437</t>
+          <t>BCIO:050834</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>regulatory behaviour</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -1797,36 +1722,41 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to health of oneself or others.</t>
+          <t>An experience-related behaviour that involves monitoring and acting upon some parts of the person or their environment.</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Environment here includes the social and physical environment and includes behaviours involved in monitoring of others or self, action planning, and goal setting.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:050413</t>
+          <t>BCIO:050811</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>providing healthcare</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>cue management behaviour</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
+          <t>A regulatory behaviour in which cues that prompt a behaviour pattern are added, altered or removed.</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -1838,24 +1768,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:050362</t>
+          <t>BCIO:036008</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>providing healthcare treatment</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>learning behaviour</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
+          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -1867,36 +1797,41 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:050367</t>
+          <t>BCIO:050291</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>providing speech and language therapy</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>knowledge development behaviour</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>A learning behaviour that involves improving a person's knowledge.</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>information acquisition behaviour; knowledge seeking behaviour</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:050363</t>
+          <t>BCIO:050825</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1905,7 +1840,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>providing physical therapy</t>
+          <t>monitoring behaviour</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1913,36 +1848,41 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>A knowledge development behaviour that involves gathering information over a period of time.</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>This is often used in relation to regulatory behaviour, either oneself or others. 'Monitoring behaviour' has part 'regulatory behaviour'</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:050366</t>
+          <t>BCIO:050807</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>providing occupational therapy</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>carer monitoring of child behaviour</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>A monitoring behaviour in which a carer gathers information about the activities of some child in their care.</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -1954,7 +1894,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:050364</t>
+          <t>BCIO:050824</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1963,7 +1903,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>providing psychological treatment</t>
+          <t>knowledge acquisition about reducing harmful behaviours</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1971,7 +1911,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
+          <t>A knowledge development behaviour where the knowledge is about how to reduce or avoid a harmful behaviour.</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -1983,24 +1923,24 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:050365</t>
+          <t>BCIO:036039</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>skill development behaviour</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>providing creative arts therapy</t>
-        </is>
-      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Providing psychological treatment that involves creative and expressive processes.</t>
+          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -2012,24 +1952,24 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:050360</t>
+          <t>BCIO:050813</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>providing healthcare advice</t>
-        </is>
-      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>emotional behaviour</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
+          <t>An experience-related behaviour that is caused by an emotion process.</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -2041,24 +1981,24 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:050354</t>
+          <t>BCIO:036041</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>prescribing behaviour</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>mind-body behaviour</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
+          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -2070,24 +2010,24 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:050357</t>
+          <t>BCIO:050439</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>material entity-related behaviour</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>social prescribing</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
+          <t>An individual human behaviour that relates to a material entity.</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -2099,24 +2039,24 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:050356</t>
+          <t>BCIO:050426</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>physical contact behaviour</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>prescribing behavioural regime</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
+          <t>A material-entity related behaviour that makes physical contact with something.</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -2128,59 +2068,53 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:050355</t>
+          <t>BCIO:036028</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>prescribing medication</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>physical impact behaviour</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
+          <t>A physical contact behaviour that is forceful.</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
-Prescribing medication can include advising and authorising to stop using a medicine.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:050414</t>
+          <t>BCIO:036027</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>diagnostic healthcare behaviour</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
+          <t>A material-entity related behaviour that uses a non-living object.</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -2188,16 +2122,16 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:050358</t>
+          <t>BCIO:036063</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -2205,7 +2139,7 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>reviewing prescribed medication</t>
+          <t>reading behaviour</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -2214,7 +2148,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
+          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -2226,7 +2160,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:050352</t>
+          <t>BCIO:036062</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -2234,7 +2168,7 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>providing healthcare testing</t>
+          <t>manufacturing behaviour</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -2243,7 +2177,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
+          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -2255,24 +2189,24 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:050353</t>
+          <t>BCIO:050420</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>providing health screening</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>digital interaction behaviour</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
+          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -2284,7 +2218,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:050359</t>
+          <t>BCIO:050427</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -2292,7 +2226,7 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>administering vaccine</t>
+          <t>audio presentation listening behaviour</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -2301,24 +2235,19 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease.</t>
+          <t>An object-using  behaviour that involves attending to audiomaterial.</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Vaccination is defined as “a medical intervention that involves adding a vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:050361</t>
+          <t>BCIO:050418</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -2326,7 +2255,7 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>making a referral to another health care service</t>
+          <t>watching behaviour</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -2335,7 +2264,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -2347,14 +2276,14 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:050821</t>
+          <t>BCIO:036061</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>health-promoting behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -2364,99 +2293,109 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>A health-related behaviour that improves the person’s health.</t>
+          <t>A material entity-related behaviour that involves ingesting material into the body.</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>This class is for behaviour that promote positive health as well as protect against threats to health.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:050410</t>
+          <t>BCIO:036113</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>self-monitoring an aspect of health</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>substance use behaviour</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
+          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Substance use behaviour is not equated with substance abuse.</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>substance use</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>physical performance behaviour</t>
-        </is>
-      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>tobacco use behaviour</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:050399</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>tobacco smoking behaviour</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -2466,31 +2405,31 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
+          <t>smoking</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:050404</t>
+          <t>BCIO:036105</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>participating in healthcare treatment</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>cigarette smoking behaviour</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves engaging with a treatment regimen to improve or maintain aspects of one's health or wellbeing.</t>
+          <t>A tobacco smoking behaviour that involves setting light to one end of a cigarette, putting the other end to the lips and sucking in order to ingest cigarette smoke.</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -2502,7 +2441,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:050406</t>
+          <t>BCIO:050376</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2511,7 +2450,7 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>participating in psychological treatment</t>
+          <t>alcohol consumption</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2519,7 +2458,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
+          <t>A substance use behaviour that involves drinking an alcohol-containing product.</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -2531,65 +2470,80 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:050407</t>
+          <t>BCIO:050412</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>medication-taking</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>participating in creative arts therapy</t>
-        </is>
-      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
+          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>pharmacological consumption</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:050801</t>
+          <t>BCIO:050415</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>adherence to healthcare treatment</t>
-        </is>
-      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>self-injecting consumption</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment in accordance with treatment instructions.</t>
+          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:050408</t>
+          <t>BCIO:050393</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -2598,7 +2552,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>participating in occupational therapy</t>
+          <t>intravenous self-injecting</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2606,7 +2560,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -2618,24 +2572,24 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:050405</t>
+          <t>BCIO:050394</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>participating in physical therapy</t>
-        </is>
-      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -2647,7 +2601,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:050409</t>
+          <t>BCIO:050379</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -2656,7 +2610,7 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>participating in speech and language therapy</t>
+          <t>vaping device use</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2664,7 +2618,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -2676,104 +2630,99 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:050401</t>
+          <t>BCIO:050378</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>participating in healthcare testing</t>
-        </is>
-      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>electronic vaping device use</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
+          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:050402</t>
+          <t>BCIO:050377</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>participating in health screening</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>e-cigarette use</t>
+        </is>
+      </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
+          <t>Inhaling consumption that involves using an e-cigarette.</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:050395</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>undergoing vaccination</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>sniffing consumption</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:050400</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -2781,7 +2730,7 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>arranging a healthcare service appointment</t>
+          <t>transdermal consumption</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -2790,7 +2739,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves scheduling a time to interact with a person or organisation providing healthcare.</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -2802,24 +2751,24 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:050832</t>
+          <t>BCIO:050417</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>reflective behaviour</t>
-        </is>
-      </c>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>oral consumption</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>An individual human behaviour that is caused by a reflective mental process.</t>
+          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -2831,24 +2780,24 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:050443</t>
+          <t>BCIO:050423</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>experience-related behaviour</t>
-        </is>
-      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>eating</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that relates to something the person experiences.</t>
+          <t>Oral consumption behaviour that involves chewing and swallowing some solid components</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -2860,24 +2809,24 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:050841</t>
+          <t>BCIO:050422</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>approach behaviour</t>
-        </is>
-      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>drinking</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves taking action to engage with some stimulus that is judged to be rewarding by the person.</t>
+          <t>Oral consumption behaviour that involves swallowing a liquid material.</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -2889,14 +2838,14 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:036112</t>
+          <t>BCIO:036007</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>spiritual behaviour</t>
+          <t>environmental system management behaviour</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -2906,36 +2855,46 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
+          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Behaviour that involves changing the physical or social environment.</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:036073</t>
+          <t>BCIO:050816</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>avoidance behaviour</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>environmental sustainability behaviour</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves taking defensive action in order to avoid some stimulus judged to be aversive by the person.</t>
+          <t>An environmental system management behaviour that contributes to sustaining the ecosystem.</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -2947,87 +2906,87 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:036008</t>
+          <t>BCIO:036005</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>learning behaviour</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>object management behaviour</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
+          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:050291</t>
+          <t>BCIO:050818</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>goal-directed behaviour</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>knowledge development behaviour</t>
-        </is>
-      </c>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving a person's knowledge.</t>
+          <t>An individual human behaviour that has a behavioural goal.</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>information acquisition behaviour; knowledge seeking behaviour</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:050825</t>
+          <t>BCIO:050840</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>threat-reducing behaviour</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>monitoring behaviour</t>
-        </is>
-      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>A knowledge development behaviour that involves gathering information over a period of time.</t>
+          <t>A goal-directed behaviour that has a goal to reduce threat.</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -3035,33 +2994,33 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>This is often used in relation to regulatory behaviour, either oneself or others. 'Monitoring behaviour' has part 'regulatory behaviour'</t>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Reducing a threat involves trying to reduce the harm of something that may occur in the future.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:050807</t>
+          <t>BCIO:050802</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>approval seeking behaviour</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>carer monitoring of child behaviour</t>
-        </is>
-      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>A monitoring behaviour in which a carer gathers information about the activities of some child in their care.</t>
+          <t>A goal-directed behaviour whose goal is to obtain the approval of another person.</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -3073,53 +3032,48 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:050824</t>
+          <t>BCIO:050920</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>opportunity-seeking behaviour</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>knowledge acquisition about reducing harmful behaviours</t>
-        </is>
-      </c>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>A knowledge development behaviour where the knowledge is about how to reduce or avoid a harmful behaviour.</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A goal-directed behaviour whose goal is to search for and find opportunities that help meet needs or support attaining goals.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:036039</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>skill development behaviour</t>
-        </is>
-      </c>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
+          <t>An individual human behaviour that relates to the social environment.</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -3131,14 +3085,14 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:050813</t>
+          <t>BCIO:036089</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>emotional behaviour</t>
+          <t>political behaviour</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -3148,7 +3102,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is caused by an emotion process.</t>
+          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -3160,14 +3114,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:050834</t>
+          <t>BCIO:036035</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>regulatory behaviour</t>
+          <t>economic behaviour</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -3177,7 +3131,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves monitoring and acting upon some parts of the person or their environment.</t>
+          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -3185,16 +3139,17 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>Environment here includes the social and physical environment and includes behaviours involved in monitoring of others or self, action planning, and goal setting.</t>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
+The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:050811</t>
+          <t>BCIO:050829</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -3202,7 +3157,7 @@
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>cue management behaviour</t>
+          <t>purchasing behaviour</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -3211,7 +3166,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>A regulatory behaviour in which cues that prompt a behaviour pattern are added, altered or removed.</t>
+          <t>An economic behaviour in which the person gives money in exchange for a service or ownership of a product.</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -3223,77 +3178,77 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:036047</t>
+          <t>BCIO:036110</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>enjoyment behaviour</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>employment behaviour</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
+          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:050421</t>
+          <t>BCIO:050837</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>distress minimisation behaviour</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>selling behaviour</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
+          <t>An economic behaviour in which the person provides a service or ownership of a product in exchange for money.</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>distress minimization behaviour</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:036041</t>
+          <t>BCIO:006095</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>mind-body behaviour</t>
+          <t>normative behaviour</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -3303,26 +3258,21 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A &lt;socially-related behaviour&gt; that is commonly enacted by people that are part of a social environmental system.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:036030</t>
+          <t>BCIO:036066</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>sexual behaviour</t>
+          <t>pro-social behaviour</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -3332,33 +3282,28 @@
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves sexual arousal.</t>
+          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:050818</t>
+          <t>BCIO:036011</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>goal-directed behaviour</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>social organisation behaviour</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
@@ -3366,70 +3311,71 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>An individual human behaviour that has a behavioural goal.</t>
+          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
+'social structure' can relate to a social network or group.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:050840</t>
+          <t>BCIO:036084</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>threat-reducing behaviour</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>association behaviour</t>
+        </is>
+      </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour that has a goal to reduce threat.</t>
+          <t>A social organisation behaviour that involves increasing a sense of being part of a social group or dyad.</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Reducing a threat involves trying to reduce the harm of something that may occur in the future.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:050802</t>
+          <t>BCIO:050803</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>approval seeking behaviour</t>
-        </is>
-      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>association behaviour with a pro-social group</t>
+        </is>
+      </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour whose goal is to obtain the approval of another person.</t>
+          <t>An association behaviour that involves increasing a sense of being part of a pro-social group.</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -3441,14 +3387,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:050920</t>
+          <t>BCIO:036072</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>opportunity-seeking behaviour</t>
+          <t>antisocial behaviour</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -3458,47 +3404,57 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour whose goal is to search for and find opportunities that help meet needs or support attaining goals.</t>
+          <t>A socially-related behaviour that a population judges to be is contrary to the laws or accepted current norms of social conduct within a specific social context and causes annoyance and or disapproval in others.</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:006158</t>
+          <t>BCIO:050810</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>habitual behaviour</t>
-        </is>
-      </c>
+      <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>criminal behaviour</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that results from a learnt stimulus-behaviour co-occurrence.</t>
+          <t>An antisocial behaviour that is illegal in a jurisdiction.</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:050440</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>inter-personal behaviour</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
@@ -3506,7 +3462,7 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -3518,24 +3474,24 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:036026</t>
+          <t>BCIO:006099</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>locomotive behaviour</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>social influence behaviour</t>
+        </is>
+      </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
+          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -3547,24 +3503,24 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>BCIO:050836</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>walking</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>rewarding behaviour</t>
+        </is>
+      </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+          <t>A social influence behaviour in which the person provides a positive stimulus contingent on another person’s behaviour.</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -3576,24 +3532,24 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:036036</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>travel behaviour</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>physical combat behaviour</t>
+        </is>
+      </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
+          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -3601,17 +3557,16 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:050672</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -3619,7 +3574,7 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>transporting behaviour</t>
+          <t>group facilitation behaviour</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -3628,36 +3583,31 @@
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An &lt;inter-personal behaviour&gt; of a member of a social group that promotes engagement of members of the group in group behaviours.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:036029</t>
+          <t>BCIO:050397</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>posture behaviour</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>social support behaviour</t>
+        </is>
+      </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
+          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -3669,24 +3619,24 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:036068</t>
+          <t>BCIO:036033</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>reclining</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>care-giving behaviour</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
+          <t>A social support behaviour that involves meeting another person’s physical, psychological or social needs that this person is unable to fully meet themselves at a given moment.</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -3698,36 +3648,42 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:036067</t>
+          <t>BCIO:036086</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>lying down</t>
-        </is>
-      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>nurture behaviour</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
+          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>The term 'animal' in the definition includes humans and other animals.
+There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:036069</t>
+          <t>BCIO:050826</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
@@ -3735,7 +3691,7 @@
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>sitting</t>
+          <t>parenting behaviour</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
@@ -3744,7 +3700,7 @@
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
+          <t>Nurture behaviour that is provided to a young person by someone in a parent role.</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -3756,58 +3712,53 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:050460</t>
+          <t>BCIO:050819</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>harm preventing behaviour</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>postural expressive behaviour</t>
-        </is>
-      </c>
+      <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
-          <t>A posture behaviour that is expressive.</t>
+          <t>An individual human behaviour that has an outcome to prevent harm.</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:036070</t>
+          <t>BCIO:036075</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>harmful behaviour</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>standing</t>
-        </is>
-      </c>
+      <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
+          <t>An individual human behaviour that causes net harm.</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -3819,16 +3770,16 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:050439</t>
+          <t>BCIO:050398</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>material entity-related behaviour</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>harmful behaviour to others</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
@@ -3836,36 +3787,42 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to a material entity.</t>
+          <t>A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning.</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>The term 'animal' in the definition includes humans and other animals.
+‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:036061</t>
+          <t>BCIO:036037</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>harassment behaviour</t>
+        </is>
+      </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>A material entity-related behaviour that involves ingesting material into the body.</t>
+          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -3877,24 +3834,24 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:050415</t>
+          <t>BCIO:036032</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>self-injecting consumption</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>bullying behaviour</t>
+        </is>
+      </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
+          <t>A harassment behaviour that involves targeting someone through deliberate misuse of power in a relationship to inflict physical, social or psychological harm.</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -3902,62 +3859,67 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>While bullying behaviours can be directed at anyone, they are often aimed at certain people because of their race, religion, gender or sexual orientation or any other aspect such as appearance or disability (https://www.ncab.org.au/bullying-advice/bullying-for-parents/definition-of-bullying/).</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:050393</t>
+          <t>BCIO:036014</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>self-injury behaviour</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>intravenous self-injecting</t>
-        </is>
-      </c>
+      <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
+          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:050412</t>
+          <t>BCIO:036024</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>personal bodily care behaviour</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>medication-taking</t>
-        </is>
-      </c>
+      <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
+          <t>An individual human behaviour that attends to one’s own hygiene, comfort or appearance.</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -3965,77 +3927,62 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>pharmacological consumption</t>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:036113</t>
+          <t>BCIO:050371</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>substance use behaviour</t>
-        </is>
-      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>dressing behaviour</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
+          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>Substance use behaviour is not equated with substance abuse.</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>substance use</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050411</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>sun protective behaviour</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
+      <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -4043,67 +3990,62 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:036103</t>
+          <t>BCIO:050368</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>bodily hygiene behaviour</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour</t>
-        </is>
-      </c>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
+          <t>A personal bodily care behaviour that attends to hygiene by cleaning or washing oneself or parts of the body.</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>smoking</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:036105</t>
+          <t>BCIO:050369</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>handwashing</t>
+        </is>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>cigarette smoking behaviour</t>
-        </is>
-      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>A tobacco smoking behaviour that involves setting light to one end of a cigarette, putting the other end to the lips and sucking in order to ingest cigarette smoke.</t>
+          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -4115,24 +4057,24 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:050376</t>
+          <t>BCIO:050370</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>alcohol consumption</t>
-        </is>
-      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>dental hygiene behaviour</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves drinking an alcohol-containing product.</t>
+          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -4144,24 +4086,24 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:050417</t>
+          <t>BCIO:050372</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>oral consumption</t>
-        </is>
-      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>appearance-based bodily behaviour</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
+          <t>A personal bodily care behaviour that attends to making changes to one's body to achieve a desired appearance.</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -4173,24 +4115,24 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:050423</t>
+          <t>BCIO:050440</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr"/>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>eating</t>
-        </is>
-      </c>
+      <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Oral consumption behaviour that involves chewing and swallowing some solid components</t>
+          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -4202,24 +4144,24 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:050422</t>
+          <t>BCIO:036029</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>posture behaviour</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>drinking</t>
-        </is>
-      </c>
+      <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Oral consumption behaviour that involves swallowing a liquid material.</t>
+          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -4231,7 +4173,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:050460</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
@@ -4239,7 +4181,7 @@
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>transdermal consumption</t>
+          <t>postural expressive behaviour</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
@@ -4248,19 +4190,24 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+          <t>A posture behaviour that is expressive.</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:050394</t>
+          <t>BCIO:036067</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
@@ -4268,7 +4215,7 @@
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>lying down</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
@@ -4277,7 +4224,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
+          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -4289,24 +4236,24 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:036070</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>vaping device use</t>
-        </is>
-      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>standing</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -4318,24 +4265,24 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:050378</t>
+          <t>BCIO:036069</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>sitting</t>
+        </is>
+      </c>
       <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>electronic vaping device use</t>
-        </is>
-      </c>
+      <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -4347,58 +4294,53 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:050377</t>
+          <t>BCIO:036068</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>reclining</t>
+        </is>
+      </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>e-cigarette use</t>
-        </is>
-      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using an e-cigarette.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:050395</t>
+          <t>BCIO:036026</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>locomotive behaviour</t>
+        </is>
+      </c>
       <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>sniffing consumption</t>
-        </is>
-      </c>
+      <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
+          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -4410,24 +4352,24 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:050426</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>physical contact behaviour</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that makes physical contact with something.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -4439,92 +4381,88 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:036028</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>physical impact behaviour</t>
-        </is>
-      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>travel behaviour</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>A physical contact behaviour that is forceful.</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:036007</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>environmental system management behaviour</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>transporting behaviour</t>
+        </is>
+      </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>Behaviour that involves changing the physical or social environment.</t>
-        </is>
-      </c>
-      <c r="O129" t="inlineStr">
-        <is>
-          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:050816</t>
+          <t>BCIO:050812</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr"/>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>domestic behaviour</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>environmental sustainability behaviour</t>
-        </is>
-      </c>
+      <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr">
         <is>
-          <t>An environmental system management behaviour that contributes to sustaining the ecosystem.</t>
+          <t>An individual human behaviour within a residential facility.</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -4536,48 +4474,43 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:036005</t>
+          <t>BCIO:050437</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr"/>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>health-related behaviour</t>
+        </is>
+      </c>
       <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>object management behaviour</t>
-        </is>
-      </c>
+      <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr">
         <is>
-          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
+          <t>An individual human behaviour that relates to health of oneself or others.</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O131" t="inlineStr">
-        <is>
-          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:036027</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>object-using behaviour</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -4587,7 +4520,7 @@
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that uses a non-living object.</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -4595,16 +4528,16 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:050427</t>
+          <t>BCIO:050404</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
@@ -4612,7 +4545,7 @@
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>audio presentation listening behaviour</t>
+          <t>participating in healthcare treatment</t>
         </is>
       </c>
       <c r="F133" t="inlineStr"/>
@@ -4621,7 +4554,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>An object-using  behaviour that involves attending to audiomaterial.</t>
+          <t>Utilising healthcare that involves engaging with a treatment regimen to improve or maintain aspects of one's health or wellbeing.</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -4633,24 +4566,24 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:036063</t>
+          <t>BCIO:050405</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>reading behaviour</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>participating in physical therapy</t>
+        </is>
+      </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
+          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -4662,24 +4595,24 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:050408</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>watching behaviour</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>participating in occupational therapy</t>
+        </is>
+      </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -4691,24 +4624,24 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:050420</t>
+          <t>BCIO:050409</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>digital interaction behaviour</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>participating in speech and language therapy</t>
+        </is>
+      </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
+          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -4720,24 +4653,24 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:036062</t>
+          <t>BCIO:050801</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>manufacturing behaviour</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>adherence to healthcare treatment</t>
+        </is>
+      </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
+          <t>Participating in healthcare treatment in accordance with treatment instructions.</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -4749,24 +4682,24 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:050809</t>
+          <t>BCIO:050406</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>coping behaviour</t>
-        </is>
-      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>participating in psychological treatment</t>
+        </is>
+      </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr">
         <is>
-          <t>An individual human behaviour that has the goal to reduce harm or discomfort.</t>
+          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -4778,24 +4711,24 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:050407</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
+      <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>participating in creative arts therapy</t>
+        </is>
+      </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the social environment.</t>
+          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -4807,71 +4740,70 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:036066</t>
+          <t>BCIO:050401</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>pro-social behaviour</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>participating in healthcare testing</t>
+        </is>
+      </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
+          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:036011</t>
+          <t>BCIO:050402</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>social organisation behaviour</t>
-        </is>
-      </c>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>participating in health screening</t>
+        </is>
+      </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
+          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O141" t="inlineStr">
-        <is>
-          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
-'social structure' can relate to a social network or group.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:036084</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
@@ -4879,7 +4811,7 @@
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>association behaviour</t>
+          <t>undergoing vaccination</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
@@ -4888,36 +4820,41 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>A social organisation behaviour that involves increasing a sense of being part of a social group or dyad.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:050803</t>
+          <t>BCIO:050400</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>association behaviour with a pro-social group</t>
-        </is>
-      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>arranging a healthcare service appointment</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr">
         <is>
-          <t>An association behaviour that involves increasing a sense of being part of a pro-social group.</t>
+          <t>Utilising healthcare that involves scheduling a time to interact with a person or organisation providing healthcare.</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -4929,14 +4866,14 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:036086</t>
+          <t>BCIO:036042</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>nurture behaviour</t>
+          <t>physical performance behaviour</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -4946,42 +4883,36 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
+          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O144" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BCIO:050826</t>
+          <t>BCIO:050413</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>parenting behaviour</t>
-        </is>
-      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>providing healthcare</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Nurture behaviour that is provided to a young person by someone in a parent role.</t>
+          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -4993,36 +4924,41 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BCIO:036072</t>
+          <t>BCIO:050359</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>antisocial behaviour</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>administering vaccine</t>
+        </is>
+      </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to be is contrary to the laws or accepted current norms of social conduct within a specific social context and causes annoyance and or disapproval in others.</t>
+          <t>Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease.</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves adding a vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BCIO:050810</t>
+          <t>BCIO:050361</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
@@ -5030,7 +4966,7 @@
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>criminal behaviour</t>
+          <t>making a referral to another health care service</t>
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
@@ -5039,7 +4975,7 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>An antisocial behaviour that is illegal in a jurisdiction.</t>
+          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -5051,48 +4987,53 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BCIO:006095</t>
+          <t>BCIO:050360</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>normative behaviour</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>providing healthcare advice</t>
+        </is>
+      </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>A &lt;socially-related behaviour&gt; that is commonly enacted by people that are part of a social environmental system.</t>
+          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:050352</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>inter-personal behaviour</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>providing healthcare testing</t>
+        </is>
+      </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -5104,24 +5045,24 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BCIO:050397</t>
+          <t>BCIO:050353</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>social support behaviour</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>providing health screening</t>
+        </is>
+      </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
+          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -5133,24 +5074,24 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BCIO:036033</t>
+          <t>BCIO:050362</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>care-giving behaviour</t>
-        </is>
-      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>providing healthcare treatment</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr">
         <is>
-          <t>A social support behaviour that involves meeting another person’s physical, psychological or social needs that this person is unable to fully meet themselves at a given moment.</t>
+          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -5162,24 +5103,24 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BCIO:006099</t>
+          <t>BCIO:050366</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>social influence behaviour</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>providing occupational therapy</t>
+        </is>
+      </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
+          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -5191,7 +5132,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BCIO:050836</t>
+          <t>BCIO:050364</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
@@ -5200,7 +5141,7 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr">
         <is>
-          <t>rewarding behaviour</t>
+          <t>providing psychological treatment</t>
         </is>
       </c>
       <c r="G153" t="inlineStr"/>
@@ -5208,7 +5149,7 @@
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr">
         <is>
-          <t>A social influence behaviour in which the person provides a positive stimulus contingent on another person’s behaviour.</t>
+          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -5220,82 +5161,82 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BCIO:050672</t>
+          <t>BCIO:050365</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>group facilitation behaviour</t>
-        </is>
-      </c>
+      <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>providing creative arts therapy</t>
+        </is>
+      </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr">
         <is>
-          <t>An &lt;inter-personal behaviour&gt; of a member of a social group that promotes engagement of members of the group in group behaviours.</t>
+          <t>Providing psychological treatment that involves creative and expressive processes.</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BCIO:036036</t>
+          <t>BCIO:050367</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>physical combat behaviour</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>providing speech and language therapy</t>
+        </is>
+      </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
+          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O155" t="inlineStr">
-        <is>
-          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BCIO:036089</t>
+          <t>BCIO:050363</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>political behaviour</t>
-        </is>
-      </c>
+      <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>providing physical therapy</t>
+        </is>
+      </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
+          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -5307,42 +5248,36 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BCIO:036035</t>
+          <t>BCIO:050358</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>economic behaviour</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>reviewing prescribed medication</t>
+        </is>
+      </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
+          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O157" t="inlineStr">
-        <is>
-          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
-The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BCIO:036110</t>
+          <t>BCIO:050414</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
@@ -5350,7 +5285,7 @@
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>employment behaviour</t>
+          <t>diagnostic healthcare behaviour</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
@@ -5359,7 +5294,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
+          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -5367,16 +5302,16 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O158" t="inlineStr">
-        <is>
-          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BCIO:050829</t>
+          <t>BCIO:050354</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -5384,7 +5319,7 @@
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>purchasing behaviour</t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
@@ -5393,7 +5328,7 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>An economic behaviour in which the person gives money in exchange for a service or ownership of a product.</t>
+          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -5405,53 +5340,59 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>BCIO:050837</t>
+          <t>BCIO:050355</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>selling behaviour</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>prescribing medication</t>
+        </is>
+      </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>An economic behaviour in which the person provides a service or ownership of a product in exchange for money.</t>
+          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
+Prescribing medication can include advising and authorising to stop using a medicine.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>BCIO:036075</t>
+          <t>BCIO:050357</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>harmful behaviour</t>
-        </is>
-      </c>
+      <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>social prescribing</t>
+        </is>
+      </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>An individual human behaviour that causes net harm.</t>
+          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -5463,114 +5404,108 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>BCIO:050398</t>
+          <t>BCIO:050356</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>harmful behaviour to others</t>
-        </is>
-      </c>
+      <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>prescribing behavioural regime</t>
+        </is>
+      </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning.</t>
+          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O162" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>BCIO:036037</t>
+          <t>BCIO:050821</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>harassment behaviour</t>
-        </is>
-      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>health-promoting behaviour</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
+          <t>A health-related behaviour that improves the person’s health.</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>This class is for behaviour that promote positive health as well as protect against threats to health.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BCIO:036032</t>
+          <t>BCIO:050410</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>self-monitoring an aspect of health</t>
+        </is>
+      </c>
       <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>bullying behaviour</t>
-        </is>
-      </c>
+      <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>A harassment behaviour that involves targeting someone through deliberate misuse of power in a relationship to inflict physical, social or psychological harm.</t>
+          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O164" t="inlineStr">
-        <is>
-          <t>While bullying behaviours can be directed at anyone, they are often aimed at certain people because of their race, religion, gender or sexual orientation or any other aspect such as appearance or disability (https://www.ncab.org.au/bullying-advice/bullying-for-parents/definition-of-bullying/).</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>BCIO:036014</t>
+          <t>BCIO:050457</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>self-injury behaviour</t>
-        </is>
-      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
@@ -5578,33 +5513,28 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O165" t="inlineStr">
-        <is>
-          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>BCIO:050846</t>
+          <t>BCIO:050442</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>behavioural substitution</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>vocalisation behaviour</t>
+        </is>
+      </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
@@ -5612,7 +5542,7 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; in which a person substitutes a more desired behaviour for a less desired behaviour.</t>
+          <t>An expressive behaviour involving vibration of the vocal chords.</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -5624,43 +5554,48 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>BCIO:050438</t>
+          <t>BCIO:050461</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>life function-related behaviour</t>
-        </is>
-      </c>
+      <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>talking</t>
+        </is>
+      </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
-          <t>An individual human behaviour related to vital bodily functions.</t>
+          <t>A vocalisation behaviour that expresses something using words.</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BCIO:036054</t>
+          <t>BCIO:050458</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>excretion behaviour</t>
+          <t>facial expression behaviour</t>
         </is>
       </c>
       <c r="E168" t="inlineStr"/>
@@ -5670,26 +5605,36 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
+          <t>An expressive behaviour that involves the muscles of the face.</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>If facial expression behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using facial expression’ (BCIO:050425).</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/MFOEM_000125</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>BCIO:036056</t>
+          <t>BCIO:050456</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
-          <t>reproductive behaviour</t>
+          <t>crying</t>
         </is>
       </c>
       <c r="E169" t="inlineStr"/>
@@ -5699,7 +5644,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
+          <t>An expressive behaviour that involves tears, and facial expressions of distress.</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -5707,23 +5652,23 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O169" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GO_0060273</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>BCIO:036057</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>breathing behaviour</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="E170" t="inlineStr"/>
@@ -5733,7 +5678,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>A life function-related behaviour involves providing an appropriate level of oxygenation to body tissues.</t>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -5745,58 +5690,53 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>BCIO:036024</t>
+          <t>BCIO:050238</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>personal bodily care behaviour</t>
-        </is>
-      </c>
+      <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>An individual human behaviour that attends to one’s own hygiene, comfort or appearance.</t>
+          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O171" t="inlineStr">
-        <is>
-          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BCIO:050371</t>
+          <t>BCIO:050373</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>dressing behaviour</t>
-        </is>
-      </c>
+      <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using vocalisations</t>
+        </is>
+      </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
+          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -5808,87 +5748,87 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>BCIO:050411</t>
+          <t>BCIO:050424</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>sun protective behaviour</t>
-        </is>
-      </c>
+      <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using body language</t>
+        </is>
+      </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
+          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O173" t="inlineStr">
-        <is>
-          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>BCIO:050368</t>
+          <t>BCIO:036002</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>bodily hygiene behaviour</t>
-        </is>
-      </c>
+      <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using gesture</t>
+        </is>
+      </c>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that attends to hygiene by cleaning or washing oneself or parts of the body.</t>
+          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>BCIO:050369</t>
+          <t>BCIO:050425</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>handwashing</t>
-        </is>
-      </c>
+      <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using facial expression</t>
+        </is>
+      </c>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
+          <t>Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings.</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -5900,24 +5840,24 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>BCIO:050370</t>
+          <t>BCIO:050375</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>dental hygiene behaviour</t>
-        </is>
-      </c>
+      <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using eye contact</t>
+        </is>
+      </c>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr">
         <is>
-          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
+          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -5929,24 +5869,24 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>BCIO:050372</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>appearance-based bodily behaviour</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that attends to making changes to one's body to achieve a desired appearance.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -5958,16 +5898,16 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>BCIO:050819</t>
+          <t>BCIO:050815</t>
         </is>
       </c>
       <c r="B178" t="inlineStr"/>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>harm preventing behaviour</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>emotionally expressive behaviour</t>
+        </is>
+      </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
@@ -5975,7 +5915,7 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>An individual human behaviour that has an outcome to prevent harm.</t>
+          <t>An expressive behaviour that conveys some emotion.</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
@@ -5987,16 +5927,16 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>laughing</t>
+        </is>
+      </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
@@ -6004,7 +5944,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -6016,14 +5956,14 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>BCIO:050459</t>
+          <t>BCIO:036021</t>
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>gesticulatory expressive behaviour</t>
+          <t>creative expressive behaviour</t>
         </is>
       </c>
       <c r="E180" t="inlineStr"/>
@@ -6033,7 +5973,7 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving a movement of the limbs, head or torso.</t>
+          <t>An expressive behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -6041,23 +5981,23 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O180" t="inlineStr">
-        <is>
-          <t>If the gesticulatory behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using gesture’ (BCIO:036002).</t>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>An aspect of the environment includes both objects within it but also processes (e.g., music performance or dancing).</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>BCIO:050458</t>
+          <t>BCIO:050459</t>
         </is>
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
-          <t>facial expression behaviour</t>
+          <t>gesticulatory expressive behaviour</t>
         </is>
       </c>
       <c r="E181" t="inlineStr"/>
@@ -6067,12 +6007,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the muscles of the face.</t>
-        </is>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/MFOEM_000125</t>
+          <t>An expressive behaviour involving a movement of the limbs, head or torso.</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -6080,25 +6015,25 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O181" t="inlineStr">
-        <is>
-          <t>If facial expression behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using facial expression’ (BCIO:050425).</t>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>If the gesticulatory behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using gesture’ (BCIO:036002).</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>BCIO:050442</t>
+          <t>BCIO:006158</t>
         </is>
       </c>
       <c r="B182" t="inlineStr"/>
-      <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>vocalisation behaviour</t>
-        </is>
-      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>habitual behaviour</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
@@ -6106,62 +6041,52 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving vibration of the vocal chords.</t>
-        </is>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An &lt;individual human behaviour&gt; that results from a learnt stimulus-behaviour co-occurrence.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>BCIO:050461</t>
+          <t>BCIO:050832</t>
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
-      <c r="C183" t="inlineStr"/>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>reflective behaviour</t>
+        </is>
+      </c>
       <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>talking</t>
-        </is>
-      </c>
+      <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr">
         <is>
-          <t>A vocalisation behaviour that expresses something using words.</t>
+          <t>An individual human behaviour that is caused by a reflective mental process.</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O183" t="inlineStr">
-        <is>
-          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>BCIO:036021</t>
+          <t>BCIO:050438</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
-      <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>creative expressive behaviour</t>
-        </is>
-      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>life function-related behaviour</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
@@ -6169,31 +6094,26 @@
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
+          <t>An individual human behaviour related to vital bodily functions.</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O184" t="inlineStr">
-        <is>
-          <t>An aspect of the environment includes both objects within it but also processes (e.g., music performance or dancing).</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>BCIO:050815</t>
+          <t>BCIO:036057</t>
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
         <is>
-          <t>emotionally expressive behaviour</t>
+          <t>breathing behaviour</t>
         </is>
       </c>
       <c r="E185" t="inlineStr"/>
@@ -6203,7 +6123,7 @@
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr">
         <is>
-          <t>An expressive behaviour that conveys some emotion.</t>
+          <t>A life function-related behaviour involves providing an appropriate level of oxygenation to body tissues.</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -6215,14 +6135,14 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
+          <t>BCIO:036056</t>
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
-          <t>laughing</t>
+          <t>reproductive behaviour</t>
         </is>
       </c>
       <c r="E186" t="inlineStr"/>
@@ -6232,26 +6152,31 @@
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>BCIO:050456</t>
+          <t>BCIO:036054</t>
         </is>
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr">
         <is>
-          <t>crying</t>
+          <t>excretion behaviour</t>
         </is>
       </c>
       <c r="E187" t="inlineStr"/>
@@ -6261,12 +6186,7 @@
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves tears, and facial expressions of distress.</t>
-        </is>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/GO_0060273</t>
+          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -6278,16 +6198,16 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr"/>
+          <t>BFO:0000034</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>function</t>
+        </is>
+      </c>
       <c r="C188" t="inlineStr"/>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
+      <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
@@ -6295,7 +6215,7 @@
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+          <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -6307,53 +6227,64 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:036001</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
-      <c r="C189" t="inlineStr"/>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>human life function</t>
+        </is>
+      </c>
       <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
+The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>BCIO:050238</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr"/>
+          <t>BCIO:050416</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>behavioural disposition</t>
+        </is>
+      </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+          <t>A bodily disposition that is realised as some behaviour.</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>A tendency to behave in a particular way.</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -6365,24 +6296,29 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>BCIO:050373</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr"/>
+          <t>BCIO:036107</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>process aggregate</t>
+        </is>
+      </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using vocalisations</t>
-        </is>
-      </c>
+      <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
+          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>Processes that repeat over time.</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -6394,24 +6330,29 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>BCIO:050424</t>
+          <t>BCIO:050267</t>
         </is>
       </c>
       <c r="B192" t="inlineStr"/>
-      <c r="C192" t="inlineStr"/>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using body language</t>
-        </is>
-      </c>
+      <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
+          <t>A process aggregate whose member parts are of the same type.</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
@@ -6423,87 +6364,98 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>BCIO:036002</t>
+          <t>BCIO:050448</t>
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>population behaviour pattern</t>
+        </is>
+      </c>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using gesture</t>
-        </is>
-      </c>
+      <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
+          <t>A uniform process aggregate whose members are individual behaviour patterns of a population.</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O193" t="inlineStr">
-        <is>
-          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>BCIO:050375</t>
+          <t>BCIO:036100</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr"/>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern</t>
+        </is>
+      </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using eye contact</t>
-        </is>
-      </c>
+      <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
+          <t>A uniform process aggregate whose member parts are behaviours of the same type and in the same person.</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>Individual human behaviours of the same type repeated over time.</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
+This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
+        </is>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>behaviour pattern</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>BCIO:050425</t>
+          <t>BCIO:050210</t>
         </is>
       </c>
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>consumption behaviour pattern</t>
+        </is>
+      </c>
       <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using facial expression</t>
-        </is>
-      </c>
+      <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings.</t>
+          <t>An individual human behaviour pattern that involves consumption behaviour.</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
@@ -6515,24 +6467,24 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>BCIO:050812</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>domestic behaviour</t>
-        </is>
-      </c>
+      <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>substance use behaviour pattern</t>
+        </is>
+      </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>An individual human behaviour within a residential facility.</t>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
@@ -6544,127 +6496,137 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>BCIO:050806</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>behavioural consequence</t>
-        </is>
-      </c>
+          <t>BCIO:036102</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>An entity that is an outcome of behaviour.</t>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>BCIO:050919</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>negative behavioural consequence</t>
-        </is>
-      </c>
+      <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>tobacco smoking behaviour pattern</t>
+        </is>
+      </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>A behavioural consequence that is negatively evaluated by an individual or a population.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>BCIO:050828</t>
+          <t>BCIO:036106</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>positive behavioural consequence</t>
-        </is>
-      </c>
+      <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
-      <c r="I199" t="inlineStr"/>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>cigarette smoking behaviour pattern</t>
+        </is>
+      </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>A behavioural consequence that is positively evaluated by an individual or a population.</t>
-        </is>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A tobacco smoking behaviour pattern that involves cigarette smoking behaviour.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>BCIO:050900</t>
+          <t>BCIO:050805</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>social behavioural consequence</t>
-        </is>
-      </c>
+      <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr"/>
-      <c r="E200" t="inlineStr"/>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>behaviour pattern maintenance</t>
+        </is>
+      </c>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr">
         <is>
-          <t>A behavioural consequence of a member of the person’s social environmental system.</t>
+          <t>An individual human behaviour pattern that is continued.</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>Behaviour is continued even if there are historical or current barriers to doing so.</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>BCIO:050901</t>
+          <t>BCIO:050804</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
-      <c r="C201" t="inlineStr"/>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>wider community behavioural consequence</t>
-        </is>
-      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>behaviour chain</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
@@ -6672,28 +6634,33 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>A social behavioural consequence that is beyond the person’s family.</t>
+          <t>A process aggregate whose members are behaviours causally linked to each other in a sequence.</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>A behaviour chain can involve different behaviours, whereas a behaviour pattern can involve the same behaviour. Patterns are not necessarily causally linked.</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>BCIO:050899</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
-      <c r="C202" t="inlineStr"/>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>family behavioural consequence</t>
-        </is>
-      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>population behaviour</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
@@ -6701,7 +6668,7 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>A social behavioural consequence of some family member.</t>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
@@ -6713,16 +6680,16 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>BCIO:050820</t>
+          <t>BCIO:050808</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>harm prevention</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>collective behaviour</t>
+        </is>
+      </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
@@ -6730,7 +6697,7 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>A behavioural consequence in which harm is prevented.</t>
+          <t>A population behaviour that is aimed at achieving a goal shared by members of that population.</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
@@ -6742,15 +6709,15 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>BCIO:050823</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr"/>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>impact of behaviour on environment</t>
-        </is>
-      </c>
+          <t>BCIO:050839</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>task complexity</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
@@ -6759,7 +6726,7 @@
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr">
         <is>
-          <t>A behavioural consequence that involves an outcome relating to the environment system.</t>
+          <t>A process attribute that is the complexity of thought or behaviour required to achieve a goal.</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -6771,12 +6738,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>BCIO:050300</t>
+          <t>BCIO:050435</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>behavioural attribute</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -6788,30 +6755,30 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>A specifically dependent continuant that inheres in a person.</t>
+          <t>A process attribute of an individual human behaviour.</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>An attribute of a behaviour.</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="O205" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>BCIO:050451</t>
+          <t>BCIO:050447</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="inlineStr">
         <is>
-          <t>abstinence from a behaviour</t>
+          <t>intentionality</t>
         </is>
       </c>
       <c r="D206" t="inlineStr"/>
@@ -6822,7 +6789,12 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>A personal attribute in which a person does not engage in a behaviour during a time period.</t>
+          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
@@ -6832,22 +6804,22 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>Not performing a behaviour for some period of time.</t>
+          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>BCIO:036107</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr"/>
+          <t>BCIO:050822</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>identity congruence</t>
+        </is>
+      </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
@@ -6856,30 +6828,25 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
+          <t>A behavioural attribute that is the extent to which one’s behaviour is believed to be consistent with one’s core, positive self-identity.</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N207" t="inlineStr">
-        <is>
-          <t>Processes that repeat over time.</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:050902</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
       <c r="C208" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>behavioural ease</t>
         </is>
       </c>
       <c r="D208" t="inlineStr"/>
@@ -6890,7 +6857,7 @@
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
+          <t>A behavioural attribute that is the level of convenience, ease or comfort of a behaviour.</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -6902,16 +6869,16 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>BCIO:050808</t>
+          <t>BCIO:036076</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
-      <c r="C209" t="inlineStr"/>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>collective behaviour</t>
-        </is>
-      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>impulsiveness</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
@@ -6919,25 +6886,35 @@
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr">
         <is>
-          <t>A population behaviour that is aimed at achieving a goal shared by members of that population.</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted without thinking.</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>BCIO:050804</t>
+          <t>BCIO:050444</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="inlineStr">
         <is>
-          <t>behaviour chain</t>
+          <t>behavioural reflectiveness</t>
         </is>
       </c>
       <c r="D210" t="inlineStr"/>
@@ -6948,7 +6925,12 @@
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr">
         <is>
-          <t>A process aggregate whose members are behaviours causally linked to each other in a sequence.</t>
+          <t>A behavioural attribute that is the degree to which the behaviour is under the control of reflective motivation.</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -6956,25 +6938,25 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="O210" t="inlineStr">
-        <is>
-          <t>A behaviour chain can involve different behaviours, whereas a behaviour pattern can involve the same behaviour. Patterns are not necessarily causally linked.</t>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:050833</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr"/>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>reflectively controlled</t>
+        </is>
+      </c>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
@@ -6982,33 +6964,28 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
+          <t>Behavioural reflectiveness in which the behaviour is predominantly controlled by reflective motivation.</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N211" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>BCIO:036100</t>
+          <t>BCIO:050430</t>
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
-      <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern</t>
-        </is>
-      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>behavioural form</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
@@ -7016,252 +6993,271 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>A uniform process aggregate whose member parts are behaviours of the same type and in the same person.</t>
+          <t>A behavioural attribute that is the physical way in which a behaviour is enacted.</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The way in which the behaviour is performed, including the shape of one’s muscles and skeletal alignment during the behaviour. </t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N212" t="inlineStr">
-        <is>
-          <t>Individual human behaviours of the same type repeated over time.</t>
-        </is>
-      </c>
-      <c r="O212" t="inlineStr">
-        <is>
-          <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
-This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
-        </is>
-      </c>
-      <c r="P212" t="inlineStr">
-        <is>
-          <t>behaviour pattern</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>BCIO:050805</t>
+          <t>BCIO:050431</t>
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
-      <c r="C213" t="inlineStr"/>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="D213" t="inlineStr"/>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>behaviour pattern maintenance</t>
-        </is>
-      </c>
+      <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>An individual human behaviour pattern that is continued.</t>
+          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>The mental effort required to perform a behaviour.</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O213" t="inlineStr">
-        <is>
-          <t>Behaviour is continued even if there are historical or current barriers to doing so.</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>BCIO:050210</t>
+          <t>BCIO:050468</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
       <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr"/>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>consumption behaviour pattern</t>
-        </is>
-      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>low mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr">
         <is>
-          <t>An individual human behaviour pattern that involves consumption behaviour.</t>
+          <t>Mental exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>BCIO:050211</t>
+          <t>BCIO:050472</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>moderate mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>substance use behaviour pattern</t>
-        </is>
-      </c>
+      <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr">
         <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
+          <t>Mental exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:050433</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr"/>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour pattern</t>
-        </is>
-      </c>
+      <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
+          <t>Mental exertion expended on a behaviour where the exertion involves cognitive processes.</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>The effort relating to thinking required to perform a behaviour.</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P216" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:050466</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr"/>
-      <c r="E217" t="inlineStr"/>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>low cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour pattern</t>
-        </is>
-      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+          <t>Cognitive exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>BCIO:036106</t>
+          <t>BCIO:050462</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr"/>
-      <c r="E218" t="inlineStr"/>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>high cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr"/>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>cigarette smoking behaviour pattern</t>
-        </is>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr">
         <is>
-          <t>A tobacco smoking behaviour pattern that involves cigarette smoking behaviour.</t>
+          <t>Cognitive exertion expended on a behaviour that is high.</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>BCIO:050448</t>
+          <t>BCIO:050470</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="inlineStr"/>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>population behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>moderate cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr">
         <is>
-          <t>A uniform process aggregate whose members are individual behaviour patterns of a population.</t>
+          <t>Cognitive exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>BCIO:050831</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>reducing harm</t>
-        </is>
-      </c>
+          <t>BCIO:050434</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr"/>
       <c r="C220" t="inlineStr"/>
-      <c r="D220" t="inlineStr"/>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
@@ -7269,12 +7265,12 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>A process in which damage or injury is reduced.</t>
+          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>harmful behaviour</t>
+          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -7286,103 +7282,118 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>BCIO:042000</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:050467</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr"/>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr"/>
-      <c r="E221" t="inlineStr"/>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>low emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr">
         <is>
-          <t>A process that is an individual human behaviour or a population behaviour.</t>
+          <t>Emotional management exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>BCIO:002000</t>
+          <t>BCIO:050463</t>
         </is>
       </c>
       <c r="B222" t="inlineStr"/>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>behaviour change intervention outcome behaviour</t>
-        </is>
-      </c>
+      <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr"/>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>high emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Human behaviour that is an intervention outcome.</t>
+          <t>Emotional management exertion expended on a behaviour that is high.</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>BCIO:050830</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>reducing discomfort</t>
-        </is>
-      </c>
+          <t>BCIO:050471</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr"/>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr"/>
-      <c r="E223" t="inlineStr"/>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>moderate emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>A process in which physical or mental uneasiness or distress is reduced.</t>
-        </is>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>distress minimisation behaviour</t>
+          <t>Emotional management exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>BCIO:050209</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>individual human behaviour change</t>
-        </is>
-      </c>
+          <t>BCIO:050464</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr"/>
       <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>high mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
@@ -7390,7 +7401,7 @@
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr">
         <is>
-          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
+          <t>Mental exertion expended on a behaviour that is high.</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
@@ -7400,30 +7411,20 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
-        </is>
-      </c>
-      <c r="O224" t="inlineStr">
-        <is>
-          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
-        </is>
-      </c>
-      <c r="P224" t="inlineStr">
-        <is>
-          <t>behaviour change</t>
+          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>BCIO:050575</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="inlineStr">
         <is>
-          <t>behaviour change through group norm</t>
+          <t>physical exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="D225" t="inlineStr"/>
@@ -7434,7 +7435,12 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour change&gt; resulting from exposure to a group behavioural norm.</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>The physical effort required to perform a behaviour.</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -7446,16 +7452,16 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>BCIO:050207</t>
+          <t>BCIO:050473</t>
         </is>
       </c>
       <c r="B226" t="inlineStr"/>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern cessation</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr"/>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>moderate physical exertion expended on behaviour</t>
+        </is>
+      </c>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
@@ -7463,7 +7469,7 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
+          <t>Physical exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -7473,26 +7479,21 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
-        </is>
-      </c>
-      <c r="P226" t="inlineStr">
-        <is>
-          <t>behavioural cessation; cessation of a behaviour pattern</t>
+          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:050469</t>
         </is>
       </c>
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>low physical exertion expended on behaviour</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -7502,7 +7503,7 @@
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
+          <t>Physical exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -7512,66 +7513,65 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>Cessation of tobacco use for a period of time.</t>
-        </is>
-      </c>
-      <c r="O227" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
+          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:050465</t>
         </is>
       </c>
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr"/>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>tobacco smoking cessation</t>
-        </is>
-      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>high physical exertion expended on behaviour</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+          <t>Physical exertion expended on a behaviour that is high</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>BCIO:050311</t>
+          <t>BCIO:050814</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
-      <c r="C229" t="inlineStr"/>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>emotionally driven</t>
+        </is>
+      </c>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>cigarette smoking cessation</t>
-        </is>
-      </c>
+      <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Tobacco smoking cessation in which the form of tobacco smoking is cigarette smoking.</t>
+          <t>A behavioural attribute in which the behaviour is caused by an emotion process.</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
@@ -7583,15 +7583,15 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>BCIO:050449</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>abstinence duration</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr"/>
+          <t>BCIO:050835</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr"/>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>response cost</t>
+        </is>
+      </c>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
@@ -7600,29 +7600,24 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>A temporal interval during which a person is abstinent from a behaviour.</t>
+          <t>A behavioural attribute that is the time, effort, financial cost, or aversiveness of enacting a behaviour.</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N230" t="inlineStr">
-        <is>
-          <t>The time a person is abstinent from a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>BCIO:050455</t>
+          <t>BCIO:006085</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>behavioural duration</t>
+          <t>location</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -7634,17 +7629,22 @@
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr">
         <is>
-          <t>A temporal interval within which an individual human behaviour occurs.</t>
+          <t>A spatial &lt;quality&gt; that inheres in a bearer by virtue of its position relative to other entities.</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>Where a person, animal or object is.</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>Mechanisms of action</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>The time between the start and end of a behaviour.</t>
+          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
         </is>
       </c>
     </row>

--- a/Behaviour/BCIO-behaviour-hierarchy.xlsx
+++ b/Behaviour/BCIO-behaviour-hierarchy.xlsx
@@ -446,44 +446,44 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>Informal definition</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
         <is>
           <t>Examples</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:050300</t>
+          <t>BCIO:050450</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>abstinence end point</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -495,32 +495,37 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>A specifically dependent continuant that inheres in a person.</t>
+          <t>A temporal region when a person stops abstaining from a behaviour.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>A time point that is the end of an abstinence period.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:050451</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>abstinence from a behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:050453</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>behaviour end point</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -529,29 +534,34 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>A personal attribute in which a person does not engage in a behaviour during a time period.</t>
+          <t>A time point that is the end of an individual human behaviour.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Not performing a behaviour for some period of time.</t>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>A temporal region when a behaviour ends.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:050449</t>
+          <t>BCIO:050454</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>abstinence duration</t>
+          <t>behaviour starting point</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -563,29 +573,34 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>A temporal interval during which a person is abstinent from a behaviour.</t>
+          <t>A time point that is the start of an individual human behaviour.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>The time a person is abstinent from a behaviour.</t>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>A temporal region when a behaviour starts.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:050455</t>
+          <t>BCIO:050452</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>behavioural duration</t>
+          <t>abstinence start point</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -597,29 +612,34 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>A temporal interval within which an individual human behaviour occurs.</t>
+          <t>A time point that is the start of an abstinence period.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>The time between the start and end of a behaviour.</t>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>A temporal region when a person starts being abstinent from a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:042000</t>
+          <t>BCIO:050806</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>behavioural consequence</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -631,7 +651,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>A process that is an individual human behaviour or a population behaviour.</t>
+          <t>An entity that is an outcome of behaviour.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -643,13 +663,13 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:002000</t>
+          <t>BCIO:050823</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>behaviour change intervention outcome behaviour</t>
+          <t>impact of behaviour on environment</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -660,22 +680,27 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Human behaviour that is an intervention outcome.</t>
+          <t>A behavioural consequence that involves an outcome relating to the environment system.</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:050209</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>individual human behaviour change</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>BCIO:050828</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>positive behavioural consequence</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -684,40 +709,25 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
+          <t>A behavioural consequence that is positively evaluated by an individual or a population.</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>behaviour change</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:050575</t>
+          <t>BCIO:050900</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>behaviour change through group norm</t>
+          <t>social behavioural consequence</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -728,7 +738,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour change&gt; resulting from exposure to a group behavioural norm.</t>
+          <t>A behavioural consequence of a member of the person’s social environmental system.</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -740,16 +750,16 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:050207</t>
+          <t>BCIO:050901</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern cessation</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>wider community behavioural consequence</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -757,36 +767,26 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
+          <t>A social behavioural consequence that is beyond the person’s family.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>behavioural cessation; cessation of a behaviour pattern</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:050899</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>family behavioural consequence</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -796,76 +796,60 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
+          <t>A social behavioural consequence of some family member.</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:050919</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>negative behavioural consequence</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>tobacco smoking cessation</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural consequence that is negatively evaluated by an individual or a population.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:050311</t>
+          <t>BCIO:050820</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>harm prevention</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>cigarette smoking cessation</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Tobacco smoking cessation in which the form of tobacco smoking is cigarette smoking.</t>
+          <t>A behavioural consequence in which harm is prevented.</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -877,12 +861,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:050830</t>
+          <t>BCIO:050449</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>reducing discomfort</t>
+          <t>abstinence duration</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -894,7 +878,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>A process in which physical or mental uneasiness or distress is reduced.</t>
+          <t>A temporal interval during which a person is abstinent from a behaviour.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -902,21 +886,21 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>distress minimisation behaviour</t>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>The time a person is abstinent from a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:050831</t>
+          <t>BCIO:050455</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>reducing harm</t>
+          <t>behavioural duration</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -928,7 +912,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>A process in which damage or injury is reduced.</t>
+          <t>A temporal interval within which an individual human behaviour occurs.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -936,21 +920,21 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>harmful behaviour</t>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>The time between the start and end of a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:050428</t>
+          <t>BCIO:050300</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>behavioural frequency</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -962,32 +946,32 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a behaviour occurs in a time period.</t>
+          <t>A specifically dependent continuant that inheres in a person.</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>The number of times a person performs a behaviour within a specific period.</t>
+          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>population</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:050429</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>number of behavioural occurrences</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>BCIO:050451</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>abstinence from a behaviour</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -996,29 +980,29 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a behaviour has occurred.</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
+          <t>A personal attribute in which a person does not engage in a behaviour during a time period.</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Not performing a behaviour for some period of time.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:050806</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>behavioural consequence</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1030,7 +1014,16 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>An entity that is an outcome of behaviour.</t>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
+Behaviours are usually in response to an internal or external stimuli.
+Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
+'behaviours' can involve a series of activities (e.g., more granular behaviours).
+'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1042,13 +1035,13 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:050820</t>
+          <t>BCIO:050457</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>harm prevention</t>
+          <t>expressive behaviour</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1059,7 +1052,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>A behavioural consequence in which harm is prevented.</t>
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1071,16 +1064,16 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:050919</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>negative behavioural consequence</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>laughing</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1088,23 +1081,28 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>A behavioural consequence that is negatively evaluated by an individual or a population.</t>
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:050828</t>
+          <t>BCIO:036021</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>positive behavioural consequence</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>creative expressive behaviour</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1112,7 +1110,12 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>A behavioural consequence that is positively evaluated by an individual or a population.</t>
+          <t>An expressive behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>An aspect of the environment includes both objects within it but also processes (e.g., music performance or dancing).</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1124,16 +1127,16 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:050900</t>
+          <t>BCIO:050815</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>social behavioural consequence</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>emotionally expressive behaviour</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1141,7 +1144,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>A behavioural consequence of a member of the person’s social environmental system.</t>
+          <t>An expressive behaviour that conveys some emotion.</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1153,14 +1156,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:050899</t>
+          <t>BCIO:050459</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>family behavioural consequence</t>
+          <t>gesticulatory expressive behaviour</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1170,7 +1173,12 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>A social behavioural consequence of some family member.</t>
+          <t>An expressive behaviour involving a movement of the limbs, head or torso.</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>If the gesticulatory behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using gesture’ (BCIO:036002).</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1182,14 +1190,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:050901</t>
+          <t>BCIO:050456</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>wider community behavioural consequence</t>
+          <t>crying</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1199,28 +1207,33 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>A social behavioural consequence that is beyond the person’s family.</t>
+          <t>An expressive behaviour that involves tears, and facial expressions of distress.</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GO_0060273</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:050823</t>
+          <t>BCIO:050458</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>impact of behaviour on environment</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>facial expression behaviour</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1228,28 +1241,38 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>A behavioural consequence that involves an outcome relating to the environment system.</t>
+          <t>An expressive behaviour that involves the muscles of the face.</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>If facial expression behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using facial expression’ (BCIO:050425).</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/MFOEM_000125</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:050452</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>abstinence start point</t>
-        </is>
-      </c>
+          <t>BCIO:050442</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>vocalisation behaviour</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1257,77 +1280,62 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>A time point that is the start of an abstinence period.</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>A temporal region when a person starts being abstinent from a behaviour.</t>
+          <t>An expressive behaviour involving vibration of the vocal chords.</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:050454</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>behaviour starting point</t>
-        </is>
-      </c>
+          <t>BCIO:050461</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>talking</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>A time point that is the start of an individual human behaviour.</t>
+          <t>A vocalisation behaviour that expresses something using words.</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>A temporal region when a behaviour starts.</t>
+          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:050453</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>behaviour end point</t>
-        </is>
-      </c>
+          <t>BCIO:036034</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -1335,123 +1343,94 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>A time point that is the end of an individual human behaviour.</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>A temporal region when a behaviour ends.</t>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:050450</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>abstinence end point</t>
-        </is>
-      </c>
+          <t>BCIO:050237</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>A temporal region when a person stops abstaining from a behaviour.</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>A time point that is the end of an abstinence period.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:050238</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
-Behaviours are usually in response to an internal or external stimuli.
-Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
-'behaviours' can involve a series of activities (e.g., more granular behaviours).
-'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:050809</t>
+          <t>BCIO:050424</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>coping behaviour</t>
-        </is>
-      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using body language</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>An individual human behaviour that has the goal to reduce harm or discomfort.</t>
+          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -1463,24 +1442,29 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:050846</t>
+          <t>BCIO:036002</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>behavioural substitution</t>
-        </is>
-      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using gesture</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; in which a person substitutes a more desired behaviour for a less desired behaviour.</t>
+          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -1492,24 +1476,24 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:050443</t>
+          <t>BCIO:050425</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>experience-related behaviour</t>
-        </is>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using facial expression</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that relates to something the person experiences.</t>
+          <t>Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings.</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -1521,24 +1505,24 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:050841</t>
+          <t>BCIO:050375</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>approach behaviour</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using eye contact</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves taking action to engage with some stimulus that is judged to be rewarding by the person.</t>
+          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -1550,24 +1534,24 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:036112</t>
+          <t>BCIO:050373</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>spiritual behaviour</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using vocalisations</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
+          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -1579,16 +1563,16 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:036047</t>
+          <t>BCIO:050809</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>enjoyment behaviour</t>
-        </is>
-      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>coping behaviour</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -1596,7 +1580,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
+          <t>An individual human behaviour that has the goal to reduce harm or discomfort.</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -1608,16 +1592,16 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:050421</t>
+          <t>BCIO:050812</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>distress minimisation behaviour</t>
-        </is>
-      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>domestic behaviour</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
@@ -1625,33 +1609,28 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
+          <t>An individual human behaviour within a residential facility.</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>distress minimization behaviour</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:036073</t>
+          <t>BCIO:050437</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>avoidance behaviour</t>
-        </is>
-      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>health-related behaviour</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -1659,7 +1638,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves taking defensive action in order to avoid some stimulus judged to be aversive by the person.</t>
+          <t>An individual human behaviour that relates to health of oneself or others.</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -1671,14 +1650,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:036030</t>
+          <t>BCIO:050413</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>sexual behaviour</t>
+          <t>providing healthcare</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1688,75 +1667,65 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves sexual arousal.</t>
+          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:050834</t>
+          <t>BCIO:050354</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>regulatory behaviour</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>prescribing behaviour</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves monitoring and acting upon some parts of the person or their environment.</t>
+          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Environment here includes the social and physical environment and includes behaviours involved in monitoring of others or self, action planning, and goal setting.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:050811</t>
+          <t>BCIO:050357</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>cue management behaviour</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>social prescribing</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>A regulatory behaviour in which cues that prompt a behaviour pattern are added, altered or removed.</t>
+          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -1768,24 +1737,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:036008</t>
+          <t>BCIO:050356</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>learning behaviour</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>prescribing behavioural regime</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
+          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -1797,92 +1766,88 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:050291</t>
+          <t>BCIO:050355</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>knowledge development behaviour</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>prescribing medication</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving a person's knowledge.</t>
+          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
+Prescribing medication can include advising and authorising to stop using a medicine.</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>information acquisition behaviour; knowledge seeking behaviour</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:050825</t>
+          <t>BCIO:050352</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>monitoring behaviour</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>providing healthcare testing</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>A knowledge development behaviour that involves gathering information over a period of time.</t>
+          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>This is often used in relation to regulatory behaviour, either oneself or others. 'Monitoring behaviour' has part 'regulatory behaviour'</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:050807</t>
+          <t>BCIO:050353</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>carer monitoring of child behaviour</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>providing health screening</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>A monitoring behaviour in which a carer gathers information about the activities of some child in their care.</t>
+          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -1894,24 +1859,24 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:050824</t>
+          <t>BCIO:050360</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>knowledge acquisition about reducing harmful behaviours</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>providing healthcare advice</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>A knowledge development behaviour where the knowledge is about how to reduce or avoid a harmful behaviour.</t>
+          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -1923,7 +1888,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:036039</t>
+          <t>BCIO:050362</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1931,7 +1896,7 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>skill development behaviour</t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -1940,7 +1905,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
+          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -1952,24 +1917,24 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:050813</t>
+          <t>BCIO:050364</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>emotional behaviour</t>
-        </is>
-      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>providing psychological treatment</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is caused by an emotion process.</t>
+          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -1981,24 +1946,24 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:036041</t>
+          <t>BCIO:050365</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>mind-body behaviour</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>providing creative arts therapy</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
+          <t>Providing psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -2010,24 +1975,24 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:050439</t>
+          <t>BCIO:050366</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>material entity-related behaviour</t>
-        </is>
-      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>providing occupational therapy</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to a material entity.</t>
+          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -2039,24 +2004,24 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:050426</t>
+          <t>BCIO:050367</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>physical contact behaviour</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>providing speech and language therapy</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that makes physical contact with something.</t>
+          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -2068,24 +2033,24 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:036028</t>
+          <t>BCIO:050363</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>physical impact behaviour</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>providing physical therapy</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>A physical contact behaviour that is forceful.</t>
+          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -2097,41 +2062,36 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:036027</t>
+          <t>BCIO:050361</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>object-using behaviour</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>making a referral to another health care service</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that uses a non-living object.</t>
+          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:036063</t>
+          <t>BCIO:050359</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -2139,7 +2099,7 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>reading behaviour</t>
+          <t>administering vaccine</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -2148,7 +2108,12 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
+          <t>Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease.</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves adding a vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -2160,7 +2125,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:036062</t>
+          <t>BCIO:050414</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -2168,7 +2133,7 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>manufacturing behaviour</t>
+          <t>diagnostic healthcare behaviour</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -2177,7 +2142,12 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
+          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -2189,7 +2159,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:050420</t>
+          <t>BCIO:050358</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2197,7 +2167,7 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>digital interaction behaviour</t>
+          <t>reviewing prescribed medication</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -2206,7 +2176,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
+          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -2218,24 +2188,24 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:050427</t>
+          <t>BCIO:050410</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>audio presentation listening behaviour</t>
-        </is>
-      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>self-monitoring an aspect of health</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>An object-using  behaviour that involves attending to audiomaterial.</t>
+          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -2247,24 +2217,29 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:050821</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>watching behaviour</t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>health-promoting behaviour</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+          <t>A health-related behaviour that improves the person’s health.</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>This class is for behaviour that promote positive health as well as protect against threats to health.</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -2276,14 +2251,14 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:036061</t>
+          <t>BCIO:036042</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>consumption behaviour</t>
+          <t>physical performance behaviour</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -2293,7 +2268,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>A material entity-related behaviour that involves ingesting material into the body.</t>
+          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -2305,131 +2280,121 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:036113</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>substance use behaviour</t>
-        </is>
-      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>utilising healthcare</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Substance use behaviour is not equated with substance abuse.</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>substance use</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050401</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>participating in healthcare testing</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:036103</t>
+          <t>BCIO:050402</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>participating in health screening</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
+          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>smoking</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:036105</t>
+          <t>BCIO:050404</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>participating in healthcare treatment</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>cigarette smoking behaviour</t>
-        </is>
-      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>A tobacco smoking behaviour that involves setting light to one end of a cigarette, putting the other end to the lips and sucking in order to ingest cigarette smoke.</t>
+          <t>Utilising healthcare that involves engaging with a treatment regimen to improve or maintain aspects of one's health or wellbeing.</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -2441,7 +2406,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:050376</t>
+          <t>BCIO:050408</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2450,7 +2415,7 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>alcohol consumption</t>
+          <t>participating in occupational therapy</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2458,7 +2423,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves drinking an alcohol-containing product.</t>
+          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -2470,80 +2435,65 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:050412</t>
+          <t>BCIO:050409</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>medication-taking</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>participating in speech and language therapy</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
+          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>pharmacological consumption</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:050415</t>
+          <t>BCIO:050405</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>self-injecting consumption</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>participating in physical therapy</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
+          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:050393</t>
+          <t>BCIO:050406</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -2552,7 +2502,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>intravenous self-injecting</t>
+          <t>participating in psychological treatment</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2560,7 +2510,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
+          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -2572,24 +2522,24 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:050394</t>
+          <t>BCIO:050407</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>inhaling consumption</t>
-        </is>
-      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>participating in creative arts therapy</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
+          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -2601,7 +2551,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:050801</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -2610,7 +2560,7 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>vaping device use</t>
+          <t>adherence to healthcare treatment</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2618,7 +2568,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+          <t>Participating in healthcare treatment in accordance with treatment instructions.</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -2630,24 +2580,24 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:050378</t>
+          <t>BCIO:050400</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>arranging a healthcare service appointment</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>electronic vaping device use</t>
-        </is>
-      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
+          <t>Utilising healthcare that involves scheduling a time to interact with a person or organisation providing healthcare.</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -2659,58 +2609,58 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:050377</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>undergoing vaccination</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>e-cigarette use</t>
-        </is>
-      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using an e-cigarette.</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:050395</t>
+          <t>BCIO:050438</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>life function-related behaviour</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>sniffing consumption</t>
-        </is>
-      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
+          <t>An individual human behaviour related to vital bodily functions.</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -2722,24 +2672,29 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:036056</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>transdermal consumption</t>
-        </is>
-      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>reproductive behaviour</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -2751,24 +2706,24 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:050417</t>
+          <t>BCIO:036054</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>oral consumption</t>
-        </is>
-      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>excretion behaviour</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
+          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -2780,24 +2735,24 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:050423</t>
+          <t>BCIO:036057</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>breathing behaviour</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>eating</t>
-        </is>
-      </c>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Oral consumption behaviour that involves chewing and swallowing some solid components</t>
+          <t>A life function-related behaviour involves providing an appropriate level of oxygenation to body tissues.</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -2809,24 +2764,29 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:050422</t>
+          <t>BCIO:036024</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>personal bodily care behaviour</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>drinking</t>
-        </is>
-      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Oral consumption behaviour that involves swallowing a liquid material.</t>
+          <t>An individual human behaviour that attends to one’s own hygiene, comfort or appearance.</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -2838,14 +2798,14 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:036007</t>
+          <t>BCIO:050411</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>environmental system management behaviour</t>
+          <t>sun protective behaviour</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -2855,46 +2815,41 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
+          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Behaviour that involves changing the physical or social environment.</t>
+          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:050816</t>
+          <t>BCIO:050371</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>environmental sustainability behaviour</t>
-        </is>
-      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>dressing behaviour</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>An environmental system management behaviour that contributes to sustaining the ecosystem.</t>
+          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -2906,58 +2861,53 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:036005</t>
+          <t>BCIO:050368</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>object management behaviour</t>
-        </is>
-      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>bodily hygiene behaviour</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
+          <t>A personal bodily care behaviour that attends to hygiene by cleaning or washing oneself or parts of the body.</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:050818</t>
+          <t>BCIO:050370</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>goal-directed behaviour</t>
-        </is>
-      </c>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>dental hygiene behaviour</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>An individual human behaviour that has a behavioural goal.</t>
+          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -2969,48 +2919,43 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:050840</t>
+          <t>BCIO:050369</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>threat-reducing behaviour</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>handwashing</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour that has a goal to reduce threat.</t>
+          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>Reducing a threat involves trying to reduce the harm of something that may occur in the future.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:050802</t>
+          <t>BCIO:050372</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>approval seeking behaviour</t>
+          <t>appearance-based bodily behaviour</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -3020,7 +2965,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour whose goal is to obtain the approval of another person.</t>
+          <t>A personal bodily care behaviour that attends to making changes to one's body to achieve a desired appearance.</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -3032,16 +2977,16 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:050920</t>
+          <t>BCIO:050439</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>opportunity-seeking behaviour</t>
-        </is>
-      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>material entity-related behaviour</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
@@ -3049,23 +2994,28 @@
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour whose goal is to search for and find opportunities that help meet needs or support attaining goals.</t>
+          <t>An individual human behaviour that relates to a material entity.</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:036061</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>consumption behaviour</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -3073,7 +3023,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the social environment.</t>
+          <t>A material entity-related behaviour that involves ingesting material into the body.</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -3085,24 +3035,29 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:036089</t>
+          <t>BCIO:050415</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>political behaviour</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>self-injecting consumption</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
+          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -3114,42 +3069,36 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:036035</t>
+          <t>BCIO:050393</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>economic behaviour</t>
-        </is>
-      </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>intravenous self-injecting</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
+          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
-The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:050829</t>
+          <t>BCIO:050417</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -3157,7 +3106,7 @@
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>purchasing behaviour</t>
+          <t>oral consumption</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -3166,7 +3115,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>An economic behaviour in which the person gives money in exchange for a service or ownership of a product.</t>
+          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -3178,58 +3127,53 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:036110</t>
+          <t>BCIO:050422</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>employment behaviour</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>drinking</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
+          <t>Oral consumption behaviour that involves swallowing a liquid material.</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:050837</t>
+          <t>BCIO:050423</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>selling behaviour</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>eating</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>An economic behaviour in which the person provides a service or ownership of a product in exchange for money.</t>
+          <t>Oral consumption behaviour that involves chewing and swallowing some solid components</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -3241,48 +3185,53 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:006095</t>
+          <t>BCIO:050394</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>normative behaviour</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>A &lt;socially-related behaviour&gt; that is commonly enacted by people that are part of a social environmental system.</t>
+          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:036066</t>
+          <t>BCIO:050395</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>pro-social behaviour</t>
-        </is>
-      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>sniffing consumption</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
+          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -3294,59 +3243,53 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:036011</t>
+          <t>BCIO:050379</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>social organisation behaviour</t>
-        </is>
-      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>vaping device use</t>
+        </is>
+      </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
-'social structure' can relate to a social network or group.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:036084</t>
+          <t>BCIO:050378</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>association behaviour</t>
-        </is>
-      </c>
+      <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>electronic vaping device use</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>A social organisation behaviour that involves increasing a sense of being part of a social group or dyad.</t>
+          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -3358,24 +3301,29 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:050803</t>
+          <t>BCIO:050377</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>association behaviour with a pro-social group</t>
-        </is>
-      </c>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>e-cigarette use</t>
+        </is>
+      </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>An association behaviour that involves increasing a sense of being part of a pro-social group.</t>
+          <t>Inhaling consumption that involves using an e-cigarette.</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -3387,53 +3335,63 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:036072</t>
+          <t>BCIO:036113</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>antisocial behaviour</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>substance use behaviour</t>
+        </is>
+      </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to be is contrary to the laws or accepted current norms of social conduct within a specific social context and causes annoyance and or disapproval in others.</t>
+          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Substance use behaviour is not equated with substance abuse.</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>substance use</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:050810</t>
+          <t>BCIO:050376</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>criminal behaviour</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>alcohol consumption</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>An antisocial behaviour that is illegal in a jurisdiction.</t>
+          <t>A substance use behaviour that involves drinking an alcohol-containing product.</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -3445,82 +3403,92 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>inter-personal behaviour</t>
-        </is>
-      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>tobacco use behaviour</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:006099</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>social influence behaviour</t>
-        </is>
-      </c>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>tobacco smoking behaviour</t>
+        </is>
+      </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>smoking</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:050836</t>
+          <t>BCIO:036105</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>rewarding behaviour</t>
-        </is>
-      </c>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>cigarette smoking behaviour</t>
+        </is>
+      </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>A social influence behaviour in which the person provides a positive stimulus contingent on another person’s behaviour.</t>
+          <t>A tobacco smoking behaviour that involves setting light to one end of a cigarette, putting the other end to the lips and sucking in order to ingest cigarette smoke.</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -3532,7 +3500,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:036036</t>
+          <t>BCIO:050412</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
@@ -3540,7 +3508,7 @@
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>physical combat behaviour</t>
+          <t>medication-taking</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -3549,7 +3517,12 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
+          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -3559,14 +3532,14 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
+          <t>pharmacological consumption</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:050672</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -3574,7 +3547,7 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>group facilitation behaviour</t>
+          <t>transdermal consumption</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -3583,31 +3556,41 @@
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>An &lt;inter-personal behaviour&gt; of a member of a social group that promotes engagement of members of the group in group behaviours.</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:050397</t>
+          <t>BCIO:036027</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>social support behaviour</t>
-        </is>
-      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
+          <t>A material-entity related behaviour that uses a non-living object.</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -3619,24 +3602,24 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:036033</t>
+          <t>BCIO:050427</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>care-giving behaviour</t>
-        </is>
-      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>audio presentation listening behaviour</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t>A social support behaviour that involves meeting another person’s physical, psychological or social needs that this person is unable to fully meet themselves at a given moment.</t>
+          <t>An object-using  behaviour that involves attending to audiomaterial.</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -3648,42 +3631,36 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:036086</t>
+          <t>BCIO:050420</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>nurture behaviour</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>digital interaction behaviour</t>
+        </is>
+      </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
+          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:050826</t>
+          <t>BCIO:036063</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
@@ -3691,7 +3668,7 @@
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>parenting behaviour</t>
+          <t>reading behaviour</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
@@ -3700,7 +3677,7 @@
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Nurture behaviour that is provided to a young person by someone in a parent role.</t>
+          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -3712,24 +3689,24 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:050819</t>
+          <t>BCIO:036062</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>harm preventing behaviour</t>
-        </is>
-      </c>
+      <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>manufacturing behaviour</t>
+        </is>
+      </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
-          <t>An individual human behaviour that has an outcome to prevent harm.</t>
+          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -3741,24 +3718,24 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:036075</t>
+          <t>BCIO:050418</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>harmful behaviour</t>
-        </is>
-      </c>
+      <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>watching behaviour</t>
+        </is>
+      </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>An individual human behaviour that causes net harm.</t>
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -3770,14 +3747,14 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:050398</t>
+          <t>BCIO:050426</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>harmful behaviour to others</t>
+          <t>physical contact behaviour</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -3787,25 +3764,19 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning.</t>
+          <t>A material-entity related behaviour that makes physical contact with something.</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:036037</t>
+          <t>BCIO:036028</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -3813,7 +3784,7 @@
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>harassment behaviour</t>
+          <t>physical impact behaviour</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -3822,7 +3793,7 @@
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
+          <t>A physical contact behaviour that is forceful.</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -3834,24 +3805,29 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:036032</t>
+          <t>BCIO:036007</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>environmental system management behaviour</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>bullying behaviour</t>
-        </is>
-      </c>
+      <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>A harassment behaviour that involves targeting someone through deliberate misuse of power in a relationship to inflict physical, social or psychological harm.</t>
+          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -3859,93 +3835,88 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>While bullying behaviours can be directed at anyone, they are often aimed at certain people because of their race, religion, gender or sexual orientation or any other aspect such as appearance or disability (https://www.ncab.org.au/bullying-advice/bullying-for-parents/definition-of-bullying/).</t>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>Behaviour that involves changing the physical or social environment.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:036014</t>
+          <t>BCIO:050816</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>self-injury behaviour</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>environmental sustainability behaviour</t>
+        </is>
+      </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
+          <t>An environmental system management behaviour that contributes to sustaining the ecosystem.</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:036024</t>
+          <t>BCIO:036005</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>personal bodily care behaviour</t>
-        </is>
-      </c>
+      <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>object management behaviour</t>
+        </is>
+      </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>An individual human behaviour that attends to one’s own hygiene, comfort or appearance.</t>
+          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:050371</t>
+          <t>BCIO:050846</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>dressing behaviour</t>
-        </is>
-      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>behavioural substitution</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
@@ -3953,7 +3924,7 @@
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
+          <t>An &lt;individual human behaviour&gt; in which a person substitutes a more desired behaviour for a less desired behaviour.</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -3965,16 +3936,16 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:050411</t>
+          <t>BCIO:006158</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>sun protective behaviour</t>
-        </is>
-      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>habitual behaviour</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
@@ -3982,33 +3953,23 @@
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
+          <t>An &lt;individual human behaviour&gt; that results from a learnt stimulus-behaviour co-occurrence.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:050368</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>bodily hygiene behaviour</t>
-        </is>
-      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
@@ -4016,7 +3977,7 @@
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that attends to hygiene by cleaning or washing oneself or parts of the body.</t>
+          <t>An individual human behaviour that relates to the social environment.</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -4028,24 +3989,24 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:050369</t>
+          <t>BCIO:036089</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>handwashing</t>
-        </is>
-      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>political behaviour</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
+          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -4057,24 +4018,30 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:050370</t>
+          <t>BCIO:036035</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>dental hygiene behaviour</t>
-        </is>
-      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>economic behaviour</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
+          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
+The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -4086,24 +4053,29 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:050372</t>
+          <t>BCIO:036110</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>appearance-based bodily behaviour</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>employment behaviour</t>
+        </is>
+      </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that attends to making changes to one's body to achieve a desired appearance.</t>
+          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -4115,24 +4087,24 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:050440</t>
+          <t>BCIO:050837</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>selling behaviour</t>
+        </is>
+      </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
+          <t>An economic behaviour in which the person provides a service or ownership of a product in exchange for money.</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -4144,24 +4116,24 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:036029</t>
+          <t>BCIO:050829</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>posture behaviour</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>purchasing behaviour</t>
+        </is>
+      </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
+          <t>An economic behaviour in which the person gives money in exchange for a service or ownership of a product.</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -4173,58 +4145,48 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:050460</t>
+          <t>BCIO:006095</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>postural expressive behaviour</t>
-        </is>
-      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>normative behaviour</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>A posture behaviour that is expressive.</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
+          <t>A &lt;socially-related behaviour&gt; that is commonly enacted by people that are part of a social environmental system.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:036067</t>
+          <t>BCIO:036066</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>lying down</t>
-        </is>
-      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>pro-social behaviour</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
+          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -4236,24 +4198,24 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:036070</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>standing</t>
-        </is>
-      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>inter-personal behaviour</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -4265,7 +4227,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:036069</t>
+          <t>BCIO:036036</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -4273,7 +4235,7 @@
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>sitting</t>
+          <t>physical combat behaviour</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
@@ -4282,7 +4244,12 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
+          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -4294,7 +4261,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:036068</t>
+          <t>BCIO:006099</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
@@ -4302,7 +4269,7 @@
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>reclining</t>
+          <t>social influence behaviour</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
@@ -4311,7 +4278,7 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
+          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -4323,24 +4290,24 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:036026</t>
+          <t>BCIO:050836</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>locomotive behaviour</t>
-        </is>
-      </c>
+      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>rewarding behaviour</t>
+        </is>
+      </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
+          <t>A social influence behaviour in which the person provides a positive stimulus contingent on another person’s behaviour.</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -4352,7 +4319,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>BCIO:050397</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
@@ -4360,7 +4327,7 @@
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t>social support behaviour</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
@@ -4369,7 +4336,7 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -4381,42 +4348,36 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:036033</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>travel behaviour</t>
-        </is>
-      </c>
+      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>care-giving behaviour</t>
+        </is>
+      </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
+          <t>A social support behaviour that involves meeting another person’s physical, psychological or social needs that this person is unable to fully meet themselves at a given moment.</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:050672</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -4424,7 +4385,7 @@
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>transporting behaviour</t>
+          <t>group facilitation behaviour</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
@@ -4433,28 +4394,23 @@
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An &lt;inter-personal behaviour&gt; of a member of a social group that promotes engagement of members of the group in group behaviours.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:050812</t>
+          <t>BCIO:036072</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>domestic behaviour</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>antisocial behaviour</t>
+        </is>
+      </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -4462,7 +4418,7 @@
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr">
         <is>
-          <t>An individual human behaviour within a residential facility.</t>
+          <t>A socially-related behaviour that a population judges to be is contrary to the laws or accepted current norms of social conduct within a specific social context and causes annoyance and or disapproval in others.</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -4474,24 +4430,24 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:050437</t>
+          <t>BCIO:050810</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>health-related behaviour</t>
-        </is>
-      </c>
+      <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>criminal behaviour</t>
+        </is>
+      </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to health of oneself or others.</t>
+          <t>An antisocial behaviour that is illegal in a jurisdiction.</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -4503,14 +4459,14 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:050399</t>
+          <t>BCIO:036011</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>utilising healthcare</t>
+          <t>social organisation behaviour</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -4520,24 +4476,25 @@
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
+          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
+'social structure' can relate to a social network or group.</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:050404</t>
+          <t>BCIO:036084</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
@@ -4545,7 +4502,7 @@
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>participating in healthcare treatment</t>
+          <t>association behaviour</t>
         </is>
       </c>
       <c r="F133" t="inlineStr"/>
@@ -4554,7 +4511,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves engaging with a treatment regimen to improve or maintain aspects of one's health or wellbeing.</t>
+          <t>A social organisation behaviour that involves increasing a sense of being part of a social group or dyad.</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -4566,7 +4523,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:050405</t>
+          <t>BCIO:050803</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -4575,7 +4532,7 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>participating in physical therapy</t>
+          <t>association behaviour with a pro-social group</t>
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
@@ -4583,7 +4540,7 @@
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>An association behaviour that involves increasing a sense of being part of a pro-social group.</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -4595,24 +4552,30 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:050408</t>
+          <t>BCIO:036086</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>nurture behaviour</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>participating in occupational therapy</t>
-        </is>
-      </c>
+      <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>The term 'animal' in the definition includes humans and other animals.
+There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -4624,24 +4587,24 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:050409</t>
+          <t>BCIO:050826</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>participating in speech and language therapy</t>
-        </is>
-      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>parenting behaviour</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>Nurture behaviour that is provided to a young person by someone in a parent role.</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -4653,24 +4616,24 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:050801</t>
+          <t>BCIO:050440</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr"/>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>adherence to healthcare treatment</t>
-        </is>
-      </c>
+      <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment in accordance with treatment instructions.</t>
+          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -4682,24 +4645,30 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:050406</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>travel behaviour</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>participating in psychological treatment</t>
-        </is>
-      </c>
+      <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -4711,24 +4680,24 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:050407</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>transporting behaviour</t>
+        </is>
+      </c>
       <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>participating in creative arts therapy</t>
-        </is>
-      </c>
+      <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -4740,58 +4709,53 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:050401</t>
+          <t>BCIO:036026</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>participating in healthcare testing</t>
-        </is>
-      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>locomotive behaviour</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
+          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:050402</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>participating in health screening</t>
-        </is>
-      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -4803,41 +4767,36 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:036029</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>undergoing vaccination</t>
-        </is>
-      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>posture behaviour</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:050400</t>
+          <t>BCIO:036070</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
@@ -4845,7 +4804,7 @@
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>arranging a healthcare service appointment</t>
+          <t>standing</t>
         </is>
       </c>
       <c r="F143" t="inlineStr"/>
@@ -4854,7 +4813,7 @@
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves scheduling a time to interact with a person or organisation providing healthcare.</t>
+          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -4866,24 +4825,24 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:036067</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>physical performance behaviour</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>lying down</t>
+        </is>
+      </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -4895,24 +4854,24 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BCIO:050413</t>
+          <t>BCIO:036068</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>providing healthcare</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>reclining</t>
+        </is>
+      </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -4924,7 +4883,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BCIO:050359</t>
+          <t>BCIO:050460</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
@@ -4932,7 +4891,7 @@
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>administering vaccine</t>
+          <t>postural expressive behaviour</t>
         </is>
       </c>
       <c r="F146" t="inlineStr"/>
@@ -4941,24 +4900,24 @@
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A posture behaviour that is expressive.</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>Vaccination is defined as “a medical intervention that involves adding a vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BCIO:050361</t>
+          <t>BCIO:036069</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
@@ -4966,7 +4925,7 @@
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>making a referral to another health care service</t>
+          <t>sitting</t>
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
@@ -4975,7 +4934,7 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -4987,24 +4946,24 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BCIO:050360</t>
+          <t>BCIO:050819</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
-      <c r="C148" t="inlineStr"/>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>harm preventing behaviour</t>
+        </is>
+      </c>
       <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>providing healthcare advice</t>
-        </is>
-      </c>
+      <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
+          <t>An individual human behaviour that has an outcome to prevent harm.</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -5016,24 +4975,24 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BCIO:050352</t>
+          <t>BCIO:050832</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr"/>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>reflective behaviour</t>
+        </is>
+      </c>
       <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>providing healthcare testing</t>
-        </is>
-      </c>
+      <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
+          <t>An individual human behaviour that is caused by a reflective mental process.</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -5045,24 +5004,24 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BCIO:050353</t>
+          <t>BCIO:050818</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
-      <c r="C150" t="inlineStr"/>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>goal-directed behaviour</t>
+        </is>
+      </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>providing health screening</t>
-        </is>
-      </c>
+      <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
+          <t>An individual human behaviour that has a behavioural goal.</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -5074,24 +5033,29 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BCIO:050362</t>
+          <t>BCIO:050840</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>providing healthcare treatment</t>
-        </is>
-      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>threat-reducing behaviour</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
+          <t>A goal-directed behaviour that has a goal to reduce threat.</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>Reducing a threat involves trying to reduce the harm of something that may occur in the future.</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -5103,24 +5067,24 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BCIO:050366</t>
+          <t>BCIO:050802</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>approval seeking behaviour</t>
+        </is>
+      </c>
       <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>providing occupational therapy</t>
-        </is>
-      </c>
+      <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+          <t>A goal-directed behaviour whose goal is to obtain the approval of another person.</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -5132,53 +5096,48 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BCIO:050364</t>
+          <t>BCIO:050920</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>opportunity-seeking behaviour</t>
+        </is>
+      </c>
       <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>providing psychological treatment</t>
-        </is>
-      </c>
+      <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
-        </is>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A goal-directed behaviour whose goal is to search for and find opportunities that help meet needs or support attaining goals.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BCIO:050365</t>
+          <t>BCIO:050443</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
-      <c r="C154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>providing creative arts therapy</t>
-        </is>
-      </c>
+      <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Providing psychological treatment that involves creative and expressive processes.</t>
+          <t>An &lt;individual human behaviour&gt; that relates to something the person experiences.</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -5190,24 +5149,24 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BCIO:050367</t>
+          <t>BCIO:036073</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>avoidance behaviour</t>
+        </is>
+      </c>
       <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>providing speech and language therapy</t>
-        </is>
-      </c>
+      <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+          <t>An experience-related behaviour that involves taking defensive action in order to avoid some stimulus judged to be aversive by the person.</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -5219,24 +5178,24 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BCIO:050363</t>
+          <t>BCIO:036112</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>spiritual behaviour</t>
+        </is>
+      </c>
       <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>providing physical therapy</t>
-        </is>
-      </c>
+      <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
+          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -5248,24 +5207,24 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BCIO:050358</t>
+          <t>BCIO:050841</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>reviewing prescribed medication</t>
-        </is>
-      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>approach behaviour</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
+          <t>An experience-related behaviour that involves taking action to engage with some stimulus that is judged to be rewarding by the person.</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -5277,41 +5236,41 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BCIO:050414</t>
+          <t>BCIO:050834</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>diagnostic healthcare behaviour</t>
-        </is>
-      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>regulatory behaviour</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
+          <t>An experience-related behaviour that involves monitoring and acting upon some parts of the person or their environment.</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>Environment here includes the social and physical environment and includes behaviours involved in monitoring of others or self, action planning, and goal setting.</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BCIO:050354</t>
+          <t>BCIO:050811</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -5319,7 +5278,7 @@
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>prescribing behaviour</t>
+          <t>cue management behaviour</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
@@ -5328,7 +5287,7 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
+          <t>A regulatory behaviour in which cues that prompt a behaviour pattern are added, altered or removed.</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -5340,59 +5299,58 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>BCIO:050355</t>
+          <t>BCIO:036030</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>sexual behaviour</t>
+        </is>
+      </c>
       <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>prescribing medication</t>
-        </is>
-      </c>
+      <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
+          <t>An experience-related behaviour that involves sexual arousal.</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
-Prescribing medication can include advising and authorising to stop using a medicine.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>BCIO:050357</t>
+          <t>BCIO:036008</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr"/>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>learning behaviour</t>
+        </is>
+      </c>
       <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>social prescribing</t>
-        </is>
-      </c>
+      <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
+          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -5404,87 +5362,92 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>BCIO:050356</t>
+          <t>BCIO:050291</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>prescribing behavioural regime</t>
-        </is>
-      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>knowledge development behaviour</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
+          <t>A learning behaviour that involves improving a person's knowledge.</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>information acquisition behaviour; knowledge seeking behaviour</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>BCIO:050821</t>
+          <t>BCIO:050825</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>health-promoting behaviour</t>
-        </is>
-      </c>
+      <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>monitoring behaviour</t>
+        </is>
+      </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>A health-related behaviour that improves the person’s health.</t>
+          <t>A knowledge development behaviour that involves gathering information over a period of time.</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>This is often used in relation to regulatory behaviour, either oneself or others. 'Monitoring behaviour' has part 'regulatory behaviour'</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>This class is for behaviour that promote positive health as well as protect against threats to health.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BCIO:050410</t>
+          <t>BCIO:050807</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>self-monitoring an aspect of health</t>
-        </is>
-      </c>
+      <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>carer monitoring of child behaviour</t>
+        </is>
+      </c>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
+          <t>A monitoring behaviour in which a carer gathers information about the activities of some child in their care.</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -5496,24 +5459,24 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
+          <t>BCIO:050824</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
+      <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>knowledge acquisition about reducing harmful behaviours</t>
+        </is>
+      </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
+          <t>A knowledge development behaviour where the knowledge is about how to reduce or avoid a harmful behaviour.</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -5525,24 +5488,24 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>BCIO:050442</t>
+          <t>BCIO:036039</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>vocalisation behaviour</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>skill development behaviour</t>
+        </is>
+      </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving vibration of the vocal chords.</t>
+          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -5554,24 +5517,24 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>BCIO:050461</t>
+          <t>BCIO:050421</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>talking</t>
-        </is>
-      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>distress minimisation behaviour</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
-          <t>A vocalisation behaviour that expresses something using words.</t>
+          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -5581,21 +5544,21 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
+          <t>distress minimization behaviour</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BCIO:050458</t>
+          <t>BCIO:050813</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>facial expression behaviour</t>
+          <t>emotional behaviour</t>
         </is>
       </c>
       <c r="E168" t="inlineStr"/>
@@ -5605,36 +5568,26 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the muscles of the face.</t>
+          <t>An experience-related behaviour that is caused by an emotion process.</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>If facial expression behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using facial expression’ (BCIO:050425).</t>
-        </is>
-      </c>
-      <c r="P168" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/MFOEM_000125</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>BCIO:050456</t>
+          <t>BCIO:036041</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
-          <t>crying</t>
+          <t>mind-body behaviour</t>
         </is>
       </c>
       <c r="E169" t="inlineStr"/>
@@ -5644,31 +5597,26 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves tears, and facial expressions of distress.</t>
+          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="P169" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/GO_0060273</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:036047</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>enjoyment behaviour</t>
         </is>
       </c>
       <c r="E170" t="inlineStr"/>
@@ -5678,7 +5626,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
@@ -5690,24 +5638,24 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>BCIO:050238</t>
+          <t>BCIO:036075</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
-      <c r="C171" t="inlineStr"/>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>harmful behaviour</t>
+        </is>
+      </c>
       <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+          <t>An individual human behaviour that causes net harm.</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -5719,24 +5667,30 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BCIO:050373</t>
+          <t>BCIO:050398</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr"/>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>harmful behaviour to others</t>
+        </is>
+      </c>
       <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using vocalisations</t>
-        </is>
-      </c>
+      <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
+          <t>A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning.</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>The term 'animal' in the definition includes humans and other animals.
+‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -5748,24 +5702,24 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>BCIO:050424</t>
+          <t>BCIO:036037</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using body language</t>
-        </is>
-      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>harassment behaviour</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
+          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -5777,58 +5731,63 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>BCIO:036002</t>
+          <t>BCIO:036032</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using gesture</t>
-        </is>
-      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>bullying behaviour</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
+          <t>A harassment behaviour that involves targeting someone through deliberate misuse of power in a relationship to inflict physical, social or psychological harm.</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>While bullying behaviours can be directed at anyone, they are often aimed at certain people because of their race, religion, gender or sexual orientation or any other aspect such as appearance or disability (https://www.ncab.org.au/bullying-advice/bullying-for-parents/definition-of-bullying/).</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N174" t="inlineStr">
-        <is>
-          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>BCIO:050425</t>
+          <t>BCIO:036014</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>self-injury behaviour</t>
+        </is>
+      </c>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using facial expression</t>
-        </is>
-      </c>
+      <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings.</t>
+          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -5840,24 +5799,24 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>BCIO:050375</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr"/>
+          <t>BCIO:050839</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>task complexity</t>
+        </is>
+      </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using eye contact</t>
-        </is>
-      </c>
+      <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
+          <t>A process attribute that is the complexity of thought or behaviour required to achieve a goal.</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -5869,45 +5828,50 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr"/>
+          <t>BCIO:050435</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr"/>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>A process attribute of an individual human behaviour.</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>An attribute of a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>BCIO:050815</t>
+          <t>BCIO:050430</t>
         </is>
       </c>
       <c r="B178" t="inlineStr"/>
-      <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>emotionally expressive behaviour</t>
-        </is>
-      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>behavioural form</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
@@ -5915,28 +5879,33 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>An expressive behaviour that conveys some emotion.</t>
+          <t>A behavioural attribute that is the physical way in which a behaviour is enacted.</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The way in which the behaviour is performed, including the shape of one’s muscles and skeletal alignment during the behaviour. </t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
+          <t>BCIO:050822</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
-      <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>laughing</t>
-        </is>
-      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>identity congruence</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
@@ -5944,7 +5913,7 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+          <t>A behavioural attribute that is the extent to which one’s behaviour is believed to be consistent with one’s core, positive self-identity.</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -5956,16 +5925,16 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>BCIO:036021</t>
+          <t>BCIO:050902</t>
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>creative expressive behaviour</t>
-        </is>
-      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>behavioural ease</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
@@ -5973,33 +5942,28 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
+          <t>A behavioural attribute that is the level of convenience, ease or comfort of a behaviour.</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N180" t="inlineStr">
-        <is>
-          <t>An aspect of the environment includes both objects within it but also processes (e.g., music performance or dancing).</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>BCIO:050459</t>
+          <t>BCIO:050431</t>
         </is>
       </c>
       <c r="B181" t="inlineStr"/>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>gesticulatory expressive behaviour</t>
-        </is>
-      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
@@ -6007,7 +5971,7 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving a movement of the limbs, head or torso.</t>
+          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -6015,25 +5979,25 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N181" t="inlineStr">
-        <is>
-          <t>If the gesticulatory behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using gesture’ (BCIO:036002).</t>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>The mental effort required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>BCIO:006158</t>
+          <t>BCIO:050433</t>
         </is>
       </c>
       <c r="B182" t="inlineStr"/>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>habitual behaviour</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
@@ -6041,31 +6005,46 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that results from a learnt stimulus-behaviour co-occurrence.</t>
+          <t>Mental exertion expended on a behaviour where the exertion involves cognitive processes.</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>The effort relating to thinking required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>BCIO:050832</t>
+          <t>BCIO:050462</t>
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>reflective behaviour</t>
-        </is>
-      </c>
+      <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>high cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr">
         <is>
-          <t>An individual human behaviour that is caused by a reflective mental process.</t>
+          <t>Cognitive exertion expended on a behaviour that is high.</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
@@ -6077,24 +6056,29 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>BCIO:050438</t>
+          <t>BCIO:050470</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>life function-related behaviour</t>
-        </is>
-      </c>
+      <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>moderate cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>An individual human behaviour related to vital bodily functions.</t>
+          <t>Cognitive exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -6106,24 +6090,29 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>BCIO:036057</t>
+          <t>BCIO:050466</t>
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>breathing behaviour</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>low cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr">
         <is>
-          <t>A life function-related behaviour involves providing an appropriate level of oxygenation to body tissues.</t>
+          <t>Cognitive exertion expended on a behaviour that is low.</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -6135,14 +6124,14 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>BCIO:036056</t>
+          <t>BCIO:050472</t>
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
-          <t>reproductive behaviour</t>
+          <t>moderate mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E186" t="inlineStr"/>
@@ -6152,31 +6141,31 @@
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
+          <t>Mental exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N186" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>BCIO:036054</t>
+          <t>BCIO:050468</t>
         </is>
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr">
         <is>
-          <t>excretion behaviour</t>
+          <t>low mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E187" t="inlineStr"/>
@@ -6186,7 +6175,12 @@
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
+          <t>Mental exertion expended on a behaviour that is low.</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -6198,16 +6192,16 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>BFO:0000034</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>function</t>
-        </is>
-      </c>
+          <t>BCIO:050464</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
       <c r="C188" t="inlineStr"/>
-      <c r="D188" t="inlineStr"/>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>high mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
@@ -6215,7 +6209,12 @@
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
+          <t>Mental exertion expended on a behaviour that is high.</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -6227,16 +6226,16 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>BCIO:036001</t>
+          <t>BCIO:050434</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>human life function</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
@@ -6244,7 +6243,7 @@
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
+          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -6252,39 +6251,38 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N189" t="inlineStr">
-        <is>
-          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
-The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>BCIO:050416</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>behavioural disposition</t>
-        </is>
-      </c>
+          <t>BCIO:050463</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr"/>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>high emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>A bodily disposition that is realised as some behaviour.</t>
+          <t>Emotional management exertion expended on a behaviour that is high.</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>A tendency to behave in a particular way.</t>
+          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -6296,29 +6294,29 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>BCIO:036107</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
+          <t>BCIO:050471</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr"/>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>moderate emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
+          <t>Emotional management exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Processes that repeat over time.</t>
+          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -6330,29 +6328,29 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:050467</t>
         </is>
       </c>
       <c r="B192" t="inlineStr"/>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
+      <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>low emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
+          <t>Emotional management exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Several processes of the same type repeated over time.</t>
+          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
@@ -6364,16 +6362,16 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>BCIO:050448</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>population behaviour pattern</t>
-        </is>
-      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
@@ -6381,26 +6379,31 @@
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr">
         <is>
-          <t>A uniform process aggregate whose members are individual behaviour patterns of a population.</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>The physical effort required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>BCIO:036100</t>
+          <t>BCIO:050473</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
         <is>
-          <t>individual human behaviour pattern</t>
+          <t>moderate physical exertion expended on behaviour</t>
         </is>
       </c>
       <c r="E194" t="inlineStr"/>
@@ -6410,52 +6413,46 @@
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>A uniform process aggregate whose member parts are behaviours of the same type and in the same person.</t>
+          <t>Physical exertion expended on a behaviour that is medium.</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Individual human behaviours of the same type repeated over time.</t>
+          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N194" t="inlineStr">
-        <is>
-          <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
-This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
-        </is>
-      </c>
-      <c r="O194" t="inlineStr">
-        <is>
-          <t>behaviour pattern</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>BCIO:050210</t>
+          <t>BCIO:050465</t>
         </is>
       </c>
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>consumption behaviour pattern</t>
-        </is>
-      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>high physical exertion expended on behaviour</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>An individual human behaviour pattern that involves consumption behaviour.</t>
+          <t>Physical exertion expended on a behaviour that is high</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
@@ -6467,24 +6464,29 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>BCIO:050211</t>
+          <t>BCIO:050469</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr"/>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>low physical exertion expended on behaviour</t>
+        </is>
+      </c>
       <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>substance use behaviour pattern</t>
-        </is>
-      </c>
+      <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
+          <t>Physical exertion expended on a behaviour that is low.</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
@@ -6496,111 +6498,126 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:050814</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
-      <c r="C197" t="inlineStr"/>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>emotionally driven</t>
+        </is>
+      </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour pattern</t>
-        </is>
-      </c>
+      <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
+          <t>A behavioural attribute in which the behaviour is caused by an emotion process.</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O197" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:050444</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
-      <c r="C198" t="inlineStr"/>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>behavioural reflectiveness</t>
+        </is>
+      </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour pattern</t>
-        </is>
-      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+          <t>A behavioural attribute that is the degree to which the behaviour is under the control of reflective motivation.</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>BCIO:036106</t>
+          <t>BCIO:050833</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
       <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>reflectively controlled</t>
+        </is>
+      </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>cigarette smoking behaviour pattern</t>
-        </is>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr">
         <is>
-          <t>A tobacco smoking behaviour pattern that involves cigarette smoking behaviour.</t>
+          <t>Behavioural reflectiveness in which the behaviour is predominantly controlled by reflective motivation.</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>BCIO:050805</t>
+          <t>BCIO:050447</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
-      <c r="C200" t="inlineStr"/>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>intentionality</t>
+        </is>
+      </c>
       <c r="D200" t="inlineStr"/>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>behaviour pattern maintenance</t>
-        </is>
-      </c>
+      <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr">
         <is>
-          <t>An individual human behaviour pattern that is continued.</t>
+          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -6608,22 +6625,22 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N200" t="inlineStr">
-        <is>
-          <t>Behaviour is continued even if there are historical or current barriers to doing so.</t>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>BCIO:050804</t>
+          <t>BCIO:036076</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="inlineStr">
         <is>
-          <t>behaviour chain</t>
+          <t>impulsiveness</t>
         </is>
       </c>
       <c r="D201" t="inlineStr"/>
@@ -6634,7 +6651,12 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>A process aggregate whose members are behaviours causally linked to each other in a sequence.</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
@@ -6642,22 +6664,22 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N201" t="inlineStr">
-        <is>
-          <t>A behaviour chain can involve different behaviours, whereas a behaviour pattern can involve the same behaviour. Patterns are not necessarily causally linked.</t>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted without thinking.</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:050835</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
       <c r="C202" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>response cost</t>
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
@@ -6668,7 +6690,7 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
+          <t>A behavioural attribute that is the time, effort, financial cost, or aversiveness of enacting a behaviour.</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
@@ -6680,16 +6702,16 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>BCIO:050808</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr"/>
+          <t>BCIO:050429</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>number of behavioural occurrences</t>
+        </is>
+      </c>
       <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>collective behaviour</t>
-        </is>
-      </c>
+      <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
@@ -6697,24 +6719,29 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>A population behaviour that is aimed at achieving a goal shared by members of that population.</t>
+          <t>A data item that is about the number of times a behaviour has occurred.</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>BCIO:050839</t>
+          <t>BCIO:050428</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>task complexity</t>
+          <t>behavioural frequency</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -6726,24 +6753,29 @@
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr">
         <is>
-          <t>A process attribute that is the complexity of thought or behaviour required to achieve a goal.</t>
+          <t>A data item that is about the number of times a behaviour occurs in a time period.</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>The number of times a person performs a behaviour within a specific period.</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>BCIO:050435</t>
+          <t>BCIO:006085</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>behavioural attribute</t>
+          <t>location</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -6755,32 +6787,37 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>A process attribute of an individual human behaviour.</t>
+          <t>A spatial &lt;quality&gt; that inheres in a bearer by virtue of its position relative to other entities.</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>An attribute of a behaviour.</t>
+          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>Where a person, animal or object is.</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>BCIO:050447</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr"/>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>intentionality</t>
-        </is>
-      </c>
+          <t>BCIO:050209</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>individual human behaviour change</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
@@ -6789,12 +6826,12 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
+          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
+          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
@@ -6802,22 +6839,27 @@
           <t>behaviour</t>
         </is>
       </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
+        </is>
+      </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
+          <t>behaviour change</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>BCIO:050822</t>
+          <t>BCIO:050575</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="inlineStr">
         <is>
-          <t>identity congruence</t>
+          <t>behaviour change through group norm</t>
         </is>
       </c>
       <c r="D207" t="inlineStr"/>
@@ -6828,7 +6870,7 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the extent to which one’s behaviour is believed to be consistent with one’s core, positive self-identity.</t>
+          <t>An &lt;individual human behaviour change&gt; resulting from exposure to a group behavioural norm.</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
@@ -6840,13 +6882,13 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>BCIO:050902</t>
+          <t>BCIO:050207</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
       <c r="C208" t="inlineStr">
         <is>
-          <t>behavioural ease</t>
+          <t>individual human behaviour pattern cessation</t>
         </is>
       </c>
       <c r="D208" t="inlineStr"/>
@@ -6857,28 +6899,38 @@
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of convenience, ease or comfort of a behaviour.</t>
+          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>behavioural cessation; cessation of a behaviour pattern</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>BCIO:036076</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>impulsiveness</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr"/>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
@@ -6886,12 +6938,13 @@
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>How far a behaviour is enacted without thinking.</t>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
@@ -6899,72 +6952,62 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N209" t="inlineStr">
-        <is>
-          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>BCIO:050444</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>behavioural reflectiveness</t>
-        </is>
-      </c>
+      <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>tobacco smoking cessation</t>
+        </is>
+      </c>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the degree to which the behaviour is under the control of reflective motivation.</t>
-        </is>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N210" t="inlineStr">
-        <is>
-          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>BCIO:050833</t>
+          <t>BCIO:050311</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>reflectively controlled</t>
-        </is>
-      </c>
+      <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>cigarette smoking cessation</t>
+        </is>
+      </c>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Behavioural reflectiveness in which the behaviour is predominantly controlled by reflective motivation.</t>
+          <t>Tobacco smoking cessation in which the form of tobacco smoking is cigarette smoking.</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
@@ -6976,15 +7019,15 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>BCIO:050430</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr"/>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>behavioural form</t>
-        </is>
-      </c>
+          <t>BCIO:050830</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>reducing discomfort</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
@@ -6993,32 +7036,32 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the physical way in which a behaviour is enacted.</t>
-        </is>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The way in which the behaviour is performed, including the shape of one’s muscles and skeletal alignment during the behaviour. </t>
+          <t>A process in which physical or mental uneasiness or distress is reduced.</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>distress minimisation behaviour</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>BCIO:050431</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr"/>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:042000</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
@@ -7027,12 +7070,7 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
-        </is>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>The mental effort required to perform a behaviour.</t>
+          <t>A process that is an individual human behaviour or a population behaviour.</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -7044,16 +7082,16 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>BCIO:050468</t>
+          <t>BCIO:002000</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
-      <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>low mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>behaviour change intervention outcome behaviour</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
@@ -7061,33 +7099,23 @@
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is low.</t>
-        </is>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N214" t="inlineStr">
-        <is>
-          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>Human behaviour that is an intervention outcome.</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>BCIO:050472</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr"/>
+          <t>BCIO:050831</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>reducing harm</t>
+        </is>
+      </c>
       <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>moderate mental exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
@@ -7095,7 +7123,7 @@
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is medium.</t>
+          <t>A process in which damage or injury is reduced.</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -7103,25 +7131,25 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N215" t="inlineStr">
-        <is>
-          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>harmful behaviour</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>BCIO:050433</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr"/>
+          <t>BCIO:050416</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>behavioural disposition</t>
+        </is>
+      </c>
       <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
@@ -7129,41 +7157,41 @@
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour where the exertion involves cognitive processes.</t>
-        </is>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>The effort relating to thinking required to perform a behaviour.</t>
+          <t>A bodily disposition that is realised as some behaviour.</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>A tendency to behave in a particular way.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>BCIO:050466</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr"/>
+          <t>BCIO:036107</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>process aggregate</t>
+        </is>
+      </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr"/>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>low cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is low.</t>
+          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -7171,93 +7199,83 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N217" t="inlineStr">
-        <is>
-          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>Processes that repeat over time.</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>BCIO:050462</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
-      <c r="C218" t="inlineStr"/>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>population behaviour</t>
+        </is>
+      </c>
       <c r="D218" t="inlineStr"/>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>high cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is high.</t>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N218" t="inlineStr">
-        <is>
-          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>BCIO:050470</t>
+          <t>BCIO:050808</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="inlineStr"/>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>moderate cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>collective behaviour</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is medium.</t>
+          <t>A population behaviour that is aimed at achieving a goal shared by members of that population.</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N219" t="inlineStr">
-        <is>
-          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>BCIO:050434</t>
+          <t>BCIO:050804</t>
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
-      <c r="C220" t="inlineStr"/>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>behaviour chain</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
@@ -7265,12 +7283,12 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
+          <t>A process aggregate whose members are behaviours causally linked to each other in a sequence.</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
+          <t>A behaviour chain can involve different behaviours, whereas a behaviour pattern can involve the same behaviour. Patterns are not necessarily causally linked.</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -7282,24 +7300,24 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>BCIO:050467</t>
+          <t>BCIO:050267</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
-      <c r="C221" t="inlineStr"/>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
       <c r="D221" t="inlineStr"/>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>low emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is low.</t>
+          <t>A process aggregate whose member parts are of the same type.</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -7307,67 +7325,68 @@
           <t>behaviour</t>
         </is>
       </c>
-      <c r="N221" t="inlineStr">
-        <is>
-          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>BCIO:050463</t>
+          <t>BCIO:050448</t>
         </is>
       </c>
       <c r="B222" t="inlineStr"/>
       <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>high emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>population behaviour pattern</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is high.</t>
+          <t>A uniform process aggregate whose members are individual behaviour patterns of a population.</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N222" t="inlineStr">
-        <is>
-          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>BCIO:050471</t>
+          <t>BCIO:036100</t>
         </is>
       </c>
       <c r="B223" t="inlineStr"/>
       <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr"/>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>moderate emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is medium.</t>
+          <t>A uniform process aggregate whose member parts are behaviours of the same type and in the same person.</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
+This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -7375,72 +7394,72 @@
           <t>behaviour</t>
         </is>
       </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>Individual human behaviours of the same type repeated over time.</t>
+        </is>
+      </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>behaviour pattern</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>BCIO:050464</t>
+          <t>BCIO:050805</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>high mental exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>behaviour pattern maintenance</t>
+        </is>
+      </c>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is high.</t>
+          <t>An individual human behaviour pattern that is continued.</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>Behaviour is continued even if there are historical or current barriers to doing so.</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N224" t="inlineStr">
-        <is>
-          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>BCIO:050432</t>
+          <t>BCIO:050210</t>
         </is>
       </c>
       <c r="B225" t="inlineStr"/>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr"/>
-      <c r="E225" t="inlineStr"/>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>consumption behaviour pattern</t>
+        </is>
+      </c>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
-        </is>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>The physical effort required to perform a behaviour.</t>
+          <t>An individual human behaviour pattern that involves consumption behaviour.</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -7452,58 +7471,53 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>BCIO:050473</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B226" t="inlineStr"/>
       <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>moderate physical exertion expended on behaviour</t>
-        </is>
-      </c>
+      <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>substance use behaviour pattern</t>
+        </is>
+      </c>
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is medium.</t>
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N226" t="inlineStr">
-        <is>
-          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>BCIO:050469</t>
+          <t>BCIO:036102</t>
         </is>
       </c>
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>low physical exertion expended on behaviour</t>
-        </is>
-      </c>
+      <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is low.</t>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -7513,85 +7527,75 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
+          <t>tobacco use</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>BCIO:050465</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>high physical exertion expended on behaviour</t>
-        </is>
-      </c>
+      <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>tobacco smoking behaviour pattern</t>
+        </is>
+      </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is high</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N228" t="inlineStr">
-        <is>
-          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>BCIO:050814</t>
+          <t>BCIO:036106</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>emotionally driven</t>
-        </is>
-      </c>
+      <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr"/>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>cigarette smoking behaviour pattern</t>
+        </is>
+      </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>A behavioural attribute in which the behaviour is caused by an emotion process.</t>
-        </is>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A tobacco smoking behaviour pattern that involves cigarette smoking behaviour.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>BCIO:050835</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr"/>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>response cost</t>
-        </is>
-      </c>
+          <t>BFO:0000034</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>function</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
@@ -7600,7 +7604,7 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the time, effort, financial cost, or aversiveness of enacting a behaviour.</t>
+          <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
@@ -7612,15 +7616,15 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>BCIO:006085</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr"/>
+          <t>BCIO:036001</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr"/>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>human life function</t>
+        </is>
+      </c>
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr"/>
@@ -7629,22 +7633,18 @@
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr">
         <is>
-          <t>A spatial &lt;quality&gt; that inheres in a bearer by virtue of its position relative to other entities.</t>
+          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Where a person, animal or object is.</t>
+          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
+The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="N231" t="inlineStr">
-        <is>
-          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>

--- a/Behaviour/BCIO-behaviour-hierarchy.xlsx
+++ b/Behaviour/BCIO-behaviour-hierarchy.xlsx
@@ -446,44 +446,44 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Examples</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:050450</t>
+          <t>BCIO:050300</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>abstinence end point</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -495,37 +495,32 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>A temporal region when a person stops abstaining from a behaviour.</t>
+          <t>A specifically dependent continuant that inheres in a person.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>A time point that is the end of an abstinence period.</t>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:050453</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>behaviour end point</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>BCIO:050451</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>abstinence from a behaviour</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -534,34 +529,29 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>A time point that is the end of an individual human behaviour.</t>
+          <t>A personal attribute in which a person does not engage in a behaviour during a time period.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>A temporal region when a behaviour ends.</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Not performing a behaviour for some period of time.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:050454</t>
+          <t>BFO:0000034</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>behaviour starting point</t>
+          <t>function</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -573,37 +563,27 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>A time point that is the start of an individual human behaviour.</t>
+          <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>A temporal region when a behaviour starts.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:050452</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>abstinence start point</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>BCIO:036001</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>human life function</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -612,34 +592,30 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>A time point that is the start of an abstinence period.</t>
+          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>A temporal region when a person starts being abstinent from a behaviour.</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
+The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:050806</t>
+          <t>BCIO:036107</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>behavioural consequence</t>
+          <t>process aggregate</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -651,25 +627,30 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>An entity that is an outcome of behaviour.</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Processes that repeat over time.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:050823</t>
+          <t>BCIO:050267</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>impact of behaviour on environment</t>
+          <t>uniform process aggregate</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -680,28 +661,33 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>A behavioural consequence that involves an outcome relating to the environment system.</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A process aggregate whose member parts are of the same type.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:050828</t>
+          <t>BCIO:036100</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>positive behavioural consequence</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -709,39 +695,55 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>A behavioural consequence that is positively evaluated by an individual or a population.</t>
+          <t>A uniform process aggregate whose member parts are behaviours of the same type and in the same person.</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>behaviour pattern</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
+This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Individual human behaviours of the same type repeated over time.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:050900</t>
+          <t>BCIO:050210</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>social behavioural consequence</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>consumption behaviour pattern</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>A behavioural consequence of a member of the person’s social environmental system.</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
+          <t>An individual human behaviour pattern that involves consumption behaviour.</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -750,27 +752,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:050901</t>
+          <t>BCIO:050211</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>wider community behavioural consequence</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>substance use behaviour pattern</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>A social behavioural consequence that is beyond the person’s family.</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
+          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -779,132 +781,137 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:050899</t>
+          <t>BCIO:036102</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>family behavioural consequence</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>tobacco use behaviour pattern</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>A social behavioural consequence of some family member.</t>
+          <t>A substance use behaviour pattern that involves tobacco use.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>tobacco use</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:050919</t>
+          <t>BCIO:036104</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>negative behavioural consequence</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>tobacco smoking behaviour pattern</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>A behavioural consequence that is negatively evaluated by an individual or a population.</t>
+          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:050820</t>
+          <t>BCIO:036106</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>harm prevention</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>cigarette smoking behaviour pattern</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>A behavioural consequence in which harm is prevented.</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A tobacco smoking behaviour pattern that involves cigarette smoking behaviour.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:050449</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>abstinence duration</t>
-        </is>
-      </c>
+          <t>BCIO:050805</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>behaviour pattern maintenance</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>A temporal interval during which a person is abstinent from a behaviour.</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>The time a person is abstinent from a behaviour.</t>
+          <t>An individual human behaviour pattern that is continued.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Behaviour is continued even if there are historical or current barriers to doing so.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:050455</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>behavioural duration</t>
-        </is>
-      </c>
+          <t>BCIO:050448</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>population behaviour pattern</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -912,32 +919,27 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>A temporal interval within which an individual human behaviour occurs.</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>The time between the start and end of a behaviour.</t>
+          <t>A uniform process aggregate whose members are individual behaviour patterns of a population.</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:050300</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>personal attribute</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>BCIO:050804</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>behaviour chain</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -946,30 +948,30 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>A specifically dependent continuant that inheres in a person.</t>
+          <t>A process aggregate whose members are behaviours causally linked to each other in a sequence.</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>population</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>A behaviour chain can involve different behaviours, whereas a behaviour pattern can involve the same behaviour. Patterns are not necessarily causally linked.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:050451</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>abstinence from a behaviour</t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -980,33 +982,28 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>A personal attribute in which a person does not engage in a behaviour during a time period.</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Not performing a behaviour for some period of time.</t>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:050808</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>collective behaviour</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -1014,19 +1011,10 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+          <t>A population behaviour that is aimed at achieving a goal shared by members of that population.</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
-        <is>
-          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
-Behaviours are usually in response to an internal or external stimuli.
-Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
-'behaviours' can involve a series of activities (e.g., more granular behaviours).
-'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1035,15 +1023,15 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:050839</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>task complexity</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -1052,10 +1040,10 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
+          <t>A process attribute that is the complexity of thought or behaviour required to achieve a goal.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1064,16 +1052,16 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>BCIO:050435</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>laughing</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1081,28 +1069,33 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A process attribute of an individual human behaviour.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>An attribute of a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:036021</t>
+          <t>BCIO:050431</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>creative expressive behaviour</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1110,31 +1103,31 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
+          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>An aspect of the environment includes both objects within it but also processes (e.g., music performance or dancing).</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>The mental effort required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:050815</t>
+          <t>BCIO:050434</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>emotionally expressive behaviour</t>
+          <t>emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1144,133 +1137,133 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>An expressive behaviour that conveys some emotion.</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:050459</t>
+          <t>BCIO:050463</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>gesticulatory expressive behaviour</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>high emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving a movement of the limbs, head or torso.</t>
+          <t>Emotional management exertion expended on a behaviour that is high.</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>If the gesticulatory behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using gesture’ (BCIO:036002).</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:050456</t>
+          <t>BCIO:050471</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>crying</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>moderate emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves tears, and facial expressions of distress.</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
+          <t>Emotional management exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/GO_0060273</t>
+          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:050458</t>
+          <t>BCIO:050467</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>facial expression behaviour</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>low emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the muscles of the face.</t>
+          <t>Emotional management exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>If facial expression behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using facial expression’ (BCIO:050425).</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
           <t>behaviour</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/MFOEM_000125</t>
+          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:050442</t>
+          <t>BCIO:050433</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vocalisation behaviour</t>
+          <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1280,19 +1273,24 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving vibration of the vocal chords.</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Mental exertion expended on a behaviour where the exertion involves cognitive processes.</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>The effort relating to thinking required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:050461</t>
+          <t>BCIO:050466</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -1300,7 +1298,7 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>talking</t>
+          <t>low cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1309,53 +1307,58 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>A vocalisation behaviour that expresses something using words.</t>
+          <t>Cognitive exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:050462</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>high cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Cognitive exertion expended on a behaviour that is high.</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:050470</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1363,7 +1366,7 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>linguistic communication behaviour</t>
+          <t>moderate cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -1372,207 +1375,237 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Cognitive exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:050238</t>
+          <t>BCIO:050464</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>high mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Mental exertion expended on a behaviour that is high.</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:050424</t>
+          <t>BCIO:050472</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>moderate mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using body language</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Mental exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:036002</t>
+          <t>BCIO:050468</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>low mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using gesture</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
+          <t>Mental exertion expended on a behaviour that is low.</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:050425</t>
+          <t>BCIO:050432</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using facial expression</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings.</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>The physical effort required to perform a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:050375</t>
+          <t>BCIO:050473</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>moderate physical exertion expended on behaviour</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using eye contact</t>
-        </is>
-      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Physical exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:050373</t>
+          <t>BCIO:050469</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>low physical exertion expended on behaviour</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using vocalisations</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Physical exertion expended on a behaviour that is low.</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:050809</t>
+          <t>BCIO:050465</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>coping behaviour</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>high physical exertion expended on behaviour</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -1580,25 +1613,30 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>An individual human behaviour that has the goal to reduce harm or discomfort.</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Physical exertion expended on a behaviour that is high</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:050812</t>
+          <t>BCIO:050447</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>domestic behaviour</t>
+          <t>intentionality</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1609,25 +1647,35 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>An individual human behaviour within a residential facility.</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:050437</t>
+          <t>BCIO:036076</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t>impulsiveness</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1638,28 +1686,38 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to health of oneself or others.</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted without thinking.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:050413</t>
+          <t>BCIO:050444</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>providing healthcare</t>
-        </is>
-      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>behavioural reflectiveness</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -1667,39 +1725,49 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural attribute that is the degree to which the behaviour is under the control of reflective motivation.</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:050354</t>
+          <t>BCIO:050833</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>prescribing behaviour</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>reflectively controlled</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
+          <t>Behavioural reflectiveness in which the behaviour is predominantly controlled by reflective motivation.</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1708,27 +1776,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:050357</t>
+          <t>BCIO:050814</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>emotionally driven</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>social prescribing</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
+          <t>A behavioural attribute in which the behaviour is caused by an emotion process.</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1737,27 +1805,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:050356</t>
+          <t>BCIO:050822</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>identity congruence</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>prescribing behavioural regime</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
+          <t>A behavioural attribute that is the extent to which one’s behaviour is believed to be consistent with one’s core, positive self-identity.</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1766,33 +1834,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:050355</t>
+          <t>BCIO:050902</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>behavioural ease</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>prescribing medication</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
+          <t>A behavioural attribute that is the level of convenience, ease or comfort of a behaviour.</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
-Prescribing medication can include advising and authorising to stop using a medicine.</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1801,27 +1863,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:050352</t>
+          <t>BCIO:050835</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>response cost</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>providing healthcare testing</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
+          <t>A behavioural attribute that is the time, effort, financial cost, or aversiveness of enacting a behaviour.</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1830,143 +1892,163 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:050353</t>
+          <t>BCIO:050430</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>behavioural form</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>providing health screening</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural attribute that is the physical way in which a behaviour is enacted.</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The way in which the behaviour is performed, including the shape of one’s muscles and skeletal alignment during the behaviour. </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:050360</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
+          <t>BCIO:050416</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>behavioural disposition</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>providing healthcare advice</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A bodily disposition that is realised as some behaviour.</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>A tendency to behave in a particular way.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:050362</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
+          <t>BCIO:050428</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>behavioural frequency</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>providing healthcare treatment</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A data item that is about the number of times a behaviour occurs in a time period.</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>The number of times a person performs a behaviour within a specific period.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:050364</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
+          <t>BCIO:050429</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>number of behavioural occurrences</t>
+        </is>
+      </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>providing psychological treatment</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A data item that is about the number of times a behaviour has occurred.</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:050365</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
+          <t>BCIO:050806</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>behavioural consequence</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>providing creative arts therapy</t>
-        </is>
-      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Providing psychological treatment that involves creative and expressive processes.</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
+          <t>An entity that is an outcome of behaviour.</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1975,27 +2057,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:050366</t>
+          <t>BCIO:050820</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>harm prevention</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>providing occupational therapy</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
+          <t>A behavioural consequence in which harm is prevented.</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2004,27 +2086,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:050367</t>
+          <t>BCIO:050828</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>positive behavioural consequence</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>providing speech and language therapy</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
+          <t>A behavioural consequence that is positively evaluated by an individual or a population.</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2033,56 +2115,51 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:050363</t>
+          <t>BCIO:050919</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>negative behavioural consequence</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>providing physical therapy</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural consequence that is negatively evaluated by an individual or a population.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:050361</t>
+          <t>BCIO:050900</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>social behavioural consequence</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>making a referral to another health care service</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
+          <t>A behavioural consequence of a member of the person’s social environmental system.</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2091,32 +2168,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:050359</t>
+          <t>BCIO:050899</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>administering vaccine</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>family behavioural consequence</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A social behavioural consequence of some family member.</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
-        <is>
-          <t>Vaccination is defined as “a medical intervention that involves adding a vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2125,32 +2197,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:050414</t>
+          <t>BCIO:050901</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>diagnostic healthcare behaviour</t>
-        </is>
-      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>wider community behavioural consequence</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
+          <t>A social behavioural consequence that is beyond the person’s family.</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
-        <is>
-          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2159,27 +2226,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:050358</t>
+          <t>BCIO:050823</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>impact of behaviour on environment</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>reviewing prescribed medication</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
+          <t>A behavioural consequence that involves an outcome relating to the environment system.</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2188,16 +2255,16 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:050410</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
+          <t>BCIO:006085</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>self-monitoring an aspect of health</t>
-        </is>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2205,28 +2272,38 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A spatial &lt;quality&gt; that inheres in a bearer by virtue of its position relative to other entities.</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Where a person, animal or object is.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:050821</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
+          <t>BCIO:050455</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>behavioural duration</t>
+        </is>
+      </c>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>health-promoting behaviour</t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -2234,33 +2311,33 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>A health-related behaviour that improves the person’s health.</t>
+          <t>A temporal interval within which an individual human behaviour occurs.</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>This class is for behaviour that promote positive health as well as protect against threats to health.</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>The time between the start and end of a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
+          <t>BCIO:050449</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>abstinence duration</t>
+        </is>
+      </c>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>physical performance behaviour</t>
-        </is>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
@@ -2268,28 +2345,33 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A temporal interval during which a person is abstinent from a behaviour.</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>The time a person is abstinent from a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:050399</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
+          <t>BCIO:050209</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>individual human behaviour change</t>
+        </is>
+      </c>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
@@ -2297,49 +2379,54 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
+          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>behaviour change</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:050401</t>
+          <t>BCIO:050575</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>behaviour change through group norm</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>participating in healthcare testing</t>
-        </is>
-      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
+          <t>An &lt;individual human behaviour change&gt; resulting from exposure to a group behavioural norm.</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2348,85 +2435,106 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:050402</t>
+          <t>BCIO:050207</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern cessation</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>participating in health screening</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
+          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>behavioural cessation; cessation of a behaviour pattern</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:050404</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>participating in healthcare treatment</t>
-        </is>
-      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>tobacco use cessation</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves engaging with a treatment regimen to improve or maintain aspects of one's health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Cessation of tobacco use for a period of time.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:050408</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>participating in occupational therapy</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>tobacco smoking cessation</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2435,7 +2543,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:050409</t>
+          <t>BCIO:050311</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2444,7 +2552,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>participating in speech and language therapy</t>
+          <t>cigarette smoking cessation</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2452,10 +2560,10 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
+          <t>Tobacco smoking cessation in which the form of tobacco smoking is cigarette smoking.</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2464,85 +2572,95 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:050405</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
+          <t>BCIO:050831</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>reducing harm</t>
+        </is>
+      </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>participating in physical therapy</t>
-        </is>
-      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A process in which damage or injury is reduced.</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>harmful behaviour</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:050406</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr"/>
+          <t>BCIO:050830</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>reducing discomfort</t>
+        </is>
+      </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>participating in psychological treatment</t>
-        </is>
-      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A process in which physical or mental uneasiness or distress is reduced.</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>distress minimisation behaviour</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:050407</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
+          <t>BCIO:042000</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>participating in creative arts therapy</t>
-        </is>
-      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
+          <t>A process that is an individual human behaviour or a population behaviour.</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2551,107 +2669,117 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:050801</t>
+          <t>BCIO:002000</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>behaviour change intervention outcome behaviour</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>adherence to healthcare treatment</t>
-        </is>
-      </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment in accordance with treatment instructions.</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Human behaviour that is an intervention outcome.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:050400</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
+          <t>BCIO:050453</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>behaviour end point</t>
+        </is>
+      </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>arranging a healthcare service appointment</t>
-        </is>
-      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves scheduling a time to interact with a person or organisation providing healthcare.</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A time point that is the end of an individual human behaviour.</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>A temporal region when a behaviour ends.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr"/>
+          <t>BCIO:050450</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>abstinence end point</t>
+        </is>
+      </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>undergoing vaccination</t>
-        </is>
-      </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+          <t>A temporal region when a person stops abstaining from a behaviour.</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>A time point that is the end of an abstinence period.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:050438</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>life function-related behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:050452</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>abstinence start point</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
@@ -2660,28 +2788,38 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>An individual human behaviour related to vital bodily functions.</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A time point that is the start of an abstinence period.</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>A temporal region when a person starts being abstinent from a behaviour.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:036056</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr"/>
+          <t>BCIO:050454</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>behaviour starting point</t>
+        </is>
+      </c>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>reproductive behaviour</t>
-        </is>
-      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
@@ -2689,33 +2827,38 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
+          <t>A time point that is the start of an individual human behaviour.</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>A temporal region when a behaviour starts.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:036054</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr"/>
+          <t>BCIO:036000</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>excretion behaviour</t>
-        </is>
-      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
@@ -2723,28 +2866,37 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
+Behaviours are usually in response to an internal or external stimuli.
+Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
+'behaviours' can involve a series of activities (e.g., more granular behaviours).
+'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:036057</t>
+          <t>BCIO:050437</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>breathing behaviour</t>
-        </is>
-      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>health-related behaviour</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -2752,10 +2904,10 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>A life function-related behaviour involves providing an appropriate level of oxygenation to body tissues.</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
+          <t>An individual human behaviour that relates to health of oneself or others.</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2764,16 +2916,16 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:036024</t>
+          <t>BCIO:050410</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>personal bodily care behaviour</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>self-monitoring an aspect of health</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
@@ -2781,15 +2933,10 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>An individual human behaviour that attends to one’s own hygiene, comfort or appearance.</t>
+          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
-        <is>
-          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2798,14 +2945,14 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:050411</t>
+          <t>BCIO:036042</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>sun protective behaviour</t>
+          <t>physical performance behaviour</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -2815,15 +2962,10 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
+          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
-        <is>
-          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2832,14 +2974,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:050371</t>
+          <t>BCIO:050821</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>dressing behaviour</t>
+          <t>health-promoting behaviour</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -2849,26 +2991,31 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A health-related behaviour that improves the person’s health.</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>This class is for behaviour that promote positive health as well as protect against threats to health.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:050368</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>bodily hygiene behaviour</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -2878,19 +3025,24 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that attends to hygiene by cleaning or washing oneself or parts of the body.</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:050370</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -2898,7 +3050,7 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>dental hygiene behaviour</t>
+          <t>undergoing vaccination</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -2907,19 +3059,24 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:050369</t>
+          <t>BCIO:050401</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -2927,7 +3084,7 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>handwashing</t>
+          <t>participating in healthcare testing</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -2936,39 +3093,44 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:050372</t>
+          <t>BCIO:050402</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>appearance-based bodily behaviour</t>
-        </is>
-      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>participating in health screening</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that attends to making changes to one's body to achieve a desired appearance.</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
+          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2977,27 +3139,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:050439</t>
+          <t>BCIO:050404</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>material entity-related behaviour</t>
-        </is>
-      </c>
+      <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>participating in healthcare treatment</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to a material entity.</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
+          <t>Utilising healthcare that involves engaging with a treatment regimen to improve or maintain aspects of one's health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3006,27 +3168,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:036061</t>
+          <t>BCIO:050406</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>participating in psychological treatment</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>A material entity-related behaviour that involves ingesting material into the body.</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
+          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3035,32 +3197,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:050415</t>
+          <t>BCIO:050407</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>self-injecting consumption</t>
-        </is>
-      </c>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>participating in creative arts therapy</t>
+        </is>
+      </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
+          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
-        <is>
-          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3069,7 +3226,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:050393</t>
+          <t>BCIO:050409</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -3078,7 +3235,7 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>intravenous self-injecting</t>
+          <t>participating in speech and language therapy</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -3086,10 +3243,10 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
+          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3098,27 +3255,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:050417</t>
+          <t>BCIO:050405</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>oral consumption</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>participating in physical therapy</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
+          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3127,7 +3284,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:050422</t>
+          <t>BCIO:050408</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -3136,7 +3293,7 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>drinking</t>
+          <t>participating in occupational therapy</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -3144,10 +3301,10 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Oral consumption behaviour that involves swallowing a liquid material.</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
+          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3156,7 +3313,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:050423</t>
+          <t>BCIO:050801</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -3165,7 +3322,7 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>eating</t>
+          <t>adherence to healthcare treatment</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -3173,10 +3330,10 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Oral consumption behaviour that involves chewing and swallowing some solid components</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
+          <t>Participating in healthcare treatment in accordance with treatment instructions.</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3185,7 +3342,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:050394</t>
+          <t>BCIO:050400</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -3193,7 +3350,7 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>arranging a healthcare service appointment</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -3202,10 +3359,10 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
+          <t>Utilising healthcare that involves scheduling a time to interact with a person or organisation providing healthcare.</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3214,27 +3371,27 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:050395</t>
+          <t>BCIO:050413</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>providing healthcare</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>sniffing consumption</t>
-        </is>
-      </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
+          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3243,27 +3400,27 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:050352</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>vaping device use</t>
-        </is>
-      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>providing healthcare testing</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
+          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3272,27 +3429,27 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:050378</t>
+          <t>BCIO:050353</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>electronic vaping device use</t>
-        </is>
-      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>providing health screening</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
+          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3301,32 +3458,27 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:050377</t>
+          <t>BCIO:050360</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>providing healthcare advice</t>
+        </is>
+      </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>e-cigarette use</t>
-        </is>
-      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using an e-cigarette.</t>
+          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
-        <is>
-          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3335,7 +3487,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:036113</t>
+          <t>BCIO:050354</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
@@ -3343,7 +3495,7 @@
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>substance use behaviour</t>
+          <t>prescribing behaviour</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -3352,29 +3504,19 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
+          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Substance use behaviour is not equated with substance abuse.</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>substance use</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:050376</t>
+          <t>BCIO:050357</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
@@ -3383,7 +3525,7 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>alcohol consumption</t>
+          <t>social prescribing</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -3391,10 +3533,10 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves drinking an alcohol-containing product.</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
+          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3403,7 +3545,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050355</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
@@ -3412,7 +3554,7 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>tobacco use behaviour</t>
+          <t>prescribing medication</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -3420,78 +3562,74 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
+          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
+Prescribing medication can include advising and authorising to stop using a medicine.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:036103</t>
+          <t>BCIO:050356</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour</t>
-        </is>
-      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>prescribing behavioural regime</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>smoking</t>
+          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:036105</t>
+          <t>BCIO:050358</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>reviewing prescribed medication</t>
+        </is>
+      </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>cigarette smoking behaviour</t>
-        </is>
-      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>A tobacco smoking behaviour that involves setting light to one end of a cigarette, putting the other end to the lips and sucking in order to ingest cigarette smoke.</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
+          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3500,7 +3638,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:050412</t>
+          <t>BCIO:050361</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
@@ -3508,7 +3646,7 @@
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>medication-taking</t>
+          <t>making a referral to another health care service</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -3517,29 +3655,19 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
+          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>pharmacological consumption</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:050359</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -3547,7 +3675,7 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>transdermal consumption</t>
+          <t>administering vaccine</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -3556,53 +3684,58 @@
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease.</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves adding a vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:036027</t>
+          <t>BCIO:050414</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>object-using behaviour</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>diagnostic healthcare behaviour</t>
+        </is>
+      </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that uses a non-living object.</t>
+          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:050427</t>
+          <t>BCIO:050362</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
@@ -3610,7 +3743,7 @@
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>audio presentation listening behaviour</t>
+          <t>providing healthcare treatment</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
@@ -3619,10 +3752,10 @@
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t>An object-using  behaviour that involves attending to audiomaterial.</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
+          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3631,27 +3764,27 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:050420</t>
+          <t>BCIO:050363</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>digital interaction behaviour</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>providing physical therapy</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
+          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3660,27 +3793,27 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:036063</t>
+          <t>BCIO:050367</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>reading behaviour</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>providing speech and language therapy</t>
+        </is>
+      </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
+          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3689,27 +3822,27 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:036062</t>
+          <t>BCIO:050364</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>manufacturing behaviour</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>providing psychological treatment</t>
+        </is>
+      </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
+          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3718,27 +3851,27 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:050365</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>watching behaviour</t>
-        </is>
-      </c>
+      <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>providing creative arts therapy</t>
+        </is>
+      </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
+          <t>Providing psychological treatment that involves creative and expressive processes.</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3747,27 +3880,27 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:050426</t>
+          <t>BCIO:050366</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>physical contact behaviour</t>
-        </is>
-      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>providing occupational therapy</t>
+        </is>
+      </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that makes physical contact with something.</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
+          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3776,43 +3909,48 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:036028</t>
+          <t>BCIO:036024</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>personal bodily care behaviour</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>physical impact behaviour</t>
-        </is>
-      </c>
+      <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>A physical contact behaviour that is forceful.</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An individual human behaviour that attends to one’s own hygiene, comfort or appearance.</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:036007</t>
+          <t>BCIO:050371</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>environmental system management behaviour</t>
+          <t>dressing behaviour</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -3822,49 +3960,39 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
+          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>Behaviour that involves changing the physical or social environment.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:050816</t>
+          <t>BCIO:050372</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>environmental sustainability behaviour</t>
-        </is>
-      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>appearance-based bodily behaviour</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>An environmental system management behaviour that contributes to sustaining the ecosystem.</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
+          <t>A personal bodily care behaviour that attends to making changes to one's body to achieve a desired appearance.</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3873,32 +4001,27 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:036005</t>
+          <t>BCIO:050368</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>object management behaviour</t>
-        </is>
-      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>bodily hygiene behaviour</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
+          <t>A personal bodily care behaviour that attends to hygiene by cleaning or washing oneself or parts of the body.</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
-        <is>
-          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3907,27 +4030,27 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:050846</t>
+          <t>BCIO:050370</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>behavioural substitution</t>
-        </is>
-      </c>
+      <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>dental hygiene behaviour</t>
+        </is>
+      </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; in which a person substitutes a more desired behaviour for a less desired behaviour.</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
+          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3936,40 +4059,45 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:006158</t>
+          <t>BCIO:050369</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>habitual behaviour</t>
-        </is>
-      </c>
+      <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>handwashing</t>
+        </is>
+      </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that results from a learnt stimulus-behaviour co-occurrence.</t>
+          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:050411</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>sun protective behaviour</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
@@ -3977,28 +4105,33 @@
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the social environment.</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:036089</t>
+          <t>BCIO:050819</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>political behaviour</t>
-        </is>
-      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>harm preventing behaviour</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -4006,10 +4139,10 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
+          <t>An individual human behaviour that has an outcome to prevent harm.</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4018,16 +4151,16 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:036035</t>
+          <t>BCIO:050438</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>economic behaviour</t>
-        </is>
-      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>life function-related behaviour</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -4035,16 +4168,10 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
+          <t>An individual human behaviour related to vital bodily functions.</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
-        <is>
-          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
-The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4053,61 +4180,61 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:036110</t>
+          <t>BCIO:036056</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>employment behaviour</t>
-        </is>
-      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>reproductive behaviour</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
+          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:050837</t>
+          <t>BCIO:036054</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>selling behaviour</t>
-        </is>
-      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>excretion behaviour</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>An economic behaviour in which the person provides a service or ownership of a product in exchange for money.</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
+          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4116,27 +4243,27 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:050829</t>
+          <t>BCIO:036057</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>purchasing behaviour</t>
-        </is>
-      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>breathing behaviour</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
         <is>
-          <t>An economic behaviour in which the person gives money in exchange for a service or ownership of a product.</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
+          <t>A life function-related behaviour involves providing an appropriate level of oxygenation to body tissues.</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4145,16 +4272,16 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:006095</t>
+          <t>BCIO:006158</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>normative behaviour</t>
-        </is>
-      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>habitual behaviour</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
@@ -4162,23 +4289,23 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>A &lt;socially-related behaviour&gt; that is commonly enacted by people that are part of a social environmental system.</t>
+          <t>An &lt;individual human behaviour&gt; that results from a learnt stimulus-behaviour co-occurrence.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:036066</t>
+          <t>BCIO:050846</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>pro-social behaviour</t>
-        </is>
-      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>behavioural substitution</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
@@ -4186,10 +4313,10 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
+          <t>An &lt;individual human behaviour&gt; in which a person substitutes a more desired behaviour for a less desired behaviour.</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4198,16 +4325,16 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>inter-personal behaviour</t>
-        </is>
-      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
@@ -4215,10 +4342,10 @@
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
+          <t>An individual human behaviour that relates to the social environment.</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4227,32 +4354,27 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:036036</t>
+          <t>BCIO:036089</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>physical combat behaviour</t>
-        </is>
-      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>political behaviour</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
+          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
-        <is>
-          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4261,27 +4383,27 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:006099</t>
+          <t>BCIO:036072</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>social influence behaviour</t>
-        </is>
-      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>antisocial behaviour</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
+          <t>A socially-related behaviour that a population judges to be is contrary to the laws or accepted current norms of social conduct within a specific social context and causes annoyance and or disapproval in others.</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4290,27 +4412,27 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:050836</t>
+          <t>BCIO:050810</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>rewarding behaviour</t>
-        </is>
-      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>criminal behaviour</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>A social influence behaviour in which the person provides a positive stimulus contingent on another person’s behaviour.</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
+          <t>An antisocial behaviour that is illegal in a jurisdiction.</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4319,56 +4441,62 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:050397</t>
+          <t>BCIO:036011</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>social support behaviour</t>
-        </is>
-      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>social organisation behaviour</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
+'social structure' can relate to a social network or group.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:036033</t>
+          <t>BCIO:036084</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>care-giving behaviour</t>
-        </is>
-      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>association behaviour</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>A social support behaviour that involves meeting another person’s physical, psychological or social needs that this person is unable to fully meet themselves at a given moment.</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
+          <t>A social organisation behaviour that involves increasing a sense of being part of a social group or dyad.</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4377,38 +4505,43 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:050672</t>
+          <t>BCIO:050803</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>group facilitation behaviour</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>association behaviour with a pro-social group</t>
+        </is>
+      </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr">
         <is>
-          <t>An &lt;inter-personal behaviour&gt; of a member of a social group that promotes engagement of members of the group in group behaviours.</t>
+          <t>An association behaviour that involves increasing a sense of being part of a pro-social group.</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:036072</t>
+          <t>BCIO:006095</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>antisocial behaviour</t>
+          <t>normative behaviour</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -4418,39 +4551,34 @@
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to be is contrary to the laws or accepted current norms of social conduct within a specific social context and causes annoyance and or disapproval in others.</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A &lt;socially-related behaviour&gt; that is commonly enacted by people that are part of a social environmental system.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:050810</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>criminal behaviour</t>
-        </is>
-      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>inter-personal behaviour</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr">
         <is>
-          <t>An antisocial behaviour that is illegal in a jurisdiction.</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4459,33 +4587,27 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:036011</t>
+          <t>BCIO:050397</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>social organisation behaviour</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>social support behaviour</t>
+        </is>
+      </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
+          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
-        <is>
-          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
-'social structure' can relate to a social network or group.</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4494,27 +4616,27 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:036084</t>
+          <t>BCIO:036033</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>association behaviour</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>care-giving behaviour</t>
+        </is>
+      </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>A social organisation behaviour that involves increasing a sense of being part of a social group or dyad.</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
+          <t>A social support behaviour that involves meeting another person’s physical, psychological or social needs that this person is unable to fully meet themselves at a given moment.</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4523,62 +4645,51 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:050803</t>
+          <t>BCIO:050672</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>association behaviour with a pro-social group</t>
-        </is>
-      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>group facilitation behaviour</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr">
         <is>
-          <t>An association behaviour that involves increasing a sense of being part of a pro-social group.</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An &lt;inter-personal behaviour&gt; of a member of a social group that promotes engagement of members of the group in group behaviours.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:036086</t>
+          <t>BCIO:006099</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>nurture behaviour</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>social influence behaviour</t>
+        </is>
+      </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
+          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4587,27 +4698,27 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:050826</t>
+          <t>BCIO:050836</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>parenting behaviour</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>rewarding behaviour</t>
+        </is>
+      </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Nurture behaviour that is provided to a young person by someone in a parent role.</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
+          <t>A social influence behaviour in which the person provides a positive stimulus contingent on another person’s behaviour.</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4616,43 +4727,48 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:050440</t>
+          <t>BCIO:036036</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>position-related behaviour</t>
-        </is>
-      </c>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>physical combat behaviour</t>
+        </is>
+      </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:036066</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>travel behaviour</t>
+          <t>pro-social behaviour</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -4662,16 +4778,10 @@
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
+          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
-        <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4680,56 +4790,62 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:036035</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>transporting behaviour</t>
-        </is>
-      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>economic behaviour</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
+The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:036026</t>
+          <t>BCIO:050837</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>locomotive behaviour</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>selling behaviour</t>
+        </is>
+      </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr">
         <is>
-          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
+          <t>An economic behaviour in which the person provides a service or ownership of a product in exchange for money.</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4738,7 +4854,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
+          <t>BCIO:050829</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
@@ -4746,7 +4862,7 @@
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>walking</t>
+          <t>purchasing behaviour</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
@@ -4755,10 +4871,10 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr">
+          <t>An economic behaviour in which the person gives money in exchange for a service or ownership of a product.</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4767,65 +4883,76 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:036029</t>
+          <t>BCIO:036110</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>posture behaviour</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>employment behaviour</t>
+        </is>
+      </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:036070</t>
+          <t>BCIO:036086</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>standing</t>
-        </is>
-      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>nurture behaviour</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>The term 'animal' in the definition includes humans and other animals.
+There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:036067</t>
+          <t>BCIO:050826</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -4833,7 +4960,7 @@
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>lying down</t>
+          <t>parenting behaviour</t>
         </is>
       </c>
       <c r="F144" t="inlineStr"/>
@@ -4842,10 +4969,10 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr">
+          <t>Nurture behaviour that is provided to a young person by someone in a parent role.</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4854,27 +4981,27 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BCIO:036068</t>
+          <t>BCIO:050832</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>reflective behaviour</t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>reclining</t>
-        </is>
-      </c>
+      <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr">
+          <t>An individual human behaviour that is caused by a reflective mental process.</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4883,32 +5010,27 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BCIO:050460</t>
+          <t>BCIO:050439</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
-      <c r="C146" t="inlineStr"/>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>material entity-related behaviour</t>
+        </is>
+      </c>
       <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>postural expressive behaviour</t>
-        </is>
-      </c>
+      <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr">
         <is>
-          <t>A posture behaviour that is expressive.</t>
+          <t>An individual human behaviour that relates to a material entity.</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
-        <is>
-          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4917,85 +5039,100 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BCIO:036069</t>
+          <t>BCIO:036007</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>sitting</t>
-        </is>
-      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>environmental system management behaviour</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>Behaviour that involves changing the physical or social environment.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BCIO:050819</t>
+          <t>BCIO:036005</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>harm preventing behaviour</t>
-        </is>
-      </c>
+      <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>object management behaviour</t>
+        </is>
+      </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>An individual human behaviour that has an outcome to prevent harm.</t>
-        </is>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BCIO:050832</t>
+          <t>BCIO:050816</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>reflective behaviour</t>
-        </is>
-      </c>
+      <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>environmental sustainability behaviour</t>
+        </is>
+      </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>An individual human behaviour that is caused by a reflective mental process.</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr">
+          <t>An environmental system management behaviour that contributes to sustaining the ecosystem.</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5004,16 +5141,16 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BCIO:050818</t>
+          <t>BCIO:036027</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>goal-directed behaviour</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
@@ -5021,44 +5158,44 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>An individual human behaviour that has a behavioural goal.</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A material-entity related behaviour that uses a non-living object.</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BCIO:050840</t>
+          <t>BCIO:050427</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>threat-reducing behaviour</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>audio presentation listening behaviour</t>
+        </is>
+      </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour that has a goal to reduce threat.</t>
+          <t>An object-using  behaviour that involves attending to audiomaterial.</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
-        <is>
-          <t>Reducing a threat involves trying to reduce the harm of something that may occur in the future.</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5067,27 +5204,27 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BCIO:050802</t>
+          <t>BCIO:050420</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>approval seeking behaviour</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>digital interaction behaviour</t>
+        </is>
+      </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour whose goal is to obtain the approval of another person.</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr">
+          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5096,51 +5233,56 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BCIO:050920</t>
+          <t>BCIO:036063</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>opportunity-seeking behaviour</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>reading behaviour</t>
+        </is>
+      </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour whose goal is to search for and find opportunities that help meet needs or support attaining goals.</t>
+          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BCIO:050443</t>
+          <t>BCIO:036062</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>experience-related behaviour</t>
-        </is>
-      </c>
+      <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>manufacturing behaviour</t>
+        </is>
+      </c>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that relates to something the person experiences.</t>
-        </is>
-      </c>
-      <c r="L154" t="inlineStr">
+          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5149,27 +5291,27 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BCIO:036073</t>
+          <t>BCIO:050418</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>avoidance behaviour</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>watching behaviour</t>
+        </is>
+      </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves taking defensive action in order to avoid some stimulus judged to be aversive by the person.</t>
-        </is>
-      </c>
-      <c r="L155" t="inlineStr">
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5178,14 +5320,14 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BCIO:036112</t>
+          <t>BCIO:050426</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
-          <t>spiritual behaviour</t>
+          <t>physical contact behaviour</t>
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
@@ -5195,10 +5337,10 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr">
+          <t>A material-entity related behaviour that makes physical contact with something.</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5207,27 +5349,27 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BCIO:050841</t>
+          <t>BCIO:036028</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>approach behaviour</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>physical impact behaviour</t>
+        </is>
+      </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves taking action to engage with some stimulus that is judged to be rewarding by the person.</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr">
+          <t>A physical contact behaviour that is forceful.</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5236,14 +5378,14 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BCIO:050834</t>
+          <t>BCIO:036061</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr">
         <is>
-          <t>regulatory behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="E158" t="inlineStr"/>
@@ -5253,15 +5395,10 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves monitoring and acting upon some parts of the person or their environment.</t>
+          <t>A material entity-related behaviour that involves ingesting material into the body.</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
-        <is>
-          <t>Environment here includes the social and physical environment and includes behaviours involved in monitoring of others or self, action planning, and goal setting.</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5270,7 +5407,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BCIO:050811</t>
+          <t>BCIO:050417</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -5278,7 +5415,7 @@
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>cue management behaviour</t>
+          <t>oral consumption</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
@@ -5287,10 +5424,10 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>A regulatory behaviour in which cues that prompt a behaviour pattern are added, altered or removed.</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr">
+          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5299,32 +5436,27 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>BCIO:036030</t>
+          <t>BCIO:050423</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>sexual behaviour</t>
-        </is>
-      </c>
+      <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>eating</t>
+        </is>
+      </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves sexual arousal.</t>
+          <t>Oral consumption behaviour that involves chewing and swallowing some solid components</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
-        </is>
-      </c>
-      <c r="L160" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5333,27 +5465,27 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>BCIO:036008</t>
+          <t>BCIO:050422</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>learning behaviour</t>
-        </is>
-      </c>
+      <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>drinking</t>
+        </is>
+      </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
-        </is>
-      </c>
-      <c r="L161" t="inlineStr">
+          <t>Oral consumption behaviour that involves swallowing a liquid material.</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5362,7 +5494,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>BCIO:050291</t>
+          <t>BCIO:036113</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
@@ -5370,7 +5502,7 @@
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>knowledge development behaviour</t>
+          <t>substance use behaviour</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -5379,24 +5511,29 @@
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving a person's knowledge.</t>
+          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>information acquisition behaviour; knowledge seeking behaviour</t>
+          <t>substance use</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>Substance use behaviour is not equated with substance abuse.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>BCIO:050825</t>
+          <t>BCIO:050376</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
@@ -5405,7 +5542,7 @@
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr">
         <is>
-          <t>monitoring behaviour</t>
+          <t>alcohol consumption</t>
         </is>
       </c>
       <c r="G163" t="inlineStr"/>
@@ -5413,15 +5550,10 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>A knowledge development behaviour that involves gathering information over a period of time.</t>
+          <t>A substance use behaviour that involves drinking an alcohol-containing product.</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
-        <is>
-          <t>This is often used in relation to regulatory behaviour, either oneself or others. 'Monitoring behaviour' has part 'regulatory behaviour'</t>
-        </is>
-      </c>
-      <c r="L163" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5430,85 +5562,95 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BCIO:050807</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>carer monitoring of child behaviour</t>
-        </is>
-      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>tobacco use behaviour</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>A monitoring behaviour in which a carer gathers information about the activities of some child in their care.</t>
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>tobacco use</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>BCIO:050824</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>knowledge acquisition about reducing harmful behaviours</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>tobacco smoking behaviour</t>
+        </is>
+      </c>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>A knowledge development behaviour where the knowledge is about how to reduce or avoid a harmful behaviour.</t>
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>smoking</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>BCIO:036039</t>
+          <t>BCIO:036105</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>skill development behaviour</t>
-        </is>
-      </c>
+      <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>cigarette smoking behaviour</t>
+        </is>
+      </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
-        </is>
-      </c>
-      <c r="L166" t="inlineStr">
+          <t>A tobacco smoking behaviour that involves setting light to one end of a cigarette, putting the other end to the lips and sucking in order to ingest cigarette smoke.</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5517,61 +5659,56 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>BCIO:050421</t>
+          <t>BCIO:050394</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>distress minimisation behaviour</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>distress minimization behaviour</t>
+          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BCIO:050813</t>
+          <t>BCIO:050379</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>emotional behaviour</t>
-        </is>
-      </c>
+      <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>vaping device use</t>
+        </is>
+      </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is caused by an emotion process.</t>
-        </is>
-      </c>
-      <c r="L168" t="inlineStr">
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5580,27 +5717,27 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>BCIO:036041</t>
+          <t>BCIO:050378</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>mind-body behaviour</t>
-        </is>
-      </c>
+      <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>electronic vaping device use</t>
+        </is>
+      </c>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
-        </is>
-      </c>
-      <c r="L169" t="inlineStr">
+          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5609,56 +5746,61 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>BCIO:036047</t>
+          <t>BCIO:050377</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>enjoyment behaviour</t>
-        </is>
-      </c>
+      <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>e-cigarette use</t>
+        </is>
+      </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
-        </is>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Inhaling consumption that involves using an e-cigarette.</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>BCIO:036075</t>
+          <t>BCIO:050395</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>harmful behaviour</t>
-        </is>
-      </c>
+      <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>sniffing consumption</t>
+        </is>
+      </c>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>An individual human behaviour that causes net harm.</t>
-        </is>
-      </c>
-      <c r="L171" t="inlineStr">
+          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5667,62 +5809,61 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BCIO:050398</t>
+          <t>BCIO:050415</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>harmful behaviour to others</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>self-injecting consumption</t>
+        </is>
+      </c>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning.</t>
+          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
-        </is>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>BCIO:036037</t>
+          <t>BCIO:050393</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>harassment behaviour</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>intravenous self-injecting</t>
+        </is>
+      </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
-        </is>
-      </c>
-      <c r="L173" t="inlineStr">
+          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5731,32 +5872,27 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>BCIO:036032</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>bullying behaviour</t>
-        </is>
-      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>transdermal consumption</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>A harassment behaviour that involves targeting someone through deliberate misuse of power in a relationship to inflict physical, social or psychological harm.</t>
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
-        <is>
-          <t>While bullying behaviours can be directed at anyone, they are often aimed at certain people because of their race, religion, gender or sexual orientation or any other aspect such as appearance or disability (https://www.ncab.org.au/bullying-advice/bullying-for-parents/definition-of-bullying/).</t>
-        </is>
-      </c>
-      <c r="L174" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5765,49 +5901,54 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>BCIO:036014</t>
+          <t>BCIO:050412</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>self-injury behaviour</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>medication-taking</t>
+        </is>
+      </c>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
+          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>pharmacological consumption</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>BCIO:050839</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>task complexity</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr"/>
+          <t>BCIO:050443</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
@@ -5816,10 +5957,10 @@
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr">
         <is>
-          <t>A process attribute that is the complexity of thought or behaviour required to achieve a goal.</t>
-        </is>
-      </c>
-      <c r="L176" t="inlineStr">
+          <t>An &lt;individual human behaviour&gt; that relates to something the person experiences.</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5828,16 +5969,16 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>BCIO:050435</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
+          <t>BCIO:036030</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>sexual behaviour</t>
+        </is>
+      </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
@@ -5845,33 +5986,33 @@
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>A process attribute of an individual human behaviour.</t>
-        </is>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M177" t="inlineStr">
-        <is>
-          <t>An attribute of a behaviour.</t>
+          <t>An experience-related behaviour that involves sexual arousal.</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>BCIO:050430</t>
+          <t>BCIO:036112</t>
         </is>
       </c>
       <c r="B178" t="inlineStr"/>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>behavioural form</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>spiritual behaviour</t>
+        </is>
+      </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
@@ -5879,33 +6020,28 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the physical way in which a behaviour is enacted.</t>
-        </is>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M178" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The way in which the behaviour is performed, including the shape of one’s muscles and skeletal alignment during the behaviour. </t>
+          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>BCIO:050822</t>
+          <t>BCIO:036047</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>identity congruence</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>enjoyment behaviour</t>
+        </is>
+      </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
@@ -5913,10 +6049,10 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the extent to which one’s behaviour is believed to be consistent with one’s core, positive self-identity.</t>
-        </is>
-      </c>
-      <c r="L179" t="inlineStr">
+          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5925,16 +6061,16 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>BCIO:050902</t>
+          <t>BCIO:036073</t>
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>behavioural ease</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>avoidance behaviour</t>
+        </is>
+      </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
@@ -5942,10 +6078,10 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of convenience, ease or comfort of a behaviour.</t>
-        </is>
-      </c>
-      <c r="L180" t="inlineStr">
+          <t>An experience-related behaviour that involves taking defensive action in order to avoid some stimulus judged to be aversive by the person.</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5954,16 +6090,16 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>BCIO:050431</t>
+          <t>BCIO:036041</t>
         </is>
       </c>
       <c r="B181" t="inlineStr"/>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>mental exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>mind-body behaviour</t>
+        </is>
+      </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
@@ -5971,31 +6107,26 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
-        </is>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M181" t="inlineStr">
-        <is>
-          <t>The mental effort required to perform a behaviour.</t>
+          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>BCIO:050433</t>
+          <t>BCIO:050421</t>
         </is>
       </c>
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
-          <t>cognitive exertion expended on a behaviour</t>
+          <t>distress minimisation behaviour</t>
         </is>
       </c>
       <c r="E182" t="inlineStr"/>
@@ -6005,49 +6136,44 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour where the exertion involves cognitive processes.</t>
+          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M182" t="inlineStr">
-        <is>
-          <t>The effort relating to thinking required to perform a behaviour.</t>
+          <t>distress minimization behaviour</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>BCIO:050462</t>
+          <t>BCIO:050841</t>
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>high cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>approach behaviour</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is high.</t>
+          <t>An experience-related behaviour that involves taking action to engage with some stimulus that is judged to be rewarding by the person.</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
-        <is>
-          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
-        </is>
-      </c>
-      <c r="L183" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6056,41 +6182,41 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>BCIO:050470</t>
+          <t>BCIO:050834</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>moderate cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>regulatory behaviour</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is medium.</t>
+          <t>An experience-related behaviour that involves monitoring and acting upon some parts of the person or their environment.</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
-        </is>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>Environment here includes the social and physical environment and includes behaviours involved in monitoring of others or self, action planning, and goal setting.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>BCIO:050466</t>
+          <t>BCIO:050811</t>
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
@@ -6098,7 +6224,7 @@
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>low cognitive exertion expended on a behaviour</t>
+          <t>cue management behaviour</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -6107,15 +6233,10 @@
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is low.</t>
+          <t>A regulatory behaviour in which cues that prompt a behaviour pattern are added, altered or removed.</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
-        <is>
-          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
-        </is>
-      </c>
-      <c r="L185" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6124,14 +6245,14 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>BCIO:050472</t>
+          <t>BCIO:036008</t>
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
-          <t>moderate mental exertion expended on a behaviour</t>
+          <t>learning behaviour</t>
         </is>
       </c>
       <c r="E186" t="inlineStr"/>
@@ -6141,15 +6262,10 @@
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is medium.</t>
+          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
-        <is>
-          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
-        </is>
-      </c>
-      <c r="L186" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6158,32 +6274,27 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>BCIO:050468</t>
+          <t>BCIO:036039</t>
         </is>
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>low mental exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>skill development behaviour</t>
+        </is>
+      </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is low.</t>
+          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
-        <is>
-          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
-        </is>
-      </c>
-      <c r="L187" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6192,100 +6303,95 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>BCIO:050464</t>
+          <t>BCIO:050291</t>
         </is>
       </c>
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="inlineStr"/>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>high mental exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>knowledge development behaviour</t>
+        </is>
+      </c>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is high.</t>
+          <t>A learning behaviour that involves improving a person's knowledge.</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>information acquisition behaviour; knowledge seeking behaviour</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>BCIO:050434</t>
+          <t>BCIO:050825</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>monitoring behaviour</t>
+        </is>
+      </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
-        </is>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M189" t="inlineStr">
-        <is>
-          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
+          <t>A knowledge development behaviour that involves gathering information over a period of time.</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>This is often used in relation to regulatory behaviour, either oneself or others. 'Monitoring behaviour' has part 'regulatory behaviour'</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>BCIO:050463</t>
+          <t>BCIO:050807</t>
         </is>
       </c>
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>high emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>carer monitoring of child behaviour</t>
+        </is>
+      </c>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is high.</t>
+          <t>A monitoring behaviour in which a carer gathers information about the activities of some child in their care.</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
-        <is>
-          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
-        </is>
-      </c>
-      <c r="L190" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6294,32 +6400,27 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>BCIO:050471</t>
+          <t>BCIO:050824</t>
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>moderate emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>knowledge acquisition about reducing harmful behaviours</t>
+        </is>
+      </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is medium.</t>
+          <t>A knowledge development behaviour where the knowledge is about how to reduce or avoid a harmful behaviour.</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
-        <is>
-          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
-        </is>
-      </c>
-      <c r="L191" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6328,32 +6429,27 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>BCIO:050467</t>
+          <t>BCIO:050813</t>
         </is>
       </c>
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>low emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>emotional behaviour</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is low.</t>
+          <t>An experience-related behaviour that is caused by an emotion process.</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
-        <is>
-          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
-        </is>
-      </c>
-      <c r="L192" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6362,13 +6458,13 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>BCIO:050432</t>
+          <t>BCIO:050809</t>
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr">
         <is>
-          <t>physical exertion expended on a behaviour</t>
+          <t>coping behaviour</t>
         </is>
       </c>
       <c r="D193" t="inlineStr"/>
@@ -6379,33 +6475,28 @@
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
-        </is>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M193" t="inlineStr">
-        <is>
-          <t>The physical effort required to perform a behaviour.</t>
+          <t>An individual human behaviour that has the goal to reduce harm or discomfort.</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>BCIO:050473</t>
+          <t>BCIO:050457</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
-      <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>moderate physical exertion expended on behaviour</t>
-        </is>
-      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
@@ -6413,15 +6504,10 @@
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is medium.</t>
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
-        <is>
-          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
-        </is>
-      </c>
-      <c r="L194" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6430,14 +6516,14 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>BCIO:050465</t>
+          <t>BCIO:050815</t>
         </is>
       </c>
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
         <is>
-          <t>high physical exertion expended on behaviour</t>
+          <t>emotionally expressive behaviour</t>
         </is>
       </c>
       <c r="E195" t="inlineStr"/>
@@ -6447,15 +6533,10 @@
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is high</t>
+          <t>An expressive behaviour that conveys some emotion.</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
-        <is>
-          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
-        </is>
-      </c>
-      <c r="L195" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6464,14 +6545,14 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>BCIO:050469</t>
+          <t>BCIO:050459</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
-          <t>low physical exertion expended on behaviour</t>
+          <t>gesticulatory expressive behaviour</t>
         </is>
       </c>
       <c r="E196" t="inlineStr"/>
@@ -6481,33 +6562,33 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is low.</t>
+          <t>An expressive behaviour involving a movement of the limbs, head or torso.</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
-        </is>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>If the gesticulatory behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using gesture’ (BCIO:036002).</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>BCIO:050814</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>emotionally driven</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>laughing</t>
+        </is>
+      </c>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
@@ -6515,10 +6596,10 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>A behavioural attribute in which the behaviour is caused by an emotion process.</t>
-        </is>
-      </c>
-      <c r="L197" t="inlineStr">
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6527,16 +6608,16 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>BCIO:050444</t>
+          <t>BCIO:050456</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>behavioural reflectiveness</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>crying</t>
+        </is>
+      </c>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
@@ -6544,36 +6625,31 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the degree to which the behaviour is under the control of reflective motivation.</t>
+          <t>An expressive behaviour that involves tears, and facial expressions of distress.</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
-        </is>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M198" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GO_0060273</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>BCIO:050833</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
-          <t>reflectively controlled</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="E199" t="inlineStr"/>
@@ -6583,10 +6659,10 @@
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Behavioural reflectiveness in which the behaviour is predominantly controlled by reflective motivation.</t>
-        </is>
-      </c>
-      <c r="L199" t="inlineStr">
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6595,105 +6671,85 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>BCIO:050447</t>
+          <t>BCIO:050238</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>intentionality</t>
-        </is>
-      </c>
+      <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr"/>
-      <c r="E200" t="inlineStr"/>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
+          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
-        </is>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M200" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>BCIO:036076</t>
+          <t>BCIO:050424</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>impulsiveness</t>
-        </is>
-      </c>
+      <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using body language</t>
+        </is>
+      </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
+          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
-        </is>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M201" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted without thinking.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>BCIO:050835</t>
+          <t>BCIO:050375</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>response cost</t>
-        </is>
-      </c>
+      <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using eye contact</t>
+        </is>
+      </c>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the time, effort, financial cost, or aversiveness of enacting a behaviour.</t>
-        </is>
-      </c>
-      <c r="L202" t="inlineStr">
+          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6702,167 +6758,137 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>BCIO:050429</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>number of behavioural occurrences</t>
-        </is>
-      </c>
+          <t>BCIO:036002</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using gesture</t>
+        </is>
+      </c>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a behaviour has occurred.</t>
-        </is>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M203" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
+          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>BCIO:050428</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>behavioural frequency</t>
-        </is>
-      </c>
+          <t>BCIO:050425</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr"/>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using facial expression</t>
+        </is>
+      </c>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a behaviour occurs in a time period.</t>
-        </is>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M204" t="inlineStr">
-        <is>
-          <t>The number of times a person performs a behaviour within a specific period.</t>
+          <t>Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings.</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>BCIO:006085</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
+          <t>BCIO:050373</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using vocalisations</t>
+        </is>
+      </c>
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>A spatial &lt;quality&gt; that inheres in a bearer by virtue of its position relative to other entities.</t>
+          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
-        </is>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="M205" t="inlineStr">
-        <is>
-          <t>Where a person, animal or object is.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>BCIO:050209</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>individual human behaviour change</t>
-        </is>
-      </c>
+          <t>BCIO:050237</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr"/>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr"/>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
-        </is>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M206" t="inlineStr">
-        <is>
-          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
-        </is>
-      </c>
-      <c r="N206" t="inlineStr">
-        <is>
-          <t>behaviour change</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>BCIO:050575</t>
+          <t>BCIO:036021</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>behaviour change through group norm</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr"/>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>creative expressive behaviour</t>
+        </is>
+      </c>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
@@ -6870,28 +6896,33 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour change&gt; resulting from exposure to a group behavioural norm.</t>
-        </is>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An expressive behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>An aspect of the environment includes both objects within it but also processes (e.g., music performance or dancing).</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>BCIO:050207</t>
+          <t>BCIO:050442</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern cessation</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr"/>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>vocalisation behaviour</t>
+        </is>
+      </c>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
@@ -6899,118 +6930,112 @@
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
-        </is>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M208" t="inlineStr">
-        <is>
-          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
-        </is>
-      </c>
-      <c r="N208" t="inlineStr">
-        <is>
-          <t>behavioural cessation; cessation of a behaviour pattern</t>
+          <t>An expressive behaviour involving vibration of the vocal chords.</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:050461</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
       <c r="C209" t="inlineStr"/>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>tobacco use cessation</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>talking</t>
+        </is>
+      </c>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
+          <t>A vocalisation behaviour that expresses something using words.</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
-        </is>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M209" t="inlineStr">
-        <is>
-          <t>Cessation of tobacco use for a period of time.</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:050458</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="inlineStr"/>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>tobacco smoking cessation</t>
-        </is>
-      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>facial expression behaviour</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
-        </is>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An expressive behaviour that involves the muscles of the face.</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/MFOEM_000125</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>If facial expression behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using facial expression’ (BCIO:050425).</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>BCIO:050311</t>
+          <t>BCIO:050812</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
-      <c r="C211" t="inlineStr"/>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>domestic behaviour</t>
+        </is>
+      </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>cigarette smoking cessation</t>
-        </is>
-      </c>
+      <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Tobacco smoking cessation in which the form of tobacco smoking is cigarette smoking.</t>
-        </is>
-      </c>
-      <c r="L211" t="inlineStr">
+          <t>An individual human behaviour within a residential facility.</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7019,15 +7044,15 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>BCIO:050830</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>reducing discomfort</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr"/>
+          <t>BCIO:050440</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
@@ -7036,33 +7061,28 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>A process in which physical or mental uneasiness or distress is reduced.</t>
-        </is>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O212" t="inlineStr">
-        <is>
-          <t>distress minimisation behaviour</t>
+          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>BCIO:042000</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:036059</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr"/>
       <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>travel behaviour</t>
+        </is>
+      </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
@@ -7070,52 +7090,63 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>A process that is an individual human behaviour or a population behaviour.</t>
-        </is>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A position-related behaviour that involves changing physical location.</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>BCIO:002000</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>behaviour change intervention outcome behaviour</t>
-        </is>
-      </c>
+      <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr"/>
-      <c r="E214" t="inlineStr"/>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>transporting behaviour</t>
+        </is>
+      </c>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Human behaviour that is an intervention outcome.</t>
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>BCIO:050831</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>reducing harm</t>
-        </is>
-      </c>
+          <t>BCIO:036029</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr"/>
       <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>posture behaviour</t>
+        </is>
+      </c>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
@@ -7123,141 +7154,131 @@
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr">
         <is>
-          <t>A process in which damage or injury is reduced.</t>
-        </is>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O215" t="inlineStr">
-        <is>
-          <t>harmful behaviour</t>
+          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>BCIO:050416</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>behavioural disposition</t>
-        </is>
-      </c>
+          <t>BCIO:036067</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr"/>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>lying down</t>
+        </is>
+      </c>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr">
         <is>
-          <t>A bodily disposition that is realised as some behaviour.</t>
-        </is>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M216" t="inlineStr">
-        <is>
-          <t>A tendency to behave in a particular way.</t>
+          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>BCIO:036107</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
+          <t>BCIO:036070</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr"/>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr"/>
-      <c r="E217" t="inlineStr"/>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>standing</t>
+        </is>
+      </c>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
-        </is>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M217" t="inlineStr">
-        <is>
-          <t>Processes that repeat over time.</t>
+          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:050460</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>population behaviour</t>
-        </is>
-      </c>
+      <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr"/>
-      <c r="E218" t="inlineStr"/>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>postural expressive behaviour</t>
+        </is>
+      </c>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
-        </is>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A posture behaviour that is expressive.</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>BCIO:050808</t>
+          <t>BCIO:036069</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="inlineStr"/>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>collective behaviour</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>sitting</t>
+        </is>
+      </c>
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr">
         <is>
-          <t>A population behaviour that is aimed at achieving a goal shared by members of that population.</t>
-        </is>
-      </c>
-      <c r="L219" t="inlineStr">
+          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7266,32 +7287,27 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>BCIO:050804</t>
+          <t>BCIO:036068</t>
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>behaviour chain</t>
-        </is>
-      </c>
+      <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr"/>
-      <c r="E220" t="inlineStr"/>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>reclining</t>
+        </is>
+      </c>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>A process aggregate whose members are behaviours causally linked to each other in a sequence.</t>
+          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
-        <is>
-          <t>A behaviour chain can involve different behaviours, whereas a behaviour pattern can involve the same behaviour. Patterns are not necessarily causally linked.</t>
-        </is>
-      </c>
-      <c r="L220" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7300,16 +7316,16 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:036026</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr"/>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>locomotive behaviour</t>
+        </is>
+      </c>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
@@ -7317,44 +7333,39 @@
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
-        </is>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M221" t="inlineStr">
-        <is>
-          <t>Several processes of the same type repeated over time.</t>
+          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>BCIO:050448</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B222" t="inlineStr"/>
       <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>population behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr">
         <is>
-          <t>A uniform process aggregate whose members are individual behaviour patterns of a population.</t>
-        </is>
-      </c>
-      <c r="L222" t="inlineStr">
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7363,16 +7374,16 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>BCIO:036100</t>
+          <t>BCIO:036075</t>
         </is>
       </c>
       <c r="B223" t="inlineStr"/>
-      <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern</t>
-        </is>
-      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>harmful behaviour</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr"/>
@@ -7380,69 +7391,54 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>A uniform process aggregate whose member parts are behaviours of the same type and in the same person.</t>
+          <t>An individual human behaviour that causes net harm.</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
-This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
-        </is>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="M223" t="inlineStr">
-        <is>
-          <t>Individual human behaviours of the same type repeated over time.</t>
-        </is>
-      </c>
-      <c r="N223" t="inlineStr">
-        <is>
-          <t>behaviour pattern</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>BCIO:050805</t>
+          <t>BCIO:050398</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr"/>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>behaviour pattern maintenance</t>
-        </is>
-      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>harmful behaviour to others</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr">
         <is>
-          <t>An individual human behaviour pattern that is continued.</t>
+          <t>A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning.</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Behaviour is continued even if there are historical or current barriers to doing so.</t>
-        </is>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>The term 'animal' in the definition includes humans and other animals.
+‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>BCIO:050210</t>
+          <t>BCIO:036037</t>
         </is>
       </c>
       <c r="B225" t="inlineStr"/>
@@ -7450,7 +7446,7 @@
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr">
         <is>
-          <t>consumption behaviour pattern</t>
+          <t>harassment behaviour</t>
         </is>
       </c>
       <c r="F225" t="inlineStr"/>
@@ -7459,10 +7455,10 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>An individual human behaviour pattern that involves consumption behaviour.</t>
-        </is>
-      </c>
-      <c r="L225" t="inlineStr">
+          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7471,7 +7467,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>BCIO:050211</t>
+          <t>BCIO:036032</t>
         </is>
       </c>
       <c r="B226" t="inlineStr"/>
@@ -7480,7 +7476,7 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr">
         <is>
-          <t>substance use behaviour pattern</t>
+          <t>bullying behaviour</t>
         </is>
       </c>
       <c r="G226" t="inlineStr"/>
@@ -7488,73 +7484,78 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>A consumption behaviour pattern that involves substance use behaviour.</t>
-        </is>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A harassment behaviour that involves targeting someone through deliberate misuse of power in a relationship to inflict physical, social or psychological harm.</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>While bullying behaviours can be directed at anyone, they are often aimed at certain people because of their race, religion, gender or sexual orientation or any other aspect such as appearance or disability (https://www.ncab.org.au/bullying-advice/bullying-for-parents/definition-of-bullying/).</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>BCIO:036102</t>
+          <t>BCIO:036014</t>
         </is>
       </c>
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>self-injury behaviour</t>
+        </is>
+      </c>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour pattern</t>
-        </is>
-      </c>
+      <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr">
         <is>
-          <t>A substance use behaviour pattern that involves tobacco use.</t>
-        </is>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N227" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
+          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>BCIO:036104</t>
+          <t>BCIO:050818</t>
         </is>
       </c>
       <c r="B228" t="inlineStr"/>
-      <c r="C228" t="inlineStr"/>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>goal-directed behaviour</t>
+        </is>
+      </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour pattern</t>
-        </is>
-      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
-        </is>
-      </c>
-      <c r="L228" t="inlineStr">
+          <t>An individual human behaviour that has a behavioural goal.</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7563,40 +7564,40 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>BCIO:036106</t>
+          <t>BCIO:050920</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
       <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr"/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>opportunity-seeking behaviour</t>
+        </is>
+      </c>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>cigarette smoking behaviour pattern</t>
-        </is>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr">
         <is>
-          <t>A tobacco smoking behaviour pattern that involves cigarette smoking behaviour.</t>
+          <t>A goal-directed behaviour whose goal is to search for and find opportunities that help meet needs or support attaining goals.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>BFO:0000034</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>function</t>
-        </is>
-      </c>
+          <t>BCIO:050802</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr"/>
       <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr"/>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>approval seeking behaviour</t>
+        </is>
+      </c>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr"/>
@@ -7604,10 +7605,10 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
-        </is>
-      </c>
-      <c r="L230" t="inlineStr">
+          <t>A goal-directed behaviour whose goal is to obtain the approval of another person.</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7616,16 +7617,16 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>BCIO:036001</t>
+          <t>BCIO:050840</t>
         </is>
       </c>
       <c r="B231" t="inlineStr"/>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>human life function</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr"/>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>threat-reducing behaviour</t>
+        </is>
+      </c>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr"/>
@@ -7633,18 +7634,17 @@
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr">
         <is>
-          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
+          <t>A goal-directed behaviour that has a goal to reduce threat.</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
-The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
-        </is>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>Reducing a threat involves trying to reduce the harm of something that may occur in the future.</t>
         </is>
       </c>
     </row>

--- a/Behaviour/BCIO-behaviour-hierarchy.xlsx
+++ b/Behaviour/BCIO-behaviour-hierarchy.xlsx
@@ -1669,13 +1669,13 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:036076</t>
+          <t>BCIO:050444</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>impulsiveness</t>
+          <t>behavioural reflectiveness</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1686,7 +1686,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
+          <t>A behavioural attribute that is the degree to which the behaviour is under the control of reflective motivation.</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -1696,28 +1696,28 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
+          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>How far a behaviour is enacted without thinking.</t>
+          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:050444</t>
+          <t>BCIO:050833</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>behavioural reflectiveness</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>reflectively controlled</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -1725,38 +1725,28 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the degree to which the behaviour is under the control of reflective motivation.</t>
+          <t>Behavioural reflectiveness in which the behaviour is predominantly controlled by reflective motivation.</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:050833</t>
+          <t>BCIO:036076</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>reflectively controlled</t>
-        </is>
-      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>impulsiveness</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -1764,12 +1754,22 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Behavioural reflectiveness in which the behaviour is predominantly controlled by reflective motivation.</t>
+          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted without thinking.</t>
         </is>
       </c>
     </row>
@@ -5659,7 +5659,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>BCIO:050394</t>
+          <t>BCIO:050415</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
@@ -5667,7 +5667,7 @@
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>inhaling consumption</t>
+          <t>self-injecting consumption</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
@@ -5676,19 +5676,24 @@
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
+          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:050393</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
@@ -5697,7 +5702,7 @@
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr">
         <is>
-          <t>vaping device use</t>
+          <t>intravenous self-injecting</t>
         </is>
       </c>
       <c r="G168" t="inlineStr"/>
@@ -5705,7 +5710,7 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -5717,24 +5722,24 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>BCIO:050378</t>
+          <t>BCIO:050394</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
       <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>electronic vaping device use</t>
-        </is>
-      </c>
+      <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
+          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -5746,58 +5751,53 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>BCIO:050377</t>
+          <t>BCIO:050379</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>vaping device use</t>
+        </is>
+      </c>
       <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>e-cigarette use</t>
-        </is>
-      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using an e-cigarette.</t>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O170" t="inlineStr">
-        <is>
-          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>BCIO:050395</t>
+          <t>BCIO:050378</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>sniffing consumption</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>electronic vaping device use</t>
+        </is>
+      </c>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
+          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -5809,24 +5809,24 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BCIO:050415</t>
+          <t>BCIO:050377</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>self-injecting consumption</t>
-        </is>
-      </c>
+      <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>e-cigarette use</t>
+        </is>
+      </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
+          <t>Inhaling consumption that involves using an e-cigarette.</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -5836,14 +5836,14 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
+          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>BCIO:050393</t>
+          <t>BCIO:050395</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
@@ -5852,7 +5852,7 @@
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr">
         <is>
-          <t>intravenous self-injecting</t>
+          <t>sniffing consumption</t>
         </is>
       </c>
       <c r="G173" t="inlineStr"/>
@@ -5860,7 +5860,7 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
+          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -7588,14 +7588,14 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>BCIO:050802</t>
+          <t>BCIO:050840</t>
         </is>
       </c>
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr">
         <is>
-          <t>approval seeking behaviour</t>
+          <t>threat-reducing behaviour</t>
         </is>
       </c>
       <c r="E230" t="inlineStr"/>
@@ -7605,26 +7605,31 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour whose goal is to obtain the approval of another person.</t>
+          <t>A goal-directed behaviour that has a goal to reduce threat.</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>behaviour</t>
+        </is>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>Reducing a threat involves trying to reduce the harm of something that may occur in the future.</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>BCIO:050840</t>
+          <t>BCIO:050802</t>
         </is>
       </c>
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
-          <t>threat-reducing behaviour</t>
+          <t>approval seeking behaviour</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -7634,17 +7639,12 @@
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour that has a goal to reduce threat.</t>
+          <t>A goal-directed behaviour whose goal is to obtain the approval of another person.</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O231" t="inlineStr">
-        <is>
-          <t>Reducing a threat involves trying to reduce the harm of something that may occur in the future.</t>
         </is>
       </c>
     </row>

--- a/Behaviour/BCIO-behaviour-hierarchy.xlsx
+++ b/Behaviour/BCIO-behaviour-hierarchy.xlsx
@@ -446,44 +446,44 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
           <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:050300</t>
+          <t>BCIO:036107</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>process aggregate</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -495,30 +495,30 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>A specifically dependent continuant that inheres in a person.</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>population</t>
+          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
+          <t>Processes that repeat over time.</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:050451</t>
+          <t>BCIO:050804</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>abstinence from a behaviour</t>
+          <t>behaviour chain</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -529,32 +529,32 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>A personal attribute in which a person does not engage in a behaviour during a time period.</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A process aggregate whose members are behaviours causally linked to each other in a sequence.</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>A behaviour chain can involve different behaviours, whereas a behaviour pattern can involve the same behaviour. Patterns are not necessarily causally linked.</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Not performing a behaviour for some period of time.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BFO:0000034</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>function</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>BCIO:034000</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>population behaviour</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -563,10 +563,10 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
+          <t>An aggregate of individual human behaviours of members of a population.</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -575,16 +575,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:036001</t>
+          <t>BCIO:050808</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>human life function</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>collective behaviour</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -592,33 +592,27 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
-The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
+          <t>A population behaviour that is aimed at achieving a goal shared by members of that population.</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:036107</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>process aggregate</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>BCIO:050267</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>uniform process aggregate</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -627,33 +621,33 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>An occurrent consisting exactly of a plurality of processes that are process_aggregate_member_parts_of that occurrent for all times at which it exists.</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A process aggregate whose member parts are of the same type.</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Several processes of the same type repeated over time.</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Processes that repeat over time.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:050267</t>
+          <t>BCIO:036100</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>uniform process aggregate</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>individual human behaviour pattern</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -661,62 +655,62 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>A process aggregate whose member parts are of the same type.</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A uniform process aggregate whose member parts are behaviours of the same type and in the same person.</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>behaviour pattern</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
+This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Individual human behaviours of the same type repeated over time.</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Several processes of the same type repeated over time.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:036100</t>
+          <t>BCIO:050805</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>behaviour pattern maintenance</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>A uniform process aggregate whose member parts are behaviours of the same type and in the same person.</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>behaviour pattern</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>The term 'pattern' is used to refer to several processes (individual human behaviours) of the same type being repeated overtime.
-This class is intended to include behaviours that can usefully be characterised in terms of frequency and pattern of enactment with a temporal start and end of the series. This means that the series can be terminated (e.g. stopping smoking), interrupted (e.g. abstaining from alcohol consumption for a month), and changed in frequency (e.g. cutting down on snacks).</t>
+          <t>An individual human behaviour pattern that is continued.</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Behaviour is continued even if there are historical or current barriers to doing so.</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Individual human behaviours of the same type repeated over time.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
@@ -743,7 +737,7 @@
           <t>An individual human behaviour pattern that involves consumption behaviour.</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -772,7 +766,7 @@
           <t>A consumption behaviour pattern that involves substance use behaviour.</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -801,14 +795,14 @@
           <t>A substance use behaviour pattern that involves tobacco use.</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>tobacco use</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
@@ -835,7 +829,7 @@
           <t>A tobacco use behaviour pattern that involves tobacco smoking behaviour.</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -868,50 +862,45 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:050805</t>
+          <t>BCIO:050448</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>behaviour pattern maintenance</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>population behaviour pattern</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>An individual human behaviour pattern that is continued.</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Behaviour is continued even if there are historical or current barriers to doing so.</t>
+          <t>A uniform process aggregate whose members are individual behaviour patterns of a population.</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:050448</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>BCIO:050429</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>number of behavioural occurrences</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>population behaviour pattern</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -919,10 +908,15 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>A uniform process aggregate whose members are individual behaviour patterns of a population.</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
+          <t>A data item that is about the number of times a behaviour has occurred.</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -931,15 +925,15 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:050804</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>behaviour chain</t>
-        </is>
-      </c>
+          <t>BCIO:050428</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>behavioural frequency</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -948,32 +942,32 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>A process aggregate whose members are behaviours causally linked to each other in a sequence.</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A data item that is about the number of times a behaviour occurs in a time period.</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>A behaviour chain can involve different behaviours, whereas a behaviour pattern can involve the same behaviour. Patterns are not necessarily causally linked.</t>
+          <t>The number of times a person performs a behaviour within a specific period.</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>population behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:050839</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>task complexity</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -982,10 +976,10 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
+          <t>A process attribute that is the complexity of thought or behaviour required to achieve a goal.</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -994,16 +988,16 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:050808</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+          <t>BCIO:050435</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>behavioural attribute</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>collective behaviour</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -1011,10 +1005,15 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>A population behaviour that is aimed at achieving a goal shared by members of that population.</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
+          <t>A process attribute of an individual human behaviour.</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>An attribute of a behaviour.</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1023,15 +1022,15 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:050839</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>task complexity</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>BCIO:050432</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>physical exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -1040,10 +1039,15 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>A process attribute that is the complexity of thought or behaviour required to achieve a goal.</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
+          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>The physical effort required to perform a behaviour.</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1052,16 +1056,16 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:050435</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>behavioural attribute</t>
-        </is>
-      </c>
+          <t>BCIO:050469</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>low physical exertion expended on behaviour</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1069,33 +1073,33 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>A process attribute of an individual human behaviour.</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Physical exertion expended on a behaviour that is low.</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>An attribute of a behaviour.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:050431</t>
+          <t>BCIO:050473</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>mental exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>moderate physical exertion expended on behaviour</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1103,31 +1107,31 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Physical exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>The mental effort required to perform a behaviour.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:050434</t>
+          <t>BCIO:050465</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>emotional management exertion expended on a behaviour</t>
+          <t>high physical exertion expended on behaviour</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1137,133 +1141,128 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Physical exertion expended on a behaviour that is high</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:050463</t>
+          <t>BCIO:050814</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>emotionally driven</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>high emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is high.</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>A behavioural attribute in which the behaviour is caused by an emotion process.</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:050471</t>
+          <t>BCIO:050431</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>mental exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>moderate emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is medium.</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural attribute that is the level of mental effort expended on the behaviour to be enacted.</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>The mental effort required to perform a behaviour.</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:050467</t>
+          <t>BCIO:050464</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>low emotional management exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>high mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Emotional management exertion expended on a behaviour that is low.</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>Mental exertion expended on a behaviour that is high.</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:050433</t>
+          <t>BCIO:050472</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>cognitive exertion expended on a behaviour</t>
+          <t>moderate mental exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1273,92 +1272,92 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour where the exertion involves cognitive processes.</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Mental exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>The effort relating to thinking required to perform a behaviour.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:050466</t>
+          <t>BCIO:050468</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>low cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>low mental exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is low.</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>Mental exertion expended on a behaviour that is low.</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:050462</t>
+          <t>BCIO:050434</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>high cognitive exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is high.</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Mental exertion expended on a behaviour where the exertion involves control over emotions or their expression.</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>The effort a person has to exert to manage their emotions when performing a behaviour.</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:050470</t>
+          <t>BCIO:050471</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1366,7 +1365,7 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>moderate cognitive exertion expended on a behaviour</t>
+          <t>moderate emotional management exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -1375,99 +1374,99 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Cognitive exertion expended on a behaviour that is medium.</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Emotional management exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Moderate emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:050464</t>
+          <t>BCIO:050467</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>high mental exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>low emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is high.</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>High mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>Emotional management exertion expended on a behaviour that is low.</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Low emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:050472</t>
+          <t>BCIO:050463</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>moderate mental exertion expended on a behaviour</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>high emotional management exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is medium.</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Moderate mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Emotional management exertion expended on a behaviour that is high.</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>High emotional management exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:050468</t>
+          <t>BCIO:050433</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>low mental exertion expended on a behaviour</t>
+          <t>cognitive exertion expended on a behaviour</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1477,135 +1476,135 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Mental exertion expended on a behaviour that is low.</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Mental exertion expended on a behaviour where the exertion involves cognitive processes.</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Low mental exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+          <t>The effort relating to thinking required to perform a behaviour.</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:050432</t>
+          <t>BCIO:050470</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>physical exertion expended on a behaviour</t>
-        </is>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>moderate cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of musculoskeletal work expended on the behaviour to be enacted.</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Cognitive exertion expended on a behaviour that is medium.</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Moderate cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>The physical effort required to perform a behaviour.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:050473</t>
+          <t>BCIO:050462</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>moderate physical exertion expended on behaviour</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>high cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is medium.</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>Moderate physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what moderate exertion means based on the measurement you use).</t>
+          <t>Cognitive exertion expended on a behaviour that is high.</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>High cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:050469</t>
+          <t>BCIO:050466</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>low physical exertion expended on behaviour</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>low cognitive exertion expended on a behaviour</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is low.</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Low physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means </t>
+          <t>Cognitive exertion expended on a behaviour that is low.</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Low cognitive exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what low exertion means based on the measurement you use).</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:050465</t>
+          <t>BCIO:050444</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>high physical exertion expended on behaviour</t>
-        </is>
-      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>behavioural reflectiveness</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -1613,33 +1612,38 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Physical exertion expended on a behaviour that is high</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural attribute that is the degree to which the behaviour is under the control of reflective motivation.</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>High physical exertion will mean different things depending on how this concept is operationalised. Therefore, when using this class, you would need to operationalise it for the relevant context (e.g., specify what high exertion means based on the measurement you use).</t>
+          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:050447</t>
+          <t>BCIO:050833</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>intentionality</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>reflectively controlled</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
@@ -1647,35 +1651,25 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
+          <t>Behavioural reflectiveness in which the behaviour is predominantly controlled by reflective motivation.</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:050444</t>
+          <t>BCIO:050822</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>behavioural reflectiveness</t>
+          <t>identity congruence</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1686,38 +1680,28 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the degree to which the behaviour is under the control of reflective motivation.</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>This class is a dimension and involves any conscious thought processes that lead to a behaviour in some way, even if those processes are themselves influenced by emotional processes and biases.</t>
+          <t>A behavioural attribute that is the extent to which one’s behaviour is believed to be consistent with one’s core, positive self-identity.</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>How far a behaviour is enacted after thinking about it and its consequences.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:050833</t>
+          <t>BCIO:050902</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>reflectively controlled</t>
-        </is>
-      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>behavioural ease</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -1725,10 +1709,10 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Behavioural reflectiveness in which the behaviour is predominantly controlled by reflective motivation.</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
+          <t>A behavioural attribute that is the level of convenience, ease or comfort of a behaviour.</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1737,13 +1721,13 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:036076</t>
+          <t>BCIO:050447</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>impulsiveness</t>
+          <t>intentionality</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1754,35 +1738,35 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A behavioural attribute that is the extent to which the behaviour is caused by a behavioural intention.</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>This class is a dimension and is differentiated from reflectiveness because a behaviour may be fully intentional but involve little reflective thought, e.g., when driving carelessly. In this class the intention relates to the behaviour itself. If a person intends to do one thing but accidentally does something else it does not count as intentional in this class, e.g., if someone intends to injure someone else and ends up killing them, that would not count as intentionally killing them.</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
+          <t>How far a behaviour is enacted as a direct result of a conscious intention to enact it.</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>How far a behaviour is enacted without thinking.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:050814</t>
+          <t>BCIO:050835</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>emotionally driven</t>
+          <t>response cost</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -1793,10 +1777,10 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>A behavioural attribute in which the behaviour is caused by an emotion process.</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
+          <t>A behavioural attribute that is the time, effort, financial cost, or aversiveness of enacting a behaviour.</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1805,13 +1789,13 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:050822</t>
+          <t>BCIO:036076</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>identity congruence</t>
+          <t>impulsiveness</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -1822,10 +1806,20 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the extent to which one’s behaviour is believed to be consistent with one’s core, positive self-identity.</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
+          <t>A behavioural attribute that is to what extent the behaviour is a direct emotional, habitual or instinctive reaction to something.</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>This class is a dimension and can be construed as the obverse of reflectiveness and so operationalised in terms of acting without thinking.</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>How far a behaviour is enacted without thinking.</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1834,13 +1828,13 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:050902</t>
+          <t>BCIO:050430</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>behavioural ease</t>
+          <t>behavioural form</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -1851,10 +1845,15 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the level of convenience, ease or comfort of a behaviour.</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
+          <t>A behavioural attribute that is the physical way in which a behaviour is enacted.</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The way in which the behaviour is performed, including the shape of one’s muscles and skeletal alignment during the behaviour. </t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1863,15 +1862,15 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:050835</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>response cost</t>
-        </is>
-      </c>
+          <t>BFO:0000034</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>function</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
@@ -1880,10 +1879,10 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the time, effort, financial cost, or aversiveness of enacting a behaviour.</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
+          <t>A disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. (axiom label in BFO2 Reference: [064-001])</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -1892,13 +1891,13 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:050430</t>
+          <t>BCIO:036001</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>behavioural form</t>
+          <t>human life function</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -1909,29 +1908,30 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>A behavioural attribute that is the physical way in which a behaviour is enacted.</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A function that inheres in a human being and is realised in processes that enable the human to survive and thrive.</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>There are complex sets of processes involved in the realisation of human life functions, only some which would behaviours. An example for a human life function that is not a behaviour function: human thermoregulation via sweating function. However, some behaviours can fulfil 'human life functions'.
+The term 'survive' refers to continuing one's existence (e.g., staying alive), while 'thrive' includes a wide range of processes that improve an animal's life, including physical and mental wellbeing and experiencing positive social interactions, as well as being able to reproduce. Many processes can contribute to a human surviving and thriving.</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t xml:space="preserve">The way in which the behaviour is performed, including the shape of one’s muscles and skeletal alignment during the behaviour. </t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:050416</t>
+          <t>BCIO:050452</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>behavioural disposition</t>
+          <t>abstinence start point</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1943,29 +1943,34 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>A bodily disposition that is realised as some behaviour.</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A time point that is the start of an abstinence period.</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>A temporal region when a person starts being abstinent from a behaviour.</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>A tendency to behave in a particular way.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:050428</t>
+          <t>BCIO:050453</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>behavioural frequency</t>
+          <t>behaviour end point</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1977,29 +1982,34 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a behaviour occurs in a time period.</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A time point that is the end of an individual human behaviour.</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>A temporal region when a behaviour ends.</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>The number of times a person performs a behaviour within a specific period.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:050429</t>
+          <t>BCIO:050450</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>number of behavioural occurrences</t>
+          <t>abstinence end point</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2011,29 +2021,34 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times a behaviour has occurred.</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A temporal region when a person stops abstaining from a behaviour.</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>A time point that is the end of an abstinence period.</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Number of times a person performs a behaviour. </t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:050806</t>
+          <t>BCIO:050454</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>behavioural consequence</t>
+          <t>behaviour starting point</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2045,10 +2060,20 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>An entity that is an outcome of behaviour.</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
+          <t>A time point that is the start of an individual human behaviour.</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>A temporal region when a behaviour starts.</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2057,15 +2082,15 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:050820</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>harm prevention</t>
-        </is>
-      </c>
+          <t>BCIO:036000</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
@@ -2074,10 +2099,19 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>A behavioural consequence in which harm is prevented.</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
+Behaviours are usually in response to an internal or external stimuli.
+Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
+'behaviours' can involve a series of activities (e.g., more granular behaviours).
+'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2086,13 +2120,13 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:050828</t>
+          <t>BCIO:036024</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>positive behavioural consequence</t>
+          <t>personal bodily care behaviour</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -2103,10 +2137,15 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>A behavioural consequence that is positively evaluated by an individual or a population.</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
+          <t>An individual human behaviour that attends to one’s own hygiene, comfort or appearance.</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2115,16 +2154,16 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:050919</t>
+          <t>BCIO:050371</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>negative behavioural consequence</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>dressing behaviour</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2132,23 +2171,28 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>A behavioural consequence that is negatively evaluated by an individual or a population.</t>
+          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:050900</t>
+          <t>BCIO:050411</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>social behavioural consequence</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>sun protective behaviour</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -2156,10 +2200,15 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>A behavioural consequence of a member of the person’s social environmental system.</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
+          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2168,14 +2217,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:050899</t>
+          <t>BCIO:050368</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>family behavioural consequence</t>
+          <t>bodily hygiene behaviour</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -2185,10 +2234,10 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>A social behavioural consequence of some family member.</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
+          <t>A personal bodily care behaviour that attends to hygiene by cleaning or washing oneself or parts of the body.</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2197,27 +2246,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:050901</t>
+          <t>BCIO:050370</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>wider community behavioural consequence</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>dental hygiene behaviour</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>A social behavioural consequence that is beyond the person’s family.</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
+          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2226,27 +2275,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:050823</t>
+          <t>BCIO:050369</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>impact of behaviour on environment</t>
-        </is>
-      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>handwashing</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>A behavioural consequence that involves an outcome relating to the environment system.</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
+          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2255,16 +2304,16 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:006085</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
+          <t>BCIO:050372</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>appearance-based bodily behaviour</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -2272,37 +2321,27 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>A spatial &lt;quality&gt; that inheres in a bearer by virtue of its position relative to other entities.</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
+          <t>A personal bodily care behaviour that attends to making changes to one's body to achieve a desired appearance.</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Where a person, animal or object is.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:050455</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>behavioural duration</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
+          <t>BCIO:050443</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>experience-related behaviour</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
@@ -2311,33 +2350,28 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>A temporal interval within which an individual human behaviour occurs.</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An &lt;individual human behaviour&gt; that relates to something the person experiences.</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>The time between the start and end of a behaviour.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:050449</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>abstinence duration</t>
-        </is>
-      </c>
+          <t>BCIO:036030</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>sexual behaviour</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
@@ -2345,33 +2379,33 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>A temporal interval during which a person is abstinent from a behaviour.</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>An experience-related behaviour that involves sexual arousal.</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>The time a person is abstinent from a behaviour.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:050209</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>individual human behaviour change</t>
-        </is>
-      </c>
+          <t>BCIO:036041</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>mind-body behaviour</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
@@ -2379,43 +2413,28 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>behaviour change</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
+          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:050575</t>
+          <t>BCIO:050841</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>behaviour change through group norm</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>approach behaviour</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
@@ -2423,10 +2442,10 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour change&gt; resulting from exposure to a group behavioural norm.</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
+          <t>An experience-related behaviour that involves taking action to engage with some stimulus that is judged to be rewarding by the person.</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2435,16 +2454,16 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:050207</t>
+          <t>BCIO:036112</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>individual human behaviour pattern cessation</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>spiritual behaviour</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
@@ -2452,36 +2471,26 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>behavioural cessation; cessation of a behaviour pattern</t>
+          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:050208</t>
+          <t>BCIO:050421</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>tobacco use cessation</t>
+          <t>distress minimisation behaviour</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -2491,50 +2500,44 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
-</t>
+          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>distress minimization behaviour</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Cessation of tobacco use for a period of time.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:050269</t>
+          <t>BCIO:036047</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>tobacco smoking cessation</t>
-        </is>
-      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>enjoyment behaviour</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
+          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2543,27 +2546,32 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:050311</t>
+          <t>BCIO:050834</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>regulatory behaviour</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>cigarette smoking cessation</t>
-        </is>
-      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Tobacco smoking cessation in which the form of tobacco smoking is cigarette smoking.</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
+          <t>An experience-related behaviour that involves monitoring and acting upon some parts of the person or their environment.</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Environment here includes the social and physical environment and includes behaviours involved in monitoring of others or self, action planning, and goal setting.</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2572,50 +2580,45 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:050831</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>reducing harm</t>
-        </is>
-      </c>
+          <t>BCIO:050811</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>cue management behaviour</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>A process in which damage or injury is reduced.</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>harmful behaviour</t>
+          <t>A regulatory behaviour in which cues that prompt a behaviour pattern are added, altered or removed.</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:050830</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>reducing discomfort</t>
-        </is>
-      </c>
+          <t>BCIO:050813</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>emotional behaviour</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
@@ -2623,33 +2626,28 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>A process in which physical or mental uneasiness or distress is reduced.</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>distress minimisation behaviour</t>
+          <t>An experience-related behaviour that is caused by an emotion process.</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:042000</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:036008</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>learning behaviour</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
@@ -2657,10 +2655,10 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>A process that is an individual human behaviour or a population behaviour.</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
+          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2669,196 +2667,171 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:002000</t>
+          <t>BCIO:036039</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>behaviour change intervention outcome behaviour</t>
-        </is>
-      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>skill development behaviour</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Human behaviour that is an intervention outcome.</t>
+          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:050453</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>behaviour end point</t>
-        </is>
-      </c>
+          <t>BCIO:050291</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>knowledge development behaviour</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>A time point that is the end of an individual human behaviour.</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+          <t>A learning behaviour that involves improving a person's knowledge.</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>information acquisition behaviour; knowledge seeking behaviour</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>A temporal region when a behaviour ends.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:050450</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>abstinence end point</t>
-        </is>
-      </c>
+          <t>BCIO:050824</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>knowledge acquisition about reducing harmful behaviours</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>A temporal region when a person stops abstaining from a behaviour.</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+          <t>A knowledge development behaviour where the knowledge is about how to reduce or avoid a harmful behaviour.</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>A time point that is the end of an abstinence period.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:050452</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>abstinence start point</t>
-        </is>
-      </c>
+          <t>BCIO:050825</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>monitoring behaviour</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>A time point that is the start of an abstinence period.</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+          <t>A knowledge development behaviour that involves gathering information over a period of time.</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>This is often used in relation to regulatory behaviour, either oneself or others. 'Monitoring behaviour' has part 'regulatory behaviour'</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>A temporal region when a person starts being abstinent from a behaviour.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:050454</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>behaviour starting point</t>
-        </is>
-      </c>
+          <t>BCIO:050807</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>carer monitoring of child behaviour</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>A time point that is the start of an individual human behaviour.</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We often refer to timepoints when we mean a specific time or some extended period (e.g., Monday). This class allows for the natural usage of a term while maintaining ontological coherence. </t>
+          <t>A monitoring behaviour in which a carer gathers information about the activities of some child in their care.</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>A temporal region when a behaviour starts.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:036073</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>avoidance behaviour</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
@@ -2866,34 +2839,25 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Striated muscles referred to in the definition do not ordinarily involve cardiac muscles.
-Behaviours are usually in response to an internal or external stimuli.
-Every behaviour is associated with mental processes, but not every mental process is associated with behaviour. For instance, a verbal communication behaviour will involve mental processes to produce speech. However, mental processes associated with listening can occur without a person performing a behaviour.
-'behaviours' can involve a series of activities (e.g., more granular behaviours).
-'A 'striated muscle' can defined as 'a type of contractile tissue that is marked by transverse striations; it is concerned with moving skeletal parts to which it is usually attached.' (https://www.collinsdictionary.com/dictionary/english/striped-muscle)</t>
+          <t>An experience-related behaviour that involves taking defensive action in order to avoid some stimulus judged to be aversive by the person.</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:050437</t>
+          <t>BCIO:050819</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>health-related behaviour</t>
+          <t>harm preventing behaviour</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -2904,10 +2868,10 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to health of oneself or others.</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
+          <t>An individual human behaviour that has an outcome to prevent harm.</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2916,16 +2880,16 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:050410</t>
+          <t>BCIO:036075</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>self-monitoring an aspect of health</t>
-        </is>
-      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>harmful behaviour</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
@@ -2933,10 +2897,10 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
+          <t>An individual human behaviour that causes net harm.</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2945,14 +2909,14 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:036042</t>
+          <t>BCIO:036014</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>physical performance behaviour</t>
+          <t>self-injury behaviour</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -2962,10 +2926,15 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
+          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -2974,14 +2943,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:050821</t>
+          <t>BCIO:050398</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>health-promoting behaviour</t>
+          <t>harmful behaviour to others</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -2991,146 +2960,137 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>A health-related behaviour that improves the person’s health.</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>This class is for behaviour that promote positive health as well as protect against threats to health.</t>
+          <t>A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning.</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>The term 'animal' in the definition includes humans and other animals.
+‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:050399</t>
+          <t>BCIO:036037</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>utilising healthcare</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>harassment behaviour</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>A ‘healthcare provider’ can be a person or organisation</t>
+          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:050403</t>
+          <t>BCIO:036032</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>undergoing vaccination</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>bullying behaviour</t>
+        </is>
+      </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+          <t>A harassment behaviour that involves targeting someone through deliberate misuse of power in a relationship to inflict physical, social or psychological harm.</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>While bullying behaviours can be directed at anyone, they are often aimed at certain people because of their race, religion, gender or sexual orientation or any other aspect such as appearance or disability (https://www.ncab.org.au/bullying-advice/bullying-for-parents/definition-of-bullying/).</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:050401</t>
+          <t>BCIO:050438</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>life function-related behaviour</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>participating in healthcare testing</t>
-        </is>
-      </c>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
+          <t>An individual human behaviour related to vital bodily functions.</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:050402</t>
+          <t>BCIO:036057</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>breathing behaviour</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>participating in health screening</t>
-        </is>
-      </c>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
+          <t>A life function-related behaviour involves providing an appropriate level of oxygenation to body tissues.</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3139,27 +3099,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:050404</t>
+          <t>BCIO:036054</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>participating in healthcare treatment</t>
-        </is>
-      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>excretion behaviour</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves engaging with a treatment regimen to improve or maintain aspects of one's health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
+          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3168,27 +3128,32 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:050406</t>
+          <t>BCIO:036056</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>reproductive behaviour</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>participating in psychological treatment</t>
-        </is>
-      </c>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
+          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3197,27 +3162,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:050407</t>
+          <t>BCIO:050812</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>domestic behaviour</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>participating in creative arts therapy</t>
-        </is>
-      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
+          <t>An individual human behaviour within a residential facility.</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3226,27 +3191,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:050409</t>
+          <t>BCIO:050818</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>goal-directed behaviour</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>participating in speech and language therapy</t>
-        </is>
-      </c>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
+          <t>An individual human behaviour that has a behavioural goal.</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3255,27 +3220,32 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:050405</t>
+          <t>BCIO:050840</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>threat-reducing behaviour</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>participating in physical therapy</t>
-        </is>
-      </c>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
+          <t>A goal-directed behaviour that has a goal to reduce threat.</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Reducing a threat involves trying to reduce the harm of something that may occur in the future.</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3284,56 +3254,51 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:050408</t>
+          <t>BCIO:050920</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>opportunity-seeking behaviour</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>participating in occupational therapy</t>
-        </is>
-      </c>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A goal-directed behaviour whose goal is to search for and find opportunities that help meet needs or support attaining goals.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:050801</t>
+          <t>BCIO:050802</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>approval seeking behaviour</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>adherence to healthcare treatment</t>
-        </is>
-      </c>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Participating in healthcare treatment in accordance with treatment instructions.</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
+          <t>A goal-directed behaviour whose goal is to obtain the approval of another person.</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3342,27 +3307,27 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:050400</t>
+          <t>BCIO:050809</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>coping behaviour</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>arranging a healthcare service appointment</t>
-        </is>
-      </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Utilising healthcare that involves scheduling a time to interact with a person or organisation providing healthcare.</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
+          <t>An individual human behaviour that has the goal to reduce harm or discomfort.</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3371,16 +3336,16 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:050413</t>
+          <t>BCIO:050457</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>providing healthcare</t>
-        </is>
-      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
@@ -3388,10 +3353,10 @@
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3400,27 +3365,27 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:050352</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>providing healthcare testing</t>
-        </is>
-      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>laughing</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3429,27 +3394,27 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:050353</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>providing health screening</t>
-        </is>
-      </c>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3458,7 +3423,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:050360</t>
+          <t>BCIO:050238</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -3466,7 +3431,7 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>providing healthcare advice</t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -3475,10 +3440,10 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
+          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3487,27 +3452,27 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:050354</t>
+          <t>BCIO:050373</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>prescribing behaviour</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using vocalisations</t>
+        </is>
+      </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
+          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3516,7 +3481,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:050357</t>
+          <t>BCIO:050424</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
@@ -3525,7 +3490,7 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>social prescribing</t>
+          <t>non-linguistic communication behaviour using body language</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -3533,10 +3498,10 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
+          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3545,62 +3510,56 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:050355</t>
+          <t>BCIO:050375</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>prescribing medication</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using eye contact</t>
+        </is>
+      </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
-Prescribing medication can include advising and authorising to stop using a medicine.</t>
+          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:050356</t>
+          <t>BCIO:050425</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>prescribing behavioural regime</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using facial expression</t>
+        </is>
+      </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
+          <t>Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings.</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3609,27 +3568,32 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:050358</t>
+          <t>BCIO:036002</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>reviewing prescribed medication</t>
-        </is>
-      </c>
+      <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour using gesture</t>
+        </is>
+      </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
+          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3638,7 +3602,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:050361</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
@@ -3646,7 +3610,7 @@
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>making a referral to another health care service</t>
+          <t>linguistic communication behaviour</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -3655,10 +3619,10 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3667,95 +3631,95 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:050359</t>
+          <t>BCIO:050456</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>administering vaccine</t>
-        </is>
-      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>crying</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease.</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>Vaccination is defined as “a medical intervention that involves adding a vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+          <t>An expressive behaviour that involves tears, and facial expressions of distress.</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/GO_0060273</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:050414</t>
+          <t>BCIO:050815</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>diagnostic healthcare behaviour</t>
-        </is>
-      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>emotionally expressive behaviour</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
+          <t>An expressive behaviour that conveys some emotion.</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:050362</t>
+          <t>BCIO:036021</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>providing healthcare treatment</t>
-        </is>
-      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>creative expressive behaviour</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
+          <t>An expressive behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>An aspect of the environment includes both objects within it but also processes (e.g., music performance or dancing).</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3764,27 +3728,37 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:050363</t>
+          <t>BCIO:050458</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>facial expression behaviour</t>
+        </is>
+      </c>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>providing physical therapy</t>
-        </is>
-      </c>
+      <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
+          <t>An expressive behaviour that involves the muscles of the face.</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/MFOEM_000125</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>If facial expression behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using facial expression’ (BCIO:050425).</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3793,27 +3767,32 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:050367</t>
+          <t>BCIO:050459</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>gesticulatory expressive behaviour</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>providing speech and language therapy</t>
-        </is>
-      </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
+          <t>An expressive behaviour involving a movement of the limbs, head or torso.</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>If the gesticulatory behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using gesture’ (BCIO:036002).</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3822,27 +3801,27 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:050364</t>
+          <t>BCIO:050442</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>vocalisation behaviour</t>
+        </is>
+      </c>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>providing psychological treatment</t>
-        </is>
-      </c>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
+          <t>An expressive behaviour involving vibration of the vocal chords.</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3851,27 +3830,32 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:050365</t>
+          <t>BCIO:050461</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>talking</t>
+        </is>
+      </c>
       <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>providing creative arts therapy</t>
-        </is>
-      </c>
+      <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Providing psychological treatment that involves creative and expressive processes.</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
+          <t>A vocalisation behaviour that expresses something using words.</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3880,27 +3864,27 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:050366</t>
+          <t>BCIO:050832</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>reflective behaviour</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>providing occupational therapy</t>
-        </is>
-      </c>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
+          <t>An individual human behaviour that is caused by a reflective mental process.</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3909,13 +3893,13 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:036024</t>
+          <t>BCIO:050439</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
-          <t>personal bodily care behaviour</t>
+          <t>material entity-related behaviour</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
@@ -3926,31 +3910,26 @@
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>An individual human behaviour that attends to one’s own hygiene, comfort or appearance.</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>Behaviour relating to supporting the personal care of others can be captured under the class 'social support behaviour'.</t>
+          <t>An individual human behaviour that relates to a material entity.</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:050371</t>
+          <t>BCIO:036061</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>dressing behaviour</t>
+          <t>consumption behaviour</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -3960,10 +3939,10 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves wearing clothes providing comfort and protecting oneself from ambient conditions.</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
+          <t>A material entity-related behaviour that involves ingesting material into the body.</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -3972,27 +3951,37 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:050372</t>
+          <t>BCIO:036113</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>appearance-based bodily behaviour</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>substance use behaviour</t>
+        </is>
+      </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that attends to making changes to one's body to achieve a desired appearance.</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
+          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>substance use</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>Substance use behaviour is not equated with substance abuse.</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4001,27 +3990,32 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:050368</t>
+          <t>BCIO:036114</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>bodily hygiene behaviour</t>
-        </is>
-      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>tobacco use behaviour</t>
+        </is>
+      </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that attends to hygiene by cleaning or washing oneself or parts of the body.</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
+          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>tobacco use</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4030,27 +4024,32 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:050370</t>
+          <t>BCIO:036103</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>dental hygiene behaviour</t>
-        </is>
-      </c>
+      <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>tobacco smoking behaviour</t>
+        </is>
+      </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
-          <t>A bodily hygiene behaviour that attends to oral heath by cleaning one's teeth, gums or tongue.</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
+          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>smoking</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4059,27 +4058,27 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:050369</t>
+          <t>BCIO:036105</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>handwashing</t>
-        </is>
-      </c>
+      <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>cigarette smoking behaviour</t>
+        </is>
+      </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
-          <t>A bodily hygiene behaviour that involves cleaning or washing one's hands.</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
+          <t>A tobacco smoking behaviour that involves setting light to one end of a cigarette, putting the other end to the lips and sucking in order to ingest cigarette smoke.</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4088,61 +4087,66 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:050411</t>
+          <t>BCIO:050376</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>sun protective behaviour</t>
-        </is>
-      </c>
+      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>alcohol consumption</t>
+        </is>
+      </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr">
         <is>
-          <t>A personal bodily care behaviour that involves protecting one's skin or eyes from the damaging effects of the sun.</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>‘Sun protective behaviour’ is defined in terms of its goal (to protect oneself from the damaging effects of the sun) and can include very different behaviours, e.g., applying sunscreen and staying in the shade.</t>
+          <t>A substance use behaviour that involves drinking an alcohol-containing product.</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:050819</t>
+          <t>BCIO:050412</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>harm preventing behaviour</t>
-        </is>
-      </c>
+      <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>medication-taking</t>
+        </is>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t>An individual human behaviour that has an outcome to prevent harm.</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
+          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>pharmacological consumption</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4151,27 +4155,27 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:050438</t>
+          <t>BCIO:050396</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>life function-related behaviour</t>
-        </is>
-      </c>
+      <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>transdermal consumption</t>
+        </is>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr">
         <is>
-          <t>An individual human behaviour related to vital bodily functions.</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
+          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4180,61 +4184,61 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:036056</t>
+          <t>BCIO:050415</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>reproductive behaviour</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>self-injecting consumption</t>
+        </is>
+      </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves producing offspring based on combining DNA of two or more people.</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:036054</t>
+          <t>BCIO:050393</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>excretion behaviour</t>
-        </is>
-      </c>
+      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>intravenous self-injecting</t>
+        </is>
+      </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>A life function-related behaviour that involves eliminating excess or harmful chemicals produced by bodily functions.</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
+          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4243,27 +4247,27 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:036057</t>
+          <t>BCIO:050394</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>breathing behaviour</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>inhaling consumption</t>
+        </is>
+      </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr">
         <is>
-          <t>A life function-related behaviour involves providing an appropriate level of oxygenation to body tissues.</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
+          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4272,51 +4276,56 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:006158</t>
+          <t>BCIO:050379</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>habitual behaviour</t>
-        </is>
-      </c>
+      <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>vaping device use</t>
+        </is>
+      </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that results from a learnt stimulus-behaviour co-occurrence.</t>
+          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:050846</t>
+          <t>BCIO:050378</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>behavioural substitution</t>
-        </is>
-      </c>
+      <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>electronic vaping device use</t>
+        </is>
+      </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; in which a person substitutes a more desired behaviour for a less desired behaviour.</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
+          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4325,27 +4334,32 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:050377</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>socially-related behaviour</t>
-        </is>
-      </c>
+      <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>e-cigarette use</t>
+        </is>
+      </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the social environment.</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
+          <t>Inhaling consumption that involves using an e-cigarette.</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4354,27 +4368,27 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:036089</t>
+          <t>BCIO:050395</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>political behaviour</t>
-        </is>
-      </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>sniffing consumption</t>
+        </is>
+      </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
+          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4383,27 +4397,27 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:036072</t>
+          <t>BCIO:050417</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>antisocial behaviour</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>oral consumption</t>
+        </is>
+      </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to be is contrary to the laws or accepted current norms of social conduct within a specific social context and causes annoyance and or disapproval in others.</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
+          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4412,27 +4426,27 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:050810</t>
+          <t>BCIO:050422</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>criminal behaviour</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>drinking</t>
+        </is>
+      </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>An antisocial behaviour that is illegal in a jurisdiction.</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
+          <t>Oral consumption behaviour that involves swallowing a liquid material.</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4441,62 +4455,66 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:036011</t>
+          <t>BCIO:050423</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>social organisation behaviour</t>
-        </is>
-      </c>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>eating</t>
+        </is>
+      </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
-'social structure' can relate to a social network or group.</t>
+          <t>Oral consumption behaviour that involves chewing and swallowing some solid components</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:036084</t>
+          <t>BCIO:036007</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>association behaviour</t>
-        </is>
-      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>environmental system management behaviour</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>A social organisation behaviour that involves increasing a sense of being part of a social group or dyad.</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
+          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>Behaviour that involves changing the physical or social environment.</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4505,27 +4523,32 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:050803</t>
+          <t>BCIO:036005</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>association behaviour with a pro-social group</t>
-        </is>
-      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>object management behaviour</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr">
         <is>
-          <t>An association behaviour that involves increasing a sense of being part of a pro-social group.</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
+          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4534,38 +4557,43 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:006095</t>
+          <t>BCIO:050816</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>normative behaviour</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>environmental sustainability behaviour</t>
+        </is>
+      </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr">
         <is>
-          <t>A &lt;socially-related behaviour&gt; that is commonly enacted by people that are part of a social environmental system.</t>
+          <t>An environmental system management behaviour that contributes to sustaining the ecosystem.</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:050426</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>inter-personal behaviour</t>
+          <t>physical contact behaviour</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -4575,10 +4603,10 @@
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
+          <t>A material-entity related behaviour that makes physical contact with something.</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4587,7 +4615,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:050397</t>
+          <t>BCIO:036028</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
@@ -4595,7 +4623,7 @@
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>social support behaviour</t>
+          <t>physical impact behaviour</t>
         </is>
       </c>
       <c r="F132" t="inlineStr"/>
@@ -4604,10 +4632,10 @@
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
+          <t>A physical contact behaviour that is forceful.</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4616,27 +4644,32 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:036033</t>
+          <t>BCIO:036027</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>object-using behaviour</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>care-giving behaviour</t>
-        </is>
-      </c>
+      <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>A social support behaviour that involves meeting another person’s physical, psychological or social needs that this person is unable to fully meet themselves at a given moment.</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
+          <t>A material-entity related behaviour that uses a non-living object.</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4645,7 +4678,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:050672</t>
+          <t>BCIO:036063</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -4653,7 +4686,7 @@
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>group facilitation behaviour</t>
+          <t>reading behaviour</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
@@ -4662,14 +4695,19 @@
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr">
         <is>
-          <t>An &lt;inter-personal behaviour&gt; of a member of a social group that promotes engagement of members of the group in group behaviours.</t>
+          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:006099</t>
+          <t>BCIO:036062</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
@@ -4677,7 +4715,7 @@
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>social influence behaviour</t>
+          <t>manufacturing behaviour</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
@@ -4686,10 +4724,10 @@
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
+          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4698,27 +4736,27 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:050836</t>
+          <t>BCIO:050427</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>rewarding behaviour</t>
-        </is>
-      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>audio presentation listening behaviour</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr">
         <is>
-          <t>A social influence behaviour in which the person provides a positive stimulus contingent on another person’s behaviour.</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
+          <t>An object-using  behaviour that involves attending to audiomaterial.</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4727,7 +4765,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:036036</t>
+          <t>BCIO:050420</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
@@ -4735,7 +4773,7 @@
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>physical combat behaviour</t>
+          <t>digital interaction behaviour</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
@@ -4744,44 +4782,39 @@
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O137" t="inlineStr">
-        <is>
-          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
+          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:036066</t>
+          <t>BCIO:050418</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>pro-social behaviour</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>watching behaviour</t>
+        </is>
+      </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
+          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4790,16 +4823,16 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:036035</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>economic behaviour</t>
-        </is>
-      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>socially-related behaviour</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
@@ -4807,74 +4840,63 @@
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O139" t="inlineStr">
-        <is>
-          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
-The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
+          <t>An individual human behaviour that relates to the social environment.</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:050837</t>
+          <t>BCIO:006095</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>selling behaviour</t>
-        </is>
-      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>normative behaviour</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr">
         <is>
-          <t>An economic behaviour in which the person provides a service or ownership of a product in exchange for money.</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A &lt;socially-related behaviour&gt; that is commonly enacted by people that are part of a social environmental system.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:050829</t>
+          <t>BCIO:036089</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>purchasing behaviour</t>
-        </is>
-      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>political behaviour</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>An economic behaviour in which the person gives money in exchange for a service or ownership of a product.</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
+          <t>A socially-related behaviour that aims to bring about or oppose political or social change.</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4883,76 +4905,60 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:036110</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>employment behaviour</t>
-        </is>
-      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>inter-personal behaviour</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O142" t="inlineStr">
-        <is>
-          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:036086</t>
+          <t>BCIO:050672</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>nurture behaviour</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>group facilitation behaviour</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr">
         <is>
-          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O143" t="inlineStr">
-        <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
+          <t>An &lt;inter-personal behaviour&gt; of a member of a social group that promotes engagement of members of the group in group behaviours.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:050826</t>
+          <t>BCIO:050397</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -4960,7 +4966,7 @@
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>parenting behaviour</t>
+          <t>social support behaviour</t>
         </is>
       </c>
       <c r="F144" t="inlineStr"/>
@@ -4969,10 +4975,10 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Nurture behaviour that is provided to a young person by someone in a parent role.</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
+          <t>An inter-personal behaviour that involves providing physical, psychological or social assistance to another.</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -4981,27 +4987,27 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BCIO:050832</t>
+          <t>BCIO:036033</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>reflective behaviour</t>
-        </is>
-      </c>
+      <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>care-giving behaviour</t>
+        </is>
+      </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>An individual human behaviour that is caused by a reflective mental process.</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
+          <t>A social support behaviour that involves meeting another person’s physical, psychological or social needs that this person is unable to fully meet themselves at a given moment.</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5010,27 +5016,27 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BCIO:050439</t>
+          <t>BCIO:006099</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>material entity-related behaviour</t>
-        </is>
-      </c>
+      <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>social influence behaviour</t>
+        </is>
+      </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to a material entity.</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
+          <t>An &lt;inter-personal behaviour&gt; where a person exerts an influence on the behaviour of another.</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5039,46 +5045,36 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BCIO:036007</t>
+          <t>BCIO:050836</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>environmental system management behaviour</t>
-        </is>
-      </c>
+      <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>rewarding behaviour</t>
+        </is>
+      </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that involves creating, maintaining, adapting or destroying aspects of the physical or social environment system.</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O147" t="inlineStr">
-        <is>
-          <t>Environmental system is defined as "A system which has the disposition to environ one or more material entities." (http://purl.obolibrary.org/obo/ENVO_01000254). Accordingly, an environmental system is the social and physical environment surrounding a person.</t>
+          <t>A social influence behaviour in which the person provides a positive stimulus contingent on another person’s behaviour.</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>Behaviour that involves changing the physical or social environment.</t>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BCIO:036005</t>
+          <t>BCIO:036036</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
@@ -5086,7 +5082,7 @@
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>object management behaviour</t>
+          <t>physical combat behaviour</t>
         </is>
       </c>
       <c r="F148" t="inlineStr"/>
@@ -5095,44 +5091,44 @@
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>An environmental system management behaviour that involves creating, maintaining, adapting or destroying non-sentient objects.</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O148" t="inlineStr">
-        <is>
-          <t>Objects can include engineered artifacts, organisms, grain of sand and/or molecules. The phrase ‘non-sentient objects’ is used to refer to objects that do not have a central nervous system.</t>
+          <t>An inter-personal behaviour that involves taking part in a physical struggle involving contact or the use of weapons</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>Physical combat behaviour can be aggressive but does not need to be. For instance, people can fight as part of a game.</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BCIO:050816</t>
+          <t>BCIO:036072</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>environmental sustainability behaviour</t>
-        </is>
-      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>antisocial behaviour</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>An environmental system management behaviour that contributes to sustaining the ecosystem.</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
+          <t>A socially-related behaviour that a population judges to be is contrary to the laws or accepted current norms of social conduct within a specific social context and causes annoyance and or disapproval in others.</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5141,61 +5137,56 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BCIO:036027</t>
+          <t>BCIO:050810</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>object-using behaviour</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>criminal behaviour</t>
+        </is>
+      </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that uses a non-living object.</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>Non-living objects can include engineered artifacts, grain of sand and/or molecules.</t>
+          <t>An antisocial behaviour that is illegal in a jurisdiction.</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BCIO:050427</t>
+          <t>BCIO:036066</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>audio presentation listening behaviour</t>
-        </is>
-      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>pro-social behaviour</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr">
         <is>
-          <t>An object-using  behaviour that involves attending to audiomaterial.</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
+          <t>A socially-related behaviour that a population judges to accord with current norms of positive social conduct.</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5204,27 +5195,33 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BCIO:050420</t>
+          <t>BCIO:036011</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>digital interaction behaviour</t>
-        </is>
-      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>social organisation behaviour</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves interacting with programs, procedures, documentation or data on an electronic device.</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
+          <t>A socially-related behaviour that involves a person contributing to the functioning of a social structure or a person in relation to a social structure.</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>In the definition, the term 'contributing' can refer 'joining or integrating into a group or improving or maintaining the functioning within a group'
+'social structure' can relate to a social network or group.</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5233,7 +5230,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BCIO:036063</t>
+          <t>BCIO:036084</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
@@ -5241,7 +5238,7 @@
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>reading behaviour</t>
+          <t>association behaviour</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -5250,10 +5247,10 @@
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from written or printed symbols.</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
+          <t>A social organisation behaviour that involves increasing a sense of being part of a social group or dyad.</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5262,27 +5259,27 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BCIO:036062</t>
+          <t>BCIO:050803</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>manufacturing behaviour</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>association behaviour with a pro-social group</t>
+        </is>
+      </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves making a product from raw materials or parts.</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
+          <t>An association behaviour that involves increasing a sense of being part of a pro-social group.</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5291,27 +5288,33 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BCIO:050418</t>
+          <t>BCIO:036035</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>watching behaviour</t>
-        </is>
-      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>economic behaviour</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>An object-using behaviour that involves deriving meaning from visual or audiovisual material.</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
+          <t>A socially-related behaviour that involves the production, acquisition, distribution or exchange of money, goods or services.</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>behaviours, such as economic behaviour, can involve a series of activities (e.g., more granular behaviours).
+The term 'production' in the definition specifically refers to the 'production of goods and services for value exchange'</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5320,27 +5323,27 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BCIO:050426</t>
+          <t>BCIO:050837</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>physical contact behaviour</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>selling behaviour</t>
+        </is>
+      </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>A material-entity related behaviour that makes physical contact with something.</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr">
+          <t>An economic behaviour in which the person provides a service or ownership of a product in exchange for money.</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5349,7 +5352,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BCIO:036028</t>
+          <t>BCIO:050829</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
@@ -5357,7 +5360,7 @@
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>physical impact behaviour</t>
+          <t>purchasing behaviour</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -5366,10 +5369,10 @@
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr">
         <is>
-          <t>A physical contact behaviour that is forceful.</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
+          <t>An economic behaviour in which the person gives money in exchange for a service or ownership of a product.</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5378,27 +5381,32 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BCIO:036061</t>
+          <t>BCIO:036110</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>consumption behaviour</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>employment behaviour</t>
+        </is>
+      </c>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>A material entity-related behaviour that involves ingesting material into the body.</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
+          <t>An economic behaviour that involves a paid work agreement between an employer and an employee.</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>behaviours', such as employment behaviour, can involve a series of activities (e.g., more granular behaviours).</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5407,27 +5415,33 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BCIO:050417</t>
+          <t>BCIO:036086</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>oral consumption</t>
-        </is>
-      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>nurture behaviour</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves putting a material into one’s mouth and swallowing this material.</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
+          <t>A socially-related behaviour that involves meeting the physical, psychological or social needs of another living being to promote its development.</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>The term 'animal' in the definition includes humans and other animals.
+There can be different dimensions of nurturing, e.g., in some cases, nurturing can involve addressing someone's physical needs (e.g., feeding) but not emotional needs.</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5436,27 +5450,27 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>BCIO:050423</t>
+          <t>BCIO:050826</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>eating</t>
-        </is>
-      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>parenting behaviour</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Oral consumption behaviour that involves chewing and swallowing some solid components</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr">
+          <t>Nurture behaviour that is provided to a young person by someone in a parent role.</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5465,27 +5479,27 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>BCIO:050422</t>
+          <t>BCIO:050846</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
-      <c r="C161" t="inlineStr"/>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>behavioural substitution</t>
+        </is>
+      </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>drinking</t>
-        </is>
-      </c>
+      <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Oral consumption behaviour that involves swallowing a liquid material.</t>
-        </is>
-      </c>
-      <c r="K161" t="inlineStr">
+          <t>An &lt;individual human behaviour&gt; in which a person substitutes a more desired behaviour for a less desired behaviour.</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5494,66 +5508,56 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>BCIO:036113</t>
+          <t>BCIO:050437</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
-      <c r="C162" t="inlineStr"/>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>health-related behaviour</t>
+        </is>
+      </c>
       <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>substance use behaviour</t>
-        </is>
-      </c>
+      <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a psychoactive substance into the body.</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>substance use</t>
-        </is>
-      </c>
-      <c r="O162" t="inlineStr">
-        <is>
-          <t>Substance use behaviour is not equated with substance abuse.</t>
+          <t>An individual human behaviour that relates to health of oneself or others.</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>BCIO:050376</t>
+          <t>BCIO:050413</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>providing healthcare</t>
+        </is>
+      </c>
       <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>alcohol consumption</t>
-        </is>
-      </c>
+      <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves drinking an alcohol-containing product.</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr">
+          <t>A health-related behaviour that involves assessing, monitoring, improving or maintaining an aspect of another person’s health.</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5562,95 +5566,85 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BCIO:036114</t>
+          <t>BCIO:050358</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>tobacco use behaviour</t>
-        </is>
-      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>reviewing prescribed medication</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>A substance use behaviour that involves ingesting constituents of a tobacco-containing product.</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>tobacco use</t>
+          <t>Providing healthcare that involves assessing a person's health or wellbeing after a period of taking a prescribed medication and assessing whether the medication continues to be appropriate.</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>BCIO:036103</t>
+          <t>BCIO:050362</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>providing healthcare treatment</t>
+        </is>
+      </c>
       <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>tobacco smoking behaviour</t>
-        </is>
-      </c>
+      <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr">
         <is>
-          <t>A tobacco use behaviour that involves setting light to a combustible tobacco product and ingesting the tobacco smoke that is produced.</t>
-        </is>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>smoking</t>
+          <t>Providing healthcare that involves interacting with a person to improve or maintain aspects of this person’s health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>BCIO:036105</t>
+          <t>BCIO:050367</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>providing speech and language therapy</t>
+        </is>
+      </c>
       <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>cigarette smoking behaviour</t>
-        </is>
-      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
-          <t>A tobacco smoking behaviour that involves setting light to one end of a cigarette, putting the other end to the lips and sucking in order to ingest cigarette smoke.</t>
-        </is>
-      </c>
-      <c r="K166" t="inlineStr">
+          <t>Providing healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5659,61 +5653,56 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>BCIO:050415</t>
+          <t>BCIO:050364</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>self-injecting consumption</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>providing psychological treatment</t>
+        </is>
+      </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves administering a liquid into one’s body with a needle and a syringe.</t>
-        </is>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O167" t="inlineStr">
-        <is>
-          <t>In the definition, ‘a needle and a springe’ include both a standard needle and syringe but also an autoinjector.</t>
+          <t>Providing healthcare treatment that uses communication or recommended tasks to assess and improve a person’s adaptive mental or behavioural functioning.</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BCIO:050393</t>
+          <t>BCIO:050365</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>intravenous self-injecting</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>providing creative arts therapy</t>
+        </is>
+      </c>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Self-injecting consumption that involves administering liquids into one’s veins.</t>
-        </is>
-      </c>
-      <c r="K168" t="inlineStr">
+          <t>Providing psychological treatment that involves creative and expressive processes.</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5722,27 +5711,27 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>BCIO:050394</t>
+          <t>BCIO:050366</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>inhaling consumption</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>providing occupational therapy</t>
+        </is>
+      </c>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves breathing in a material through the nose or mouth.</t>
-        </is>
-      </c>
-      <c r="K169" t="inlineStr">
+          <t>Providing healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5751,7 +5740,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>BCIO:050379</t>
+          <t>BCIO:050363</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
@@ -5760,7 +5749,7 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr">
         <is>
-          <t>vaping device use</t>
+          <t>providing physical therapy</t>
         </is>
       </c>
       <c r="G170" t="inlineStr"/>
@@ -5768,10 +5757,10 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using a device to consume an aerosol.</t>
-        </is>
-      </c>
-      <c r="K170" t="inlineStr">
+          <t>Providing healthcare treatment that involves advising, encouraging or physically supporting, a person to perform movements that remediate this person’s bodily impairments or promote mobility, function or quality of life.</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5780,27 +5769,32 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>BCIO:050378</t>
+          <t>BCIO:050359</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>administering vaccine</t>
+        </is>
+      </c>
       <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>electronic vaping device use</t>
-        </is>
-      </c>
+      <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves the use of an electronic vaping device.</t>
-        </is>
-      </c>
-      <c r="K171" t="inlineStr">
+          <t>Providing healthcare that involves administering a vaccination to prevent or lower the risk of a disease.</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves adding a vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5809,61 +5803,56 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BCIO:050377</t>
+          <t>BCIO:050361</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>making a referral to another health care service</t>
+        </is>
+      </c>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>e-cigarette use</t>
-        </is>
-      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves using an e-cigarette.</t>
-        </is>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O172" t="inlineStr">
-        <is>
-          <t>E-cigarettes do not necessarily have to include nicotine but can involve inhaling flavourings or other chemicals.</t>
+          <t>Providing healthcare that involves directing a person to another healthcare professional or organisation to assess, monitor, improve or maintain an aspect of this person’s health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>BCIO:050395</t>
+          <t>BCIO:050352</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>sniffing consumption</t>
-        </is>
-      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>providing healthcare testing</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Inhaling consumption that involves breathing in a material through the nose.</t>
-        </is>
-      </c>
-      <c r="K173" t="inlineStr">
+          <t>Providing a healthcare that involves a procedure to assess another person’s health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5872,27 +5861,27 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>BCIO:050396</t>
+          <t>BCIO:050353</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>transdermal consumption</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>providing health screening</t>
+        </is>
+      </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves applying a material to the skin and ingesting this material into the circulation through the skin.</t>
-        </is>
-      </c>
-      <c r="K174" t="inlineStr">
+          <t>Providing healthcare testing to detect the presence of a health condition in a person who is asymptomatic for that condition.</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5901,7 +5890,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>BCIO:050412</t>
+          <t>BCIO:050360</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
@@ -5909,7 +5898,7 @@
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>medication-taking</t>
+          <t>providing healthcare advice</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -5918,49 +5907,44 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>A consumption behaviour that involves ingesting a medicine to treat or relieve symptoms of a health condition or maintain an aspect of health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>pharmacological consumption</t>
-        </is>
-      </c>
-      <c r="O175" t="inlineStr">
-        <is>
-          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)</t>
+          <t>Providing healthcare that involves communicating guidance or recommendations to improve or maintain another person’s health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>BCIO:050443</t>
+          <t>BCIO:050414</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>experience-related behaviour</t>
-        </is>
-      </c>
+      <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>diagnostic healthcare behaviour</t>
+        </is>
+      </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr">
         <is>
-          <t>An &lt;individual human behaviour&gt; that relates to something the person experiences.</t>
-        </is>
-      </c>
-      <c r="K176" t="inlineStr">
+          <t>Providing healthcare that involves assessing symptoms and signs in order to detect the nature of a health condition.</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>Symptoms are experienced or felt by the individual (e.g., pain or a rash), while signs are observed or detected by the healthcare professional (e.g., low blood sugar). There can be overlap between symptoms and signs, as some symptoms can be observed or detected by a healthcare professional.</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -5969,61 +5953,56 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>BCIO:036030</t>
+          <t>BCIO:050354</t>
         </is>
       </c>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>sexual behaviour</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>prescribing behaviour</t>
+        </is>
+      </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves sexual arousal.</t>
-        </is>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O177" t="inlineStr">
-        <is>
-          <t>The classes 'reproductive behaviour' and 'sexual behaviour' have some instances in which they would overlap. For instance, a subclass of both of these classes would be 'reproductive sexual behaviour'. Examples for 'reproductive sexual behaviour' can be annotated by using the two classes: 'reproductive behaviour' and 'sexual behaviour'. There are also various examples in which the classes 'reproductive behaviour' does not overlap with sexual behaviour. For instance, fertility preservation would be a reproductive behaviour but not a sexual behaviour. Similarly, various sexual behaviours do not have a reproductive function. For instance, performing oral sex may not have a reproductive function.</t>
+          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>BCIO:036112</t>
+          <t>BCIO:050357</t>
         </is>
       </c>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>spiritual behaviour</t>
-        </is>
-      </c>
+      <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>social prescribing</t>
+        </is>
+      </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed in line with a belief system that is grounded in reverence for a supernatural power or powers and provides meaning in life.</t>
-        </is>
-      </c>
-      <c r="K178" t="inlineStr">
+          <t>Prescribing behaviour that involves advising and authorising the participation in services targeting social, economic or environmental factors that affect health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6032,27 +6011,33 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>BCIO:036047</t>
+          <t>BCIO:050355</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>enjoyment behaviour</t>
-        </is>
-      </c>
+      <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>prescribing medication</t>
+        </is>
+      </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is performed to experience pleasure or satisfaction.</t>
-        </is>
-      </c>
-      <c r="K179" t="inlineStr">
+          <t>Prescribing behaviour that involves advising and authorising the use of a medicine.</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>Medicine is defined as type of drug, i.e., ‘any substance which when absorbed into a living organism may modify one or more of its functions.’ (http://purl.obolibrary.org/obo/CHEBI_23888)
+Prescribing medication can include advising and authorising to stop using a medicine.</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6061,27 +6046,27 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>BCIO:036073</t>
+          <t>BCIO:050356</t>
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>avoidance behaviour</t>
-        </is>
-      </c>
+      <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>prescribing behavioural regime</t>
+        </is>
+      </c>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves taking defensive action in order to avoid some stimulus judged to be aversive by the person.</t>
-        </is>
-      </c>
-      <c r="K180" t="inlineStr">
+          <t>Prescribing behaviour that involves advising and authorising the performance of a behaviour or a series of behaviours.</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6090,14 +6075,14 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>BCIO:036041</t>
+          <t>BCIO:050410</t>
         </is>
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
-          <t>mind-body behaviour</t>
+          <t>self-monitoring an aspect of health</t>
         </is>
       </c>
       <c r="E181" t="inlineStr"/>
@@ -6107,10 +6092,10 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that aims to create a sense of interconnectedness between the mind and the body.</t>
-        </is>
-      </c>
-      <c r="K181" t="inlineStr">
+          <t>A health-related behaviour that uses a method to monitor and record an indicator of one’s health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6119,14 +6104,14 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>BCIO:050421</t>
+          <t>BCIO:036042</t>
         </is>
       </c>
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
-          <t>distress minimisation behaviour</t>
+          <t>physical performance behaviour</t>
         </is>
       </c>
       <c r="E182" t="inlineStr"/>
@@ -6136,31 +6121,26 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves avoiding, reducing or escaping anxiety, stress, sorrow, shame and unhappiness.</t>
-        </is>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>distress minimization behaviour</t>
+          <t>A health-related behaviour that involves maintenance or improvement of flexibility, strength, balance or cardiovascular fitness.</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>BCIO:050841</t>
+          <t>BCIO:050821</t>
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr">
         <is>
-          <t>approach behaviour</t>
+          <t>health-promoting behaviour</t>
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
@@ -6170,10 +6150,15 @@
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves taking action to engage with some stimulus that is judged to be rewarding by the person.</t>
-        </is>
-      </c>
-      <c r="K183" t="inlineStr">
+          <t>A health-related behaviour that improves the person’s health.</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>This class is for behaviour that promote positive health as well as protect against threats to health.</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6182,14 +6167,14 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>BCIO:050834</t>
+          <t>BCIO:050399</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
-          <t>regulatory behaviour</t>
+          <t>utilising healthcare</t>
         </is>
       </c>
       <c r="E184" t="inlineStr"/>
@@ -6199,24 +6184,24 @@
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves monitoring and acting upon some parts of the person or their environment.</t>
-        </is>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O184" t="inlineStr">
-        <is>
-          <t>Environment here includes the social and physical environment and includes behaviours involved in monitoring of others or self, action planning, and goal setting.</t>
+          <t>A health-related behaviour that involves interacting with a healthcare provider in order to assess, monitor, improve or maintain an aspect of one's health.</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>A ‘healthcare provider’ can be a person or organisation</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>BCIO:050811</t>
+          <t>BCIO:050400</t>
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
@@ -6224,7 +6209,7 @@
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>cue management behaviour</t>
+          <t>arranging a healthcare service appointment</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -6233,10 +6218,10 @@
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr">
         <is>
-          <t>A regulatory behaviour in which cues that prompt a behaviour pattern are added, altered or removed.</t>
-        </is>
-      </c>
-      <c r="K185" t="inlineStr">
+          <t>Utilising healthcare that involves scheduling a time to interact with a person or organisation providing healthcare.</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6245,27 +6230,27 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>BCIO:036008</t>
+          <t>BCIO:050404</t>
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>learning behaviour</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>participating in healthcare treatment</t>
+        </is>
+      </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that involves improving knowledge or skill.</t>
-        </is>
-      </c>
-      <c r="K186" t="inlineStr">
+          <t>Utilising healthcare that involves engaging with a treatment regimen to improve or maintain aspects of one's health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6274,27 +6259,27 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>BCIO:036039</t>
+          <t>BCIO:050408</t>
         </is>
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>skill development behaviour</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>participating in occupational therapy</t>
+        </is>
+      </c>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving the ability to perform physical, psychological or social activities.</t>
-        </is>
-      </c>
-      <c r="K187" t="inlineStr">
+          <t>Participating in healthcare treatment that aims to enable people to participate in the activities of everyday life.</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6303,41 +6288,36 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>BCIO:050291</t>
+          <t>BCIO:050405</t>
         </is>
       </c>
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>knowledge development behaviour</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>participating in physical therapy</t>
+        </is>
+      </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>A learning behaviour that involves improving a person's knowledge.</t>
-        </is>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>information acquisition behaviour; knowledge seeking behaviour</t>
+          <t>Participating in healthcare treatment that involves advice, encouragement, or physical support to perform movements that remediate one’s bodily impairments or promote mobility, function or quality of life.</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>BCIO:050825</t>
+          <t>BCIO:050409</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -6346,7 +6326,7 @@
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr">
         <is>
-          <t>monitoring behaviour</t>
+          <t>participating in speech and language therapy</t>
         </is>
       </c>
       <c r="G189" t="inlineStr"/>
@@ -6354,44 +6334,39 @@
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>A knowledge development behaviour that involves gathering information over a period of time.</t>
-        </is>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O189" t="inlineStr">
-        <is>
-          <t>This is often used in relation to regulatory behaviour, either oneself or others. 'Monitoring behaviour' has part 'regulatory behaviour'</t>
+          <t>Participating in healthcare treatment that aims to improve or restore communication, eating, drinking or swallowing.</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>BCIO:050807</t>
+          <t>BCIO:050406</t>
         </is>
       </c>
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>carer monitoring of child behaviour</t>
-        </is>
-      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>participating in psychological treatment</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>A monitoring behaviour in which a carer gathers information about the activities of some child in their care.</t>
-        </is>
-      </c>
-      <c r="K190" t="inlineStr">
+          <t>Participating in healthcare treatment that uses communication or recommended tasks to assess and improve adaptive mental or behavioural functioning.</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6400,27 +6375,27 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>BCIO:050824</t>
+          <t>BCIO:050407</t>
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>knowledge acquisition about reducing harmful behaviours</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>participating in creative arts therapy</t>
+        </is>
+      </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>A knowledge development behaviour where the knowledge is about how to reduce or avoid a harmful behaviour.</t>
-        </is>
-      </c>
-      <c r="K191" t="inlineStr">
+          <t>Participating in psychological treatment that involves creative and expressive processes.</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6429,27 +6404,27 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>BCIO:050813</t>
+          <t>BCIO:050801</t>
         </is>
       </c>
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>emotional behaviour</t>
-        </is>
-      </c>
+      <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>adherence to healthcare treatment</t>
+        </is>
+      </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr">
         <is>
-          <t>An experience-related behaviour that is caused by an emotion process.</t>
-        </is>
-      </c>
-      <c r="K192" t="inlineStr">
+          <t>Participating in healthcare treatment in accordance with treatment instructions.</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6458,27 +6433,32 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>BCIO:050809</t>
+          <t>BCIO:050401</t>
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>coping behaviour</t>
-        </is>
-      </c>
+      <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr"/>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>participating in healthcare testing</t>
+        </is>
+      </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr">
         <is>
-          <t>An individual human behaviour that has the goal to reduce harm or discomfort.</t>
-        </is>
-      </c>
-      <c r="K193" t="inlineStr">
+          <t>Utilising healthcare that involves participating in a healthcare procedure to assess or monitor an aspect of one’s health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Healthcare procedure is defined as ‘a healthcare intervention that refers to any series of pre-defined steps that should be followed to achieve a desired result.’ </t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6487,27 +6467,27 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
+          <t>BCIO:050402</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
+      <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>participating in health screening</t>
+        </is>
+      </c>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
-        </is>
-      </c>
-      <c r="K194" t="inlineStr">
+          <t>Participating in healthcare testing to detect the presence of a health condition while asymptomatic for that condition.</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6516,27 +6496,32 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>BCIO:050815</t>
+          <t>BCIO:050403</t>
         </is>
       </c>
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>emotionally expressive behaviour</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>undergoing vaccination</t>
+        </is>
+      </c>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>An expressive behaviour that conveys some emotion.</t>
-        </is>
-      </c>
-      <c r="K195" t="inlineStr">
+          <t>Utilising healthcare that involves interacting with a healthcare provider to receive a vaccination to prevent or lower the risk of a disease.</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>Vaccination is defined as “a medical intervention that involves in adding vaccine into a host (e.g., human, mouse) in vivo with the intent to invoke an adaptive immune response.” (http://purl.obolibrary.org/obo/VO_0000002)</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6545,16 +6530,16 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>BCIO:050459</t>
+          <t>BCIO:006158</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>gesticulatory expressive behaviour</t>
-        </is>
-      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>habitual behaviour</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
@@ -6562,33 +6547,23 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving a movement of the limbs, head or torso.</t>
-        </is>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O196" t="inlineStr">
-        <is>
-          <t>If the gesticulatory behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using gesture’ (BCIO:036002).</t>
+          <t>An &lt;individual human behaviour&gt; that results from a learnt stimulus-behaviour co-occurrence.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
+          <t>BCIO:050440</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
-      <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>laughing</t>
-        </is>
-      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>position-related behaviour</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
@@ -6596,10 +6571,10 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
-        </is>
-      </c>
-      <c r="K197" t="inlineStr">
+          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6608,14 +6583,14 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>BCIO:050456</t>
+          <t>BCIO:036029</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
-          <t>crying</t>
+          <t>posture behaviour</t>
         </is>
       </c>
       <c r="E198" t="inlineStr"/>
@@ -6625,44 +6600,39 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves tears, and facial expressions of distress.</t>
-        </is>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N198" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/GO_0060273</t>
+          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:036067</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
       <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>lying down</t>
+        </is>
+      </c>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="K199" t="inlineStr">
+          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6671,7 +6641,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>BCIO:050238</t>
+          <t>BCIO:036069</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
@@ -6679,7 +6649,7 @@
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>sitting</t>
         </is>
       </c>
       <c r="F200" t="inlineStr"/>
@@ -6688,10 +6658,10 @@
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
-        </is>
-      </c>
-      <c r="K200" t="inlineStr">
+          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6700,27 +6670,32 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>BCIO:050424</t>
+          <t>BCIO:050460</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr"/>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using body language</t>
-        </is>
-      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>postural expressive behaviour</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour that involves expressing thoughts or feelings through bodily movement or posture.</t>
-        </is>
-      </c>
-      <c r="K201" t="inlineStr">
+          <t>A posture behaviour that is expressive.</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6729,27 +6704,27 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>BCIO:050375</t>
+          <t>BCIO:036068</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr"/>
-      <c r="E202" t="inlineStr"/>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>reclining</t>
+        </is>
+      </c>
       <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using eye contact</t>
-        </is>
-      </c>
+      <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language characterised by the meeting of eyes with another individual.</t>
-        </is>
-      </c>
-      <c r="K202" t="inlineStr">
+          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6758,61 +6733,62 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>BCIO:036002</t>
+          <t>BCIO:036070</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr"/>
-      <c r="E203" t="inlineStr"/>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>standing</t>
+        </is>
+      </c>
       <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using gesture</t>
-        </is>
-      </c>
+      <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using body language involving a deliberately chosen movement of the head, neck, torso, or limbs to express an idea or feeling.</t>
-        </is>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O203" t="inlineStr">
-        <is>
-          <t>Gestures are deliberately chosen by the person to communicate some message.  The meaning of a gesture may differ across different cultures.</t>
+          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>BCIO:050425</t>
+          <t>BCIO:036059</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
       <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>travel behaviour</t>
+        </is>
+      </c>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using facial expression</t>
-        </is>
-      </c>
+      <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Non-linguistic communication behaviour using body language that involves movements of facial muscles to express thoughts or feelings.</t>
-        </is>
-      </c>
-      <c r="K204" t="inlineStr">
+          <t>A position-related behaviour that involves changing physical location.</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>Travel refers to some form of relocation from a place or position to another.
+The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6821,27 +6797,27 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>BCIO:050373</t>
+          <t>BCIO:036064</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr"/>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour using vocalisations</t>
-        </is>
-      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>transporting behaviour</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>A non-linguistic communication behaviour using one's voice to produce sounds.</t>
-        </is>
-      </c>
-      <c r="K205" t="inlineStr">
+          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6850,27 +6826,27 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:036026</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="inlineStr"/>
-      <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>locomotive behaviour</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="K206" t="inlineStr">
+          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6879,50 +6855,45 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>BCIO:036021</t>
+          <t>BCIO:036108</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>creative expressive behaviour</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>walking</t>
+        </is>
+      </c>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves consciously using some capability to create or shape an aspect of the environment to express an idea or emotion.</t>
-        </is>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O207" t="inlineStr">
-        <is>
-          <t>An aspect of the environment includes both objects within it but also processes (e.g., music performance or dancing).</t>
+          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>BCIO:050442</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr"/>
+          <t>BCIO:050806</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>behavioural consequence</t>
+        </is>
+      </c>
       <c r="C208" t="inlineStr"/>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>vocalisation behaviour</t>
-        </is>
-      </c>
+      <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
@@ -6930,10 +6901,10 @@
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr">
         <is>
-          <t>An expressive behaviour involving vibration of the vocal chords.</t>
-        </is>
-      </c>
-      <c r="K208" t="inlineStr">
+          <t>An entity that is an outcome of behaviour.</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -6942,48 +6913,43 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>BCIO:050461</t>
+          <t>BCIO:050900</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
-      <c r="C209" t="inlineStr"/>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>social behavioural consequence</t>
+        </is>
+      </c>
       <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>talking</t>
-        </is>
-      </c>
+      <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr">
         <is>
-          <t>A vocalisation behaviour that expresses something using words.</t>
-        </is>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O209" t="inlineStr">
-        <is>
-          <t>If talking is enacted when communicating with someone, please refer to the class labelled ‘linguistic communication behaviour’ (BCIO:050237)</t>
+          <t>A behavioural consequence of a member of the person’s social environmental system.</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>BCIO:050458</t>
+          <t>BCIO:050899</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr">
         <is>
-          <t>facial expression behaviour</t>
+          <t>family behavioural consequence</t>
         </is>
       </c>
       <c r="E210" t="inlineStr"/>
@@ -6993,38 +6959,28 @@
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the muscles of the face.</t>
-        </is>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="N210" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/MFOEM_000125</t>
-        </is>
-      </c>
-      <c r="O210" t="inlineStr">
-        <is>
-          <t>If facial expression behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using facial expression’ (BCIO:050425).</t>
+          <t>A social behavioural consequence of some family member.</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>BCIO:050812</t>
+          <t>BCIO:050901</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>domestic behaviour</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr"/>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>wider community behavioural consequence</t>
+        </is>
+      </c>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
@@ -7032,10 +6988,10 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>An individual human behaviour within a residential facility.</t>
-        </is>
-      </c>
-      <c r="K211" t="inlineStr">
+          <t>A social behavioural consequence that is beyond the person’s family.</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7044,13 +7000,13 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>BCIO:050440</t>
+          <t>BCIO:050828</t>
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="inlineStr">
         <is>
-          <t>position-related behaviour</t>
+          <t>positive behavioural consequence</t>
         </is>
       </c>
       <c r="D212" t="inlineStr"/>
@@ -7061,10 +7017,10 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>An individual human behaviour that relates to the enactor's posture or location.</t>
-        </is>
-      </c>
-      <c r="K212" t="inlineStr">
+          <t>A behavioural consequence that is positively evaluated by an individual or a population.</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7073,16 +7029,16 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>BCIO:036059</t>
+          <t>BCIO:050919</t>
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
-      <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>travel behaviour</t>
-        </is>
-      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>negative behavioural consequence</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
@@ -7090,45 +7046,34 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves changing physical location.</t>
-        </is>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O213" t="inlineStr">
-        <is>
-          <t>Travel refers to some form of relocation from a place or position to another.
-The classes 'travel behaviour' and 'locomotive behaviour' have many instances in which they overlap. However, there are also examples where these classes are not the same. For instance, running on a treadmill is a locomotive behaviour but not a travel behaviour.</t>
+          <t>A behavioural consequence that is negatively evaluated by an individual or a population.</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>BCIO:036064</t>
+          <t>BCIO:050823</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
-      <c r="C214" t="inlineStr"/>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>impact of behaviour on environment</t>
+        </is>
+      </c>
       <c r="D214" t="inlineStr"/>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>transporting behaviour</t>
-        </is>
-      </c>
+      <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr">
         <is>
-          <t>A travel behaviour that involves moving an object in addition toother than the actor.</t>
-        </is>
-      </c>
-      <c r="K214" t="inlineStr">
+          <t>A behavioural consequence that involves an outcome relating to the environment system.</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7137,16 +7082,16 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>BCIO:036029</t>
+          <t>BCIO:050820</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
-      <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>posture behaviour</t>
-        </is>
-      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>harm prevention</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
@@ -7154,10 +7099,10 @@
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr">
         <is>
-          <t>A position-related behaviour that involves adopting a body configuration in relation to the immediate environment.</t>
-        </is>
-      </c>
-      <c r="K215" t="inlineStr">
+          <t>A behavioural consequence in which harm is prevented.</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7166,119 +7111,134 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>BCIO:036067</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr"/>
+          <t>BCIO:006085</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>lying down</t>
-        </is>
-      </c>
+      <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr">
         <is>
-          <t>A posture behaviour that involves being in a horizontal position on a supporting surface</t>
-        </is>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A spatial &lt;quality&gt; that inheres in a bearer by virtue of its position relative to other entities.</t>
+        </is>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
+        </is>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>Where a person, animal or object is.</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>BCIO:036070</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr"/>
+          <t>BCIO:050300</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>personal attribute</t>
+        </is>
+      </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr"/>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>standing</t>
-        </is>
-      </c>
+      <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one has or is maintaining an upright position while supported by one's feet</t>
-        </is>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A specifically dependent continuant that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Attributes included under this header are age, immigration, social and economic conditions. </t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>population</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>BCIO:050460</t>
+          <t>BCIO:050451</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
-      <c r="C218" t="inlineStr"/>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>abstinence from a behaviour</t>
+        </is>
+      </c>
       <c r="D218" t="inlineStr"/>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>postural expressive behaviour</t>
-        </is>
-      </c>
+      <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr">
         <is>
-          <t>A posture behaviour that is expressive.</t>
-        </is>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A personal attribute in which a person does not engage in a behaviour during a time period.</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>If postural behaviour is enacted when communicating with someone, please refer to the class labelled ‘non-linguistic communication behaviour using body language’ (BCIO:050424)</t>
+          <t>Not performing a behaviour for some period of time.</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>BCIO:036069</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr"/>
+          <t>BCIO:042000</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>sitting</t>
-        </is>
-      </c>
+      <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks rather than one's feet, and in which one's back is upright.</t>
-        </is>
-      </c>
-      <c r="K219" t="inlineStr">
+          <t>A process that is an individual human behaviour or a population behaviour.</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7287,45 +7247,40 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>BCIO:036068</t>
+          <t>BCIO:002000</t>
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
-      <c r="C220" t="inlineStr"/>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>behaviour change intervention outcome behaviour</t>
+        </is>
+      </c>
       <c r="D220" t="inlineStr"/>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>reclining</t>
-        </is>
-      </c>
+      <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr">
         <is>
-          <t>A posture behaviour in which one's weight is supported by one's buttocks and back rather than one's feet, and in which one's back rests on a surface at an angle that is greater than 90 degrees and less than 180 degrees.</t>
-        </is>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Human behaviour that is an intervention outcome.</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>BCIO:036026</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr"/>
+          <t>BCIO:050830</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>reducing discomfort</t>
+        </is>
+      </c>
       <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>locomotive behaviour</t>
-        </is>
-      </c>
+      <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
@@ -7333,10 +7288,15 @@
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr">
         <is>
-          <t>A position-related behaviour in which muscles are used by a person to move themselves relative to the immediate environment or part of it.</t>
-        </is>
-      </c>
-      <c r="K221" t="inlineStr">
+          <t>A process in which physical or mental uneasiness or distress is reduced.</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>distress minimisation behaviour</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7345,27 +7305,42 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>BCIO:036108</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr"/>
+          <t>BCIO:050209</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>individual human behaviour change</t>
+        </is>
+      </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>walking</t>
-        </is>
-      </c>
+      <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr">
         <is>
-          <t>A locomotive behaviour that involves moving at a regular pace by lifting and setting down each foot in turn, never having both feet off the ground at once.</t>
-        </is>
-      </c>
-      <c r="K222" t="inlineStr">
+          <t>A process that results in a difference in enactment of some individual human behaviour or individual human behaviour pattern from what would have been the case otherwise.</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>behaviour change</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>The term 'change' in behaviour change refers to change from what would have happened in the absence of a causal process. Thus. a process that results in a behaviour (e.g. going to the gym) being maintained when otherwise it would have lapsed is included in the class, as is not taking up smoking as a result of some intervention. behaviour change can refer to individual behaviours (e.g. attending a breast cancer screening appointment) or behaviour patterns (e.g. regular consumption of alcoholic beverages).</t>
+        </is>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>Changing a behaviour or behaviour pattern from what would have happened otherwise.</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7374,13 +7349,13 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>BCIO:036075</t>
+          <t>BCIO:050207</t>
         </is>
       </c>
       <c r="B223" t="inlineStr"/>
       <c r="C223" t="inlineStr">
         <is>
-          <t>harmful behaviour</t>
+          <t>individual human behaviour pattern cessation</t>
         </is>
       </c>
       <c r="D223" t="inlineStr"/>
@@ -7391,10 +7366,20 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>An individual human behaviour that causes net harm.</t>
-        </is>
-      </c>
-      <c r="K223" t="inlineStr">
+          <t>Individual human behaviour change that involves a person, who enacted a behaviour pattern until a specific timepoint, not performing this behaviour for a duration after that specific timepoint.</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>behavioural cessation; cessation of a behaviour pattern</t>
+        </is>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>Having stopped engaging in a behaviour pattern for a period of time.</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7403,14 +7388,14 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>BCIO:050398</t>
+          <t>BCIO:050208</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr">
         <is>
-          <t>harmful behaviour to others</t>
+          <t>tobacco use cessation</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
@@ -7420,25 +7405,30 @@
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves interacting with another animal  and thereby causing harm to its health, wellbeing or social functioning.</t>
-        </is>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>Individual human behaviour pattern cessation in which the behaviour pattern is tobacco use.</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As with the parent class 'individual human behaviour pattern cessation'  this class can only be identified after the duration for which cessation has occurred has elapsed and it is necessary to specify this period for the class to be meaningful.
+</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>The term 'animal' in the definition includes humans and other animals.
-‘Harmful behaviour to others’ will involve a direct interaction between the person performing the behaviour and the person or animal that is negatively affected.</t>
+          <t>Cessation of tobacco use for a period of time.</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>BCIO:036037</t>
+          <t>BCIO:050269</t>
         </is>
       </c>
       <c r="B225" t="inlineStr"/>
@@ -7446,7 +7436,7 @@
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr">
         <is>
-          <t>harassment behaviour</t>
+          <t>tobacco smoking cessation</t>
         </is>
       </c>
       <c r="F225" t="inlineStr"/>
@@ -7455,10 +7445,10 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Harmful behaviour to others that entails intentionally targeting someone with a behaviour that has the effect of causing distress in the targeted person.</t>
-        </is>
-      </c>
-      <c r="K225" t="inlineStr">
+          <t>Tobacco use cessation in which the form of tobacco use is tobacco smoking.</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7467,7 +7457,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>BCIO:036032</t>
+          <t>BCIO:050311</t>
         </is>
       </c>
       <c r="B226" t="inlineStr"/>
@@ -7476,7 +7466,7 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr">
         <is>
-          <t>bullying behaviour</t>
+          <t>cigarette smoking cessation</t>
         </is>
       </c>
       <c r="G226" t="inlineStr"/>
@@ -7484,33 +7474,28 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>A harassment behaviour that involves targeting someone through deliberate misuse of power in a relationship to inflict physical, social or psychological harm.</t>
-        </is>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O226" t="inlineStr">
-        <is>
-          <t>While bullying behaviours can be directed at anyone, they are often aimed at certain people because of their race, religion, gender or sexual orientation or any other aspect such as appearance or disability (https://www.ncab.org.au/bullying-advice/bullying-for-parents/definition-of-bullying/).</t>
+          <t>Tobacco smoking cessation in which the form of tobacco smoking is cigarette smoking.</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>BCIO:036014</t>
+          <t>BCIO:050575</t>
         </is>
       </c>
       <c r="B227" t="inlineStr"/>
-      <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>self-injury behaviour</t>
-        </is>
-      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>behaviour change through group norm</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
@@ -7518,32 +7503,27 @@
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr">
         <is>
-          <t>A harmful behaviour that involves intentionally causing oneself physical harm.</t>
-        </is>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>behaviour</t>
-        </is>
-      </c>
-      <c r="O227" t="inlineStr">
-        <is>
-          <t>There can be different reasons for engaging in self-injury behaviours, including to deal with difficult feelings and memories.</t>
+          <t>An &lt;individual human behaviour change&gt; resulting from exposure to a group behavioural norm.</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>BCIO:050818</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr"/>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>goal-directed behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:050831</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>reducing harm</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
@@ -7552,10 +7532,15 @@
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr">
         <is>
-          <t>An individual human behaviour that has a behavioural goal.</t>
-        </is>
-      </c>
-      <c r="K228" t="inlineStr">
+          <t>A process in which damage or injury is reduced.</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>harmful behaviour</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>
@@ -7564,16 +7549,16 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>BCIO:050920</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr"/>
+          <t>BCIO:050416</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>behavioural disposition</t>
+        </is>
+      </c>
       <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>opportunity-seeking behaviour</t>
-        </is>
-      </c>
+      <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
@@ -7581,23 +7566,33 @@
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour whose goal is to search for and find opportunities that help meet needs or support attaining goals.</t>
+          <t>A bodily disposition that is realised as some behaviour.</t>
+        </is>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>A tendency to behave in a particular way.</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>BCIO:050840</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr"/>
+          <t>BCIO:050455</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>behavioural duration</t>
+        </is>
+      </c>
       <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>threat-reducing behaviour</t>
-        </is>
-      </c>
+      <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr"/>
@@ -7605,33 +7600,33 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour that has a goal to reduce threat.</t>
-        </is>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>behaviour</t>
+          <t>A temporal interval within which an individual human behaviour occurs.</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Reducing a threat involves trying to reduce the harm of something that may occur in the future.</t>
+          <t>The time between the start and end of a behaviour.</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>behaviour</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>BCIO:050802</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr"/>
+          <t>BCIO:050449</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>abstinence duration</t>
+        </is>
+      </c>
       <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>approval seeking behaviour</t>
-        </is>
-      </c>
+      <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr"/>
@@ -7639,10 +7634,15 @@
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr">
         <is>
-          <t>A goal-directed behaviour whose goal is to obtain the approval of another person.</t>
-        </is>
-      </c>
-      <c r="K231" t="inlineStr">
+          <t>A temporal interval during which a person is abstinent from a behaviour.</t>
+        </is>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>The time a person is abstinent from a behaviour.</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
         <is>
           <t>behaviour</t>
         </is>

--- a/Behaviour/BCIO-behaviour-hierarchy.xlsx
+++ b/Behaviour/BCIO-behaviour-hierarchy.xlsx
@@ -629,7 +629,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t. (axiom label in BFO2 Reference: [017-002])</t>
+          <t>A continuant that is a bearer of quality and realizable entity entities, in which other entities inhere and which itself cannot inhere in anything.</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
+          <t>An &lt;independent continuant&gt; that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization.</t>
+          <t>Un établissement de santé qui a pour fonction d'entreposer, préparer, distribuer et surveiller l'utilisation des médicaments parmi les patients d'une zone géographique donnée ou suivis dans une organisation de soin donnée.</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>A human or collection of humans that occupies a housing unit by storing their possessions there and habitually sleeping there thereby participating in the realization of that housing unit's residence function.</t>
+          <t>A human or collection of humans that occupies a housing unit by storing their possessions there and habitually sleeping there thereby participating in the realization of its residence function.</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>fiat object part</t>
+          <t>fiat object</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -2482,7 +2482,7 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>human being</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -4533,7 +4533,7 @@
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>characteristic</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
@@ -4546,7 +4546,7 @@
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
-          <t>b is a relational specifically dependent continuant = Def. b is a specifically dependent continuant and there are n &amp;gt; 1 independent continuants c1, … cn which are not spatial regions are such that for all 1  i &amp;lt; j  n, ci  and cj share no common parts, are such that for each 1  i  n, b s-depends_on ci at every time t during the course of b’s existence (axiom label in BFO2 Reference: [131-004])</t>
+          <t>b is a specifically dependent continuant = Def. b is a continuant and there is some independent continuant c which is not a spatial region and which is such that b s-depends_on c at every time t during the course of b’s existence. (axiom label in BFO2 Reference: [050-003])</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5206,7 @@
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
-          <t>A &lt;disposition&gt; that inheres in some extended organism.</t>
+          <t>A bodily disposition is a disposition that inheres in some extended organism. Examples are: my disposition to catch a cold when exposed to a virus, my ability to speak the English language.</t>
         </is>
       </c>
     </row>
@@ -5544,7 +5544,7 @@
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
-          <t>A &lt;bodily disposition&gt; that is realized in a mental process.</t>
+          <t>A bodily disposition that is realized in a mental process.</t>
         </is>
       </c>
     </row>
@@ -5851,7 +5851,7 @@
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
-          <t>A realizable entity  the manifestation of which brings about some result or end that is not essential to a continuant  in virtue of the kind of thing that it is but that can be served or participated in by that kind of continuant  in some kinds of natural, social or institutional contexts.</t>
+          <t>b is a role means: b is a realizable entity and b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to beand b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed.</t>
         </is>
       </c>
     </row>
@@ -6288,7 +6288,7 @@
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
-          <t>a role which inheres in a person and is realized by the process of being under the care of a physician or health care provider</t>
+          <t>A role which inheres in a person and is realized by being under the care of a physician or health care provider.</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6756,7 @@
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
-          <t>A cognitive representation of themselves by a person or a group about themselves.</t>
+          <t>A cognitive representation of themselves by a person or group.</t>
         </is>
       </c>
     </row>
@@ -8700,7 +8700,7 @@
       <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
-          <t>b is a generically dependent continuant = Def. b is a continuant that g-depends_on one or more other entities. (axiom label in BFO2 Reference: [074-001])</t>
+          <t>A continuant that is dependent on one or other independent continuant bearers. For every instance of A requires some instance of (an independent continuant type) B but which instance of B serves can change from time to time.</t>
         </is>
       </c>
     </row>
@@ -16907,7 +16907,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>BCIO:015722</t>
+          <t>BCIO:015604</t>
         </is>
       </c>
       <c r="B633" t="inlineStr"/>
@@ -16917,7 +16917,7 @@
       <c r="F633" t="inlineStr"/>
       <c r="G633" t="inlineStr">
         <is>
-          <t>socioeconomic status category population statistic</t>
+          <t>personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
       <c r="H633" t="inlineStr"/>
@@ -16926,14 +16926,14 @@
       <c r="K633" t="inlineStr"/>
       <c r="L633" t="inlineStr">
         <is>
-          <t>A population statistic about socioeconomic status category.</t>
+          <t>A population statistic about personal history of intervention exposure for the same outcome.</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>BCIO:015724</t>
+          <t>BCIO:015606</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -16944,7 +16944,7 @@
       <c r="G634" t="inlineStr"/>
       <c r="H634" t="inlineStr">
         <is>
-          <t>proportion socioeconomic status category population statistic</t>
+          <t>minimum personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
       <c r="I634" t="inlineStr"/>
@@ -16952,14 +16952,14 @@
       <c r="K634" t="inlineStr"/>
       <c r="L634" t="inlineStr">
         <is>
-          <t>A socioeconomic status category population statistic that is the proportion of people that have a socioeconomic status category in the population.</t>
+          <t>A personal history of intervention exposure for the same outcome population statistic that is the minimum value of personal history of intervention exposure for the same outcome in the population.</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>BCIO:015723</t>
+          <t>BCIO:015607</t>
         </is>
       </c>
       <c r="B635" t="inlineStr"/>
@@ -16970,7 +16970,7 @@
       <c r="G635" t="inlineStr"/>
       <c r="H635" t="inlineStr">
         <is>
-          <t>percentage socioeconomic status category population statistic</t>
+          <t>maximum personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
       <c r="I635" t="inlineStr"/>
@@ -16978,14 +16978,14 @@
       <c r="K635" t="inlineStr"/>
       <c r="L635" t="inlineStr">
         <is>
-          <t>A socioeconomic status category population statistic that is the percentage of people that have a socioeconomic status category in the population.</t>
+          <t>A personal history of intervention exposure for the same outcome population statistic that is the maximum value of personal history of intervention exposure for the same outcome in the population.</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>BCIO:015604</t>
+          <t>BCIO:015609</t>
         </is>
       </c>
       <c r="B636" t="inlineStr"/>
@@ -16993,25 +16993,25 @@
       <c r="D636" t="inlineStr"/>
       <c r="E636" t="inlineStr"/>
       <c r="F636" t="inlineStr"/>
-      <c r="G636" t="inlineStr">
-        <is>
-          <t>personal history of intervention exposure for the same outcome population statistic</t>
-        </is>
-      </c>
-      <c r="H636" t="inlineStr"/>
+      <c r="G636" t="inlineStr"/>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>percentage personal history of intervention exposure for the same outcome population statistic</t>
+        </is>
+      </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
       <c r="L636" t="inlineStr">
         <is>
-          <t>A population statistic about personal history of intervention exposure for the same outcome.</t>
+          <t>A personal history of intervention exposure for the same outcome population statistic that is the percentage value of personal history of intervention exposure for the same outcome in the population.</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>BCIO:015606</t>
+          <t>BCIO:015605</t>
         </is>
       </c>
       <c r="B637" t="inlineStr"/>
@@ -17022,7 +17022,7 @@
       <c r="G637" t="inlineStr"/>
       <c r="H637" t="inlineStr">
         <is>
-          <t>minimum personal history of intervention exposure for the same outcome population statistic</t>
+          <t>mean personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
       <c r="I637" t="inlineStr"/>
@@ -17030,14 +17030,14 @@
       <c r="K637" t="inlineStr"/>
       <c r="L637" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome population statistic that is the minimum value of personal history of intervention exposure for the same outcome in the population.</t>
+          <t>A personal history of intervention exposure for the same outcome population statistic that is the mean value of personal history of intervention exposure for the same outcome in the population.</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>BCIO:015607</t>
+          <t>BCIO:015608</t>
         </is>
       </c>
       <c r="B638" t="inlineStr"/>
@@ -17048,7 +17048,7 @@
       <c r="G638" t="inlineStr"/>
       <c r="H638" t="inlineStr">
         <is>
-          <t>maximum personal history of intervention exposure for the same outcome population statistic</t>
+          <t>median personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
       <c r="I638" t="inlineStr"/>
@@ -17056,14 +17056,14 @@
       <c r="K638" t="inlineStr"/>
       <c r="L638" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome population statistic that is the maximum value of personal history of intervention exposure for the same outcome in the population.</t>
+          <t>A personal history of intervention exposure for the same outcome population statistic that is the median value of personal history of intervention exposure for the same outcome in the population.</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>BCIO:015609</t>
+          <t>BCIO:015610</t>
         </is>
       </c>
       <c r="B639" t="inlineStr"/>
@@ -17074,7 +17074,7 @@
       <c r="G639" t="inlineStr"/>
       <c r="H639" t="inlineStr">
         <is>
-          <t>percentage personal history of intervention exposure for the same outcome population statistic</t>
+          <t>proportion personal history of intervention exposure for the same outcome population statistic</t>
         </is>
       </c>
       <c r="I639" t="inlineStr"/>
@@ -17082,14 +17082,14 @@
       <c r="K639" t="inlineStr"/>
       <c r="L639" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome population statistic that is the percentage value of personal history of intervention exposure for the same outcome in the population.</t>
+          <t>A personal history of intervention exposure for the same outcome population statistic that is the proportion of individuals having a personal history of intervention exposure for the same outcome in the population.</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>BCIO:015605</t>
+          <t>BCIO:015611</t>
         </is>
       </c>
       <c r="B640" t="inlineStr"/>
@@ -17097,25 +17097,25 @@
       <c r="D640" t="inlineStr"/>
       <c r="E640" t="inlineStr"/>
       <c r="F640" t="inlineStr"/>
-      <c r="G640" t="inlineStr"/>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>mean personal history of intervention exposure for the same outcome population statistic</t>
-        </is>
-      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>personal history of intervention exposure for the same outcome behaviour population statistic</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr"/>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
       <c r="L640" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome population statistic that is the mean value of personal history of intervention exposure for the same outcome in the population.</t>
+          <t>A population statistic about personal history of intervention exposure for the same outcome behaviour.</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>BCIO:015608</t>
+          <t>BCIO:015613</t>
         </is>
       </c>
       <c r="B641" t="inlineStr"/>
@@ -17126,7 +17126,7 @@
       <c r="G641" t="inlineStr"/>
       <c r="H641" t="inlineStr">
         <is>
-          <t>median personal history of intervention exposure for the same outcome population statistic</t>
+          <t>minimum personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="I641" t="inlineStr"/>
@@ -17134,14 +17134,14 @@
       <c r="K641" t="inlineStr"/>
       <c r="L641" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome population statistic that is the median value of personal history of intervention exposure for the same outcome in the population.</t>
+          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the minimum value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>BCIO:015610</t>
+          <t>BCIO:015617</t>
         </is>
       </c>
       <c r="B642" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
       <c r="G642" t="inlineStr"/>
       <c r="H642" t="inlineStr">
         <is>
-          <t>proportion personal history of intervention exposure for the same outcome population statistic</t>
+          <t>proportion personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="I642" t="inlineStr"/>
@@ -17160,14 +17160,14 @@
       <c r="K642" t="inlineStr"/>
       <c r="L642" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome population statistic that is the proportion of individuals having a personal history of intervention exposure for the same outcome in the population.</t>
+          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the proportion of individuals having a personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>BCIO:015611</t>
+          <t>BCIO:015614</t>
         </is>
       </c>
       <c r="B643" t="inlineStr"/>
@@ -17175,25 +17175,25 @@
       <c r="D643" t="inlineStr"/>
       <c r="E643" t="inlineStr"/>
       <c r="F643" t="inlineStr"/>
-      <c r="G643" t="inlineStr">
-        <is>
-          <t>personal history of intervention exposure for the same outcome behaviour population statistic</t>
-        </is>
-      </c>
-      <c r="H643" t="inlineStr"/>
+      <c r="G643" t="inlineStr"/>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>maximum personal history of intervention exposure for the same outcome behaviour population statistic</t>
+        </is>
+      </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
       <c r="L643" t="inlineStr">
         <is>
-          <t>A population statistic about personal history of intervention exposure for the same outcome behaviour.</t>
+          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the maximum value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>BCIO:015613</t>
+          <t>BCIO:015612</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -17204,7 +17204,7 @@
       <c r="G644" t="inlineStr"/>
       <c r="H644" t="inlineStr">
         <is>
-          <t>minimum personal history of intervention exposure for the same outcome behaviour population statistic</t>
+          <t>mean personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="I644" t="inlineStr"/>
@@ -17212,14 +17212,14 @@
       <c r="K644" t="inlineStr"/>
       <c r="L644" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the minimum value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
+          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the mean value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>BCIO:015617</t>
+          <t>BCIO:015615</t>
         </is>
       </c>
       <c r="B645" t="inlineStr"/>
@@ -17230,7 +17230,7 @@
       <c r="G645" t="inlineStr"/>
       <c r="H645" t="inlineStr">
         <is>
-          <t>proportion personal history of intervention exposure for the same outcome behaviour population statistic</t>
+          <t>median personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="I645" t="inlineStr"/>
@@ -17238,14 +17238,14 @@
       <c r="K645" t="inlineStr"/>
       <c r="L645" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the proportion of individuals having a personal history of intervention exposure for the same outcome behaviour in the population.</t>
+          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the median value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>BCIO:015614</t>
+          <t>BCIO:015616</t>
         </is>
       </c>
       <c r="B646" t="inlineStr"/>
@@ -17256,7 +17256,7 @@
       <c r="G646" t="inlineStr"/>
       <c r="H646" t="inlineStr">
         <is>
-          <t>maximum personal history of intervention exposure for the same outcome behaviour population statistic</t>
+          <t>percentage personal history of intervention exposure for the same outcome behaviour population statistic</t>
         </is>
       </c>
       <c r="I646" t="inlineStr"/>
@@ -17264,14 +17264,14 @@
       <c r="K646" t="inlineStr"/>
       <c r="L646" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the maximum value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
+          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the percentage value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>BCIO:015612</t>
+          <t>BCIO:015722</t>
         </is>
       </c>
       <c r="B647" t="inlineStr"/>
@@ -17279,25 +17279,25 @@
       <c r="D647" t="inlineStr"/>
       <c r="E647" t="inlineStr"/>
       <c r="F647" t="inlineStr"/>
-      <c r="G647" t="inlineStr"/>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>mean personal history of intervention exposure for the same outcome behaviour population statistic</t>
-        </is>
-      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>socioeconomic status category population statistic</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr"/>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
       <c r="L647" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the mean value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
+          <t>A population statistic about socioeconomic status category.</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>BCIO:015615</t>
+          <t>BCIO:015724</t>
         </is>
       </c>
       <c r="B648" t="inlineStr"/>
@@ -17308,7 +17308,7 @@
       <c r="G648" t="inlineStr"/>
       <c r="H648" t="inlineStr">
         <is>
-          <t>median personal history of intervention exposure for the same outcome behaviour population statistic</t>
+          <t>proportion socioeconomic status category population statistic</t>
         </is>
       </c>
       <c r="I648" t="inlineStr"/>
@@ -17316,14 +17316,14 @@
       <c r="K648" t="inlineStr"/>
       <c r="L648" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the median value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
+          <t>A socioeconomic status category population statistic that is the proportion of people that have a socioeconomic status category in the population.</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>BCIO:015616</t>
+          <t>BCIO:015723</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -17334,7 +17334,7 @@
       <c r="G649" t="inlineStr"/>
       <c r="H649" t="inlineStr">
         <is>
-          <t>percentage personal history of intervention exposure for the same outcome behaviour population statistic</t>
+          <t>percentage socioeconomic status category population statistic</t>
         </is>
       </c>
       <c r="I649" t="inlineStr"/>
@@ -17342,7 +17342,7 @@
       <c r="K649" t="inlineStr"/>
       <c r="L649" t="inlineStr">
         <is>
-          <t>A personal history of intervention exposure for the same outcome behaviour population statistic that is the percentage value of personal history of intervention exposure for the same outcome behaviour in the population.</t>
+          <t>A socioeconomic status category population statistic that is the percentage of people that have a socioeconomic status category in the population.</t>
         </is>
       </c>
     </row>
@@ -26799,7 +26799,7 @@
       <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>An occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t.</t>
+          <t>p is a process = Def. p is an occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t. (axiom label in BFO2 Reference: [083-003])</t>
         </is>
       </c>
     </row>
@@ -35048,7 +35048,7 @@
       <c r="K1271" t="inlineStr"/>
       <c r="L1271" t="inlineStr">
         <is>
-          <t>A &lt;process&gt; in which at least one bodily component of an organism participates.</t>
+          <t>A process in which at least one bodily component of an organism participates.</t>
         </is>
       </c>
     </row>
@@ -35308,7 +35308,7 @@
       <c r="K1281" t="inlineStr"/>
       <c r="L1281" t="inlineStr">
         <is>
-          <t>A &lt;bodily process&gt; that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
+          <t xml:space="preserve">Valence is a process profile of an emotion, mood, or affective bodily feeling (such as pleasure and pain). Valence can be positive or negative, with different strengths in both directions. For example, pleasure is positively valenced while pain is negatively valenced.  </t>
         </is>
       </c>
     </row>
@@ -35611,7 +35611,7 @@
       <c r="F1293" t="inlineStr"/>
       <c r="G1293" t="inlineStr">
         <is>
-          <t>subjective affective feeling</t>
+          <t>subjective emotional feeling</t>
         </is>
       </c>
       <c r="H1293" t="inlineStr"/>
@@ -36422,7 +36422,7 @@
       <c r="H1324" t="inlineStr"/>
       <c r="I1324" t="inlineStr">
         <is>
-          <t>jouissance</t>
+          <t>enjoyment</t>
         </is>
       </c>
       <c r="J1324" t="inlineStr"/>
